--- a/premise/data/additional_inventories/lci-biofuels.xlsx
+++ b/premise/data/additional_inventories/lci-biofuels.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="14016" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="14016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Cozzolini 2018" sheetId="6" r:id="rId5"/>
     <sheet name="Parameters" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="5" iterateDelta="0.01"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -312,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15902" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15904" uniqueCount="1044">
   <si>
     <t>Database</t>
   </si>
@@ -2370,9 +2370,6 @@
     <t>Ethanol, from sugarbeet, at fuelling station</t>
   </si>
   <si>
-    <t>Ethanol from sugarbeet</t>
-  </si>
-  <si>
     <t>simapro name</t>
   </si>
   <si>
@@ -2415,9 +2412,6 @@
     <t>Electricity ethanol depot = 0.00084 MJ/ MJ EtOHElectricity ethanol filling station = 0.0034 MJ/ MJ EtOHSource: Dautrebande, O., TotalFinaElf, January 2002</t>
   </si>
   <si>
-    <t>Ethanol from wheat grains</t>
-  </si>
-  <si>
     <t>Francesco TH::BioEthanol::Wheat to EtOH</t>
   </si>
   <si>
@@ -2448,9 +2442,6 @@
     <t>Ethanol, from forest residues, at fuelling station</t>
   </si>
   <si>
-    <t>Ethanol from forest residues</t>
-  </si>
-  <si>
     <t>Francesco TH::BioDiesel::Forest Residue to BioD</t>
   </si>
   <si>
@@ -2463,9 +2454,6 @@
     <t>transport woodchips</t>
   </si>
   <si>
-    <t>Ethanol from wheat straw pellets</t>
-  </si>
-  <si>
     <t>Francesco TH::BioEthanol::Straw to Ethanol</t>
   </si>
   <si>
@@ -2514,9 +2502,6 @@
     <t>biodiesel, vehicle grade</t>
   </si>
   <si>
-    <t>Biodiesel from cooking oil</t>
-  </si>
-  <si>
     <t>Francesco TH::BioDiesel::Waste Cooking Oil to BioD</t>
   </si>
   <si>
@@ -2568,9 +2553,6 @@
     <t>Biodiesel, from rapeseed oil, at fuelling station</t>
   </si>
   <si>
-    <t>Biodiesel from rapeseed oil</t>
-  </si>
-  <si>
     <t>Francesco TH::BioDiesel::Rapeseed to BioD</t>
   </si>
   <si>
@@ -2628,9 +2610,6 @@
     <t>Biodiesel, from palm oil, at fuelling station</t>
   </si>
   <si>
-    <t>Biodiesel from palm oil</t>
-  </si>
-  <si>
     <t>Francesco TH::BioDiesel::Palm Oil to BioD</t>
   </si>
   <si>
@@ -2652,9 +2631,6 @@
     <t>Biodiesel, from algae, at fuelling station</t>
   </si>
   <si>
-    <t>Biodiesel from algae</t>
-  </si>
-  <si>
     <t>Francesco TH::BioDiesel::Algae Biodiesel</t>
   </si>
   <si>
@@ -2916,9 +2892,6 @@
     <t>Ethanol, from corn starch, at fuelling station</t>
   </si>
   <si>
-    <t>Ethanol from corn starch</t>
-  </si>
-  <si>
     <t>To produce 1 kg of ethanol, 2.55 kg of dry corn are needed. Follows that yield in ethanol from corn is equal to 0.4 kg of ethanol per kg of dry corn. The main by-products are DDGS and corn oil in an amount equal to 779 kg per ton of ethanol produced. The included activities are corn cultivation, drying, handling and storage, transport of corn to production facility, sugar extraction, fermentation process, product distillation and dehydration via molecular sieves.</t>
   </si>
   <si>
@@ -3472,6 +3445,33 @@
   </si>
   <si>
     <t>transport, freight, lorry, unspecified {GLO}| market for | Alloc Rec, U</t>
+  </si>
+  <si>
+    <t>ethanol, from wheat grains</t>
+  </si>
+  <si>
+    <t>ethanol, from wheat straw pellets</t>
+  </si>
+  <si>
+    <t>ethanol, from corn starch</t>
+  </si>
+  <si>
+    <t>ethanol, from sugarbeet</t>
+  </si>
+  <si>
+    <t>ethanol, from forest residues</t>
+  </si>
+  <si>
+    <t>biodiesel, from cooking oil</t>
+  </si>
+  <si>
+    <t>biodiesel, from rapeseed oil</t>
+  </si>
+  <si>
+    <t>biodiesel, from palm oil</t>
+  </si>
+  <si>
+    <t>biodiesel, from algae</t>
   </si>
 </sst>
 </file>
@@ -3486,7 +3486,7 @@
     <numFmt numFmtId="168" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3561,13 +3561,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E2E2E"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3727,7 +3720,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3837,9 +3830,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -5100,13 +5090,13 @@
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="C20" t="s">
         <v>590</v>
       </c>
       <c r="D20" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -5161,13 +5151,13 @@
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="C21" t="s">
         <v>590</v>
       </c>
       <c r="D21" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -5218,7 +5208,7 @@
         <v>590</v>
       </c>
       <c r="D22" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -5275,13 +5265,13 @@
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="C23" t="s">
         <v>590</v>
       </c>
       <c r="D23" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -5341,7 +5331,7 @@
         <v>590</v>
       </c>
       <c r="D24" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -5373,13 +5363,13 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="C25" t="s">
         <v>590</v>
       </c>
       <c r="D25" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -5411,13 +5401,13 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="C26" t="s">
         <v>590</v>
       </c>
       <c r="D26" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -5474,13 +5464,13 @@
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="C27" t="s">
         <v>590</v>
       </c>
       <c r="D27" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -5528,13 +5518,13 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="C28" t="s">
         <v>590</v>
       </c>
       <c r="D28" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -6406,13 +6396,13 @@
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="C49" t="s">
         <v>590</v>
       </c>
       <c r="D49" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -6455,13 +6445,13 @@
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="C50" t="s">
         <v>590</v>
       </c>
       <c r="D50" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -6504,13 +6494,13 @@
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="C51" t="s">
         <v>590</v>
       </c>
       <c r="D51" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -6556,13 +6546,13 @@
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="C52" t="s">
         <v>590</v>
       </c>
       <c r="D52" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -6614,7 +6604,7 @@
         <v>590</v>
       </c>
       <c r="D53" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -6657,13 +6647,13 @@
     </row>
     <row r="54" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="C54" t="s">
         <v>590</v>
       </c>
       <c r="D54" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -6706,13 +6696,13 @@
     </row>
     <row r="55" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="C55" t="s">
         <v>590</v>
       </c>
       <c r="D55" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -6758,13 +6748,13 @@
     </row>
     <row r="56" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="C56" t="s">
         <v>590</v>
       </c>
       <c r="D56" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -6810,13 +6800,13 @@
     </row>
     <row r="57" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="C57" t="s">
         <v>590</v>
       </c>
       <c r="D57" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -7825,13 +7815,13 @@
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="C77" t="s">
         <v>590</v>
       </c>
       <c r="D77" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -7883,13 +7873,13 @@
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="C78" t="s">
         <v>590</v>
       </c>
       <c r="D78" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -7941,13 +7931,13 @@
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="C79" t="s">
         <v>590</v>
       </c>
       <c r="D79" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -7999,13 +7989,13 @@
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="C80" t="s">
         <v>590</v>
       </c>
       <c r="D80" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -8063,7 +8053,7 @@
         <v>590</v>
       </c>
       <c r="D81" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -8115,13 +8105,13 @@
     </row>
     <row r="82" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B82" s="2" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="C82" t="s">
         <v>590</v>
       </c>
       <c r="D82" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -8173,13 +8163,13 @@
     </row>
     <row r="83" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B83" s="2" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="C83" t="s">
         <v>590</v>
       </c>
       <c r="D83" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -8231,13 +8221,13 @@
     </row>
     <row r="84" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B84" s="2" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="C84" t="s">
         <v>590</v>
       </c>
       <c r="D84" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -8289,13 +8279,13 @@
     </row>
     <row r="85" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="C85" t="s">
         <v>590</v>
       </c>
       <c r="D85" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -12615,8 +12605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2183"/>
   <sheetViews>
-    <sheetView topLeftCell="A1888" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="H1916" sqref="H1916"/>
+    <sheetView tabSelected="1" topLeftCell="A2157" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="B531" sqref="B531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12709,7 +12699,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B11" s="5">
         <f>Summary!R6</f>
@@ -12718,7 +12708,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B12" s="78">
         <f>Summary!Q6</f>
@@ -13105,12 +13095,12 @@
         <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="B31" s="6">
         <f>75.643/1000000</f>
@@ -13126,7 +13116,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -13147,7 +13137,7 @@
         <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -15577,7 +15567,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B185" s="5">
         <f>Summary!R7</f>
@@ -15586,7 +15576,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B186" s="78">
         <f>Summary!Q7</f>
@@ -15937,12 +15927,12 @@
         <v>38</v>
       </c>
       <c r="G202" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="B203" s="6">
         <f>27.433/1000000</f>
@@ -15958,7 +15948,7 @@
         <v>38</v>
       </c>
       <c r="G203" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
@@ -15979,7 +15969,7 @@
         <v>38</v>
       </c>
       <c r="G204" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
@@ -18988,7 +18978,7 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B386" s="5">
         <f>Summary!R8</f>
@@ -18997,7 +18987,7 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B387" s="78">
         <f>Summary!Q8</f>
@@ -19347,12 +19337,12 @@
         <v>38</v>
       </c>
       <c r="G403" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="B404" s="6">
         <f>20.36/1000000</f>
@@ -19368,7 +19358,7 @@
         <v>38</v>
       </c>
       <c r="G404" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.3">
@@ -19389,7 +19379,7 @@
         <v>38</v>
       </c>
       <c r="G405" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.3">
@@ -24532,7 +24522,7 @@
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B726" s="5">
         <f>Summary!R10</f>
@@ -24541,7 +24531,7 @@
     </row>
     <row r="727" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B727" s="78">
         <f>Summary!Q10</f>
@@ -24913,12 +24903,12 @@
         <v>38</v>
       </c>
       <c r="G744" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="745" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="B745" s="6">
         <f>73.885/1000000</f>
@@ -24934,7 +24924,7 @@
         <v>38</v>
       </c>
       <c r="G745" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.3">
@@ -24955,7 +24945,7 @@
         <v>38</v>
       </c>
       <c r="G746" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="747" spans="1:8" x14ac:dyDescent="0.3">
@@ -28021,7 +28011,7 @@
     </row>
     <row r="930" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B930" s="5">
         <f>Summary!R11</f>
@@ -28030,7 +28020,7 @@
     </row>
     <row r="931" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B931" s="78">
         <f>Summary!Q11</f>
@@ -30678,7 +30668,7 @@
     </row>
     <row r="1094" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1094" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B1094" s="5">
         <f>Summary!R12</f>
@@ -30687,7 +30677,7 @@
     </row>
     <row r="1095" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1095" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B1095" s="78">
         <f>Summary!Q12</f>
@@ -31062,12 +31052,12 @@
         <v>38</v>
       </c>
       <c r="G1112" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1113" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="B1113" s="6">
         <f>29.38/1000000</f>
@@ -31083,7 +31073,7 @@
         <v>38</v>
       </c>
       <c r="G1113" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1114" spans="1:8" x14ac:dyDescent="0.3">
@@ -31104,7 +31094,7 @@
         <v>38</v>
       </c>
       <c r="G1114" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1115" spans="1:8" x14ac:dyDescent="0.3">
@@ -33720,7 +33710,7 @@
     </row>
     <row r="1277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1277" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B1277" s="5">
         <f>Summary!R13</f>
@@ -33729,7 +33719,7 @@
     </row>
     <row r="1278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1278" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B1278" s="78">
         <f>Summary!Q13</f>
@@ -34127,12 +34117,12 @@
         <v>38</v>
       </c>
       <c r="G1296" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1297" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="B1297" s="6">
         <f>11.36/1000000</f>
@@ -34148,7 +34138,7 @@
         <v>38</v>
       </c>
       <c r="G1297" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1298" spans="1:7" x14ac:dyDescent="0.3">
@@ -34169,7 +34159,7 @@
         <v>38</v>
       </c>
       <c r="G1298" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1299" spans="1:7" x14ac:dyDescent="0.3">
@@ -37101,7 +37091,7 @@
     </row>
     <row r="1476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1476" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B1476" s="5">
         <f>Summary!R14</f>
@@ -37110,7 +37100,7 @@
     </row>
     <row r="1477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1477" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B1477" s="78">
         <f>Summary!Q14</f>
@@ -37487,12 +37477,12 @@
         <v>38</v>
       </c>
       <c r="G1494" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1495" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="B1495" s="6">
         <f>25.65/1000000</f>
@@ -37508,7 +37498,7 @@
         <v>38</v>
       </c>
       <c r="G1495" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1496" spans="1:8" x14ac:dyDescent="0.3">
@@ -37529,7 +37519,7 @@
         <v>38</v>
       </c>
       <c r="G1496" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1497" spans="1:8" x14ac:dyDescent="0.3">
@@ -39723,7 +39713,7 @@
     </row>
     <row r="1635" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1635" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B1635" s="5">
         <f>Summary!R15</f>
@@ -39732,7 +39722,7 @@
     </row>
     <row r="1636" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1636" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B1636" s="78">
         <f>Summary!Q15</f>
@@ -40151,12 +40141,12 @@
         <v>38</v>
       </c>
       <c r="G1655" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1656" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1656" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="B1656" s="6">
         <f>25.75/1000000</f>
@@ -40172,7 +40162,7 @@
         <v>38</v>
       </c>
       <c r="G1656" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1657" spans="1:8" x14ac:dyDescent="0.3">
@@ -40193,7 +40183,7 @@
         <v>38</v>
       </c>
       <c r="G1657" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1658" spans="1:8" x14ac:dyDescent="0.3">
@@ -42916,7 +42906,7 @@
     </row>
     <row r="1825" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1825" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B1825" s="5">
         <f>Summary!R16</f>
@@ -42925,7 +42915,7 @@
     </row>
     <row r="1826" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1826" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B1826" s="78">
         <f>Summary!Q16</f>
@@ -43410,12 +43400,12 @@
         <v>38</v>
       </c>
       <c r="G1848" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1849" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1849" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="B1849" s="6">
         <f>8.88/1000000</f>
@@ -43431,7 +43421,7 @@
         <v>38</v>
       </c>
       <c r="G1849" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1850" spans="1:8" x14ac:dyDescent="0.3">
@@ -43452,7 +43442,7 @@
         <v>38</v>
       </c>
       <c r="G1850" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1851" spans="1:8" x14ac:dyDescent="0.3">
@@ -45687,7 +45677,7 @@
         <v>28</v>
       </c>
       <c r="B1982" s="6" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1983" spans="1:9" x14ac:dyDescent="0.3">
@@ -49144,7 +49134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J344"/>
   <sheetViews>
-    <sheetView topLeftCell="A307" workbookViewId="0">
+    <sheetView topLeftCell="A331" workbookViewId="0">
       <selection activeCell="A315" sqref="A315"/>
     </sheetView>
   </sheetViews>
@@ -49221,7 +49211,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B9" s="5">
         <f>Summary!R17</f>
@@ -49230,7 +49220,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B10" s="78">
         <f>Summary!Q17</f>
@@ -50322,7 +50312,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B69" s="5">
         <f>Summary!R18</f>
@@ -50331,7 +50321,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B70" s="78">
         <f>Summary!Q18</f>
@@ -54796,7 +54786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A109" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -54868,12 +54858,12 @@
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B9" s="6">
         <v>18.850000000000001</v>
@@ -54881,7 +54871,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B10" s="78">
         <f>Summary!Q19</f>
@@ -54975,7 +54965,7 @@
         <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>587</v>
@@ -55224,7 +55214,7 @@
         <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -55742,7 +55732,7 @@
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="F51" t="s">
         <v>38</v>
@@ -55782,7 +55772,7 @@
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="F53" t="s">
         <v>38</v>
@@ -55822,7 +55812,7 @@
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="F55" t="s">
         <v>38</v>
@@ -55842,7 +55832,7 @@
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="F56" t="s">
         <v>38</v>
@@ -55982,7 +55972,7 @@
         <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="F63" t="s">
         <v>38</v>
@@ -56002,7 +55992,7 @@
         <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="F64" t="s">
         <v>38</v>
@@ -56796,8 +56786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1027"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A805" workbookViewId="0">
-      <selection activeCell="A510" sqref="A510"/>
+    <sheetView topLeftCell="A1012" workbookViewId="0">
+      <selection activeCell="K1037" sqref="K1037"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56816,7 +56806,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -56840,7 +56830,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -56872,12 +56862,12 @@
         <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B9" s="5">
         <v>15.15</v>
@@ -56885,7 +56875,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B10" s="78">
         <v>0.13500000000000001</v>
@@ -56924,7 +56914,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -56936,7 +56926,7 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -56945,12 +56935,12 @@
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="B14" s="6">
         <v>0.14000000000000001</v>
@@ -56965,15 +56955,15 @@
         <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="H14" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="B15" s="6">
         <v>1.6118842500000003E-4</v>
@@ -56991,10 +56981,10 @@
         <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="H15" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -57017,7 +57007,7 @@
         <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="H16" t="s">
         <v>45</v>
@@ -57043,7 +57033,7 @@
         <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="H17" t="s">
         <v>625</v>
@@ -57069,7 +57059,7 @@
         <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="H18" t="s">
         <v>47</v>
@@ -57095,7 +57085,7 @@
         <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="H19" t="s">
         <v>49</v>
@@ -57121,7 +57111,7 @@
         <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="H20" t="s">
         <v>51</v>
@@ -57129,7 +57119,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="B21" s="6">
         <v>5.2419000000000007E-3</v>
@@ -57147,10 +57137,10 @@
         <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="H21" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -57173,7 +57163,7 @@
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="H22" t="s">
         <v>24</v>
@@ -57199,7 +57189,7 @@
         <v>21</v>
       </c>
       <c r="G23" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="H23" t="s">
         <v>671</v>
@@ -57225,7 +57215,7 @@
         <v>21</v>
       </c>
       <c r="G24" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="H24" t="s">
         <v>671</v>
@@ -57289,7 +57279,7 @@
         <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -57310,7 +57300,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -57330,7 +57320,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -57350,7 +57340,7 @@
         <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -57370,7 +57360,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -57381,7 +57371,7 @@
         <v>0.12318</v>
       </c>
       <c r="C32" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="D32" t="s">
         <v>125</v>
@@ -57390,7 +57380,7 @@
         <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="H32" t="s">
         <v>126</v>
@@ -57398,7 +57388,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="B33" s="6">
         <v>9.4816999999999999E-2</v>
@@ -57413,15 +57403,15 @@
         <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="H33" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="B34" s="6">
         <v>1.0309E-3</v>
@@ -57436,10 +57426,10 @@
         <v>21</v>
       </c>
       <c r="G34" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="H34" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -57459,7 +57449,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -57479,7 +57469,7 @@
         <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -57499,7 +57489,7 @@
         <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -57519,7 +57509,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -57539,7 +57529,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -57559,7 +57549,7 @@
         <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -57579,12 +57569,12 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="B42" s="6">
         <v>9.7411999999999995E-5</v>
@@ -57599,7 +57589,7 @@
         <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -57619,12 +57609,12 @@
         <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="B44" s="6">
         <v>6.7764999999999999E-5</v>
@@ -57639,7 +57629,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -57659,12 +57649,12 @@
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="B46" s="6">
         <v>4.1820000000000003E-5</v>
@@ -57679,7 +57669,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -57699,12 +57689,12 @@
         <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="B48" s="6">
         <v>2.8062999999999999E-5</v>
@@ -57719,12 +57709,12 @@
         <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="B49" s="6">
         <v>2.6434000000000001E-5</v>
@@ -57739,12 +57729,12 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="B50" s="6">
         <v>2.5826999999999999E-5</v>
@@ -57759,12 +57749,12 @@
         <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="B51" s="6">
         <v>2.2212999999999999E-5</v>
@@ -57779,12 +57769,12 @@
         <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="B52" s="6">
         <v>2.0055999999999999E-5</v>
@@ -57799,12 +57789,12 @@
         <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="B53" s="6">
         <v>1.9833000000000001E-5</v>
@@ -57819,7 +57809,7 @@
         <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -57839,7 +57829,7 @@
         <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -57859,12 +57849,12 @@
         <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="B56" s="6">
         <v>1.1124999999999999E-5</v>
@@ -57879,12 +57869,12 @@
         <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="B57" s="6">
         <v>7.9096999999999998E-6</v>
@@ -57899,12 +57889,12 @@
         <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="B58" s="6">
         <v>7.0283000000000001E-6</v>
@@ -57919,12 +57909,12 @@
         <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="B59" s="6">
         <v>6.9120000000000001E-6</v>
@@ -57939,12 +57929,12 @@
         <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="B60" s="6">
         <v>6.2171000000000002E-6</v>
@@ -57959,7 +57949,7 @@
         <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -57979,12 +57969,12 @@
         <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="B62" s="6">
         <v>5.2755999999999999E-6</v>
@@ -57999,12 +57989,12 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="B63" s="6">
         <v>4.318E-6</v>
@@ -58019,12 +58009,12 @@
         <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="B64" s="6">
         <v>4.2709000000000001E-6</v>
@@ -58039,12 +58029,12 @@
         <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="B65" s="6">
         <v>4.0783000000000004E-6</v>
@@ -58059,12 +58049,12 @@
         <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="B66" s="6">
         <v>3.9253999999999997E-6</v>
@@ -58079,12 +58069,12 @@
         <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="B67" s="6">
         <v>2.9745000000000001E-6</v>
@@ -58099,7 +58089,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -58119,12 +58109,12 @@
         <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="B69" s="6">
         <v>2.7584000000000001E-6</v>
@@ -58139,7 +58129,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -58159,7 +58149,7 @@
         <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -58179,12 +58169,12 @@
         <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="B72" s="6">
         <v>2.1621E-6</v>
@@ -58199,12 +58189,12 @@
         <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="B73" s="6">
         <v>1.8418000000000001E-6</v>
@@ -58219,12 +58209,12 @@
         <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="B74" s="6">
         <v>1.7949E-6</v>
@@ -58239,12 +58229,12 @@
         <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="B75" s="6">
         <v>1.7571000000000001E-6</v>
@@ -58259,12 +58249,12 @@
         <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="B76" s="6">
         <v>1.7163E-6</v>
@@ -58279,12 +58269,12 @@
         <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="B77" s="6">
         <v>1.4859E-6</v>
@@ -58299,12 +58289,12 @@
         <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="B78" s="6">
         <v>1.3882999999999999E-6</v>
@@ -58319,12 +58309,12 @@
         <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="B79" s="6">
         <v>1.1375999999999999E-6</v>
@@ -58339,7 +58329,7 @@
         <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -58359,7 +58349,7 @@
         <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -58379,12 +58369,12 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="B82" s="6">
         <v>1.0217999999999999E-6</v>
@@ -58399,7 +58389,7 @@
         <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -58419,12 +58409,12 @@
         <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="B84" s="6">
         <v>7.5175000000000004E-7</v>
@@ -58439,12 +58429,12 @@
         <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="B85" s="6">
         <v>7.1319000000000005E-7</v>
@@ -58459,12 +58449,12 @@
         <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="B86" s="6">
         <v>6.2196999999999995E-7</v>
@@ -58479,12 +58469,12 @@
         <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="B87" s="6">
         <v>5.4909E-7</v>
@@ -58499,12 +58489,12 @@
         <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="B88" s="6">
         <v>5.0380000000000005E-7</v>
@@ -58519,7 +58509,7 @@
         <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -58539,7 +58529,7 @@
         <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -58559,7 +58549,7 @@
         <v>38</v>
       </c>
       <c r="G90" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -58579,12 +58569,12 @@
         <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="B92" s="6">
         <v>4.2759999999999999E-7</v>
@@ -58599,12 +58589,12 @@
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="B93" s="6">
         <v>4.1983000000000002E-7</v>
@@ -58619,7 +58609,7 @@
         <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -58639,12 +58629,12 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="B95" s="6">
         <v>3.5656000000000001E-7</v>
@@ -58659,12 +58649,12 @@
         <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="B96" s="6">
         <v>3.4060000000000002E-7</v>
@@ -58679,7 +58669,7 @@
         <v>38</v>
       </c>
       <c r="G96" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -58699,7 +58689,7 @@
         <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -58719,7 +58709,7 @@
         <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -58739,12 +58729,12 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="B100" s="6">
         <v>2.4989999999999998E-7</v>
@@ -58759,12 +58749,12 @@
         <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="B101" s="6">
         <v>2.0524999999999999E-7</v>
@@ -58779,7 +58769,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -58799,12 +58789,12 @@
         <v>38</v>
       </c>
       <c r="G102" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="B103" s="6">
         <v>1.4880999999999999E-7</v>
@@ -58819,7 +58809,7 @@
         <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -58839,12 +58829,12 @@
         <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="B105" s="6">
         <v>1.1766E-7</v>
@@ -58859,12 +58849,12 @@
         <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="B106" s="6">
         <v>9.4035999999999996E-8</v>
@@ -58879,7 +58869,7 @@
         <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -58899,12 +58889,12 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="B108" s="6">
         <v>6.2196999999999998E-8</v>
@@ -58919,12 +58909,12 @@
         <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="B109" s="6">
         <v>4.7693999999999997E-8</v>
@@ -58939,12 +58929,12 @@
         <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="B110" s="6">
         <v>3.7021999999999999E-8</v>
@@ -58959,12 +58949,12 @@
         <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="B111" s="6">
         <v>3.3320000000000003E-8</v>
@@ -58979,12 +58969,12 @@
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="B112" s="6">
         <v>2.9761000000000001E-8</v>
@@ -58999,7 +58989,7 @@
         <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -59019,7 +59009,7 @@
         <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -59039,7 +59029,7 @@
         <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -59059,7 +59049,7 @@
         <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -59079,7 +59069,7 @@
         <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -59099,7 +59089,7 @@
         <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -59119,7 +59109,7 @@
         <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -59139,7 +59129,7 @@
         <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -59159,7 +59149,7 @@
         <v>38</v>
       </c>
       <c r="G120" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -59167,7 +59157,7 @@
         <v>1</v>
       </c>
       <c r="B122" s="73" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -59191,7 +59181,7 @@
         <v>5</v>
       </c>
       <c r="B125" s="74" t="s">
-        <v>691</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -59212,10 +59202,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -59268,7 +59258,7 @@
     </row>
     <row r="133" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="B133" s="6">
         <v>1</v>
@@ -59280,21 +59270,21 @@
         <v>9</v>
       </c>
       <c r="E133" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F133" t="s">
         <v>18</v>
       </c>
       <c r="G133" t="s">
-        <v>693</v>
-      </c>
-      <c r="H133" s="2" t="s">
         <v>691</v>
+      </c>
+      <c r="H133" s="74" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="B134" s="6">
         <f>29.2388/B27</f>
@@ -59313,10 +59303,10 @@
         <v>21</v>
       </c>
       <c r="G134" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H134" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -59339,7 +59329,7 @@
         <v>21</v>
       </c>
       <c r="G135" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H135" t="s">
         <v>261</v>
@@ -59365,7 +59355,7 @@
         <v>21</v>
       </c>
       <c r="G136" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H136" t="s">
         <v>657</v>
@@ -59391,7 +59381,7 @@
         <v>21</v>
       </c>
       <c r="G137" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H137" t="s">
         <v>396</v>
@@ -59417,7 +59407,7 @@
         <v>21</v>
       </c>
       <c r="G138" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H138" t="s">
         <v>258</v>
@@ -59495,7 +59485,7 @@
         <v>21</v>
       </c>
       <c r="G141" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="H141" t="s">
         <v>360</v>
@@ -59521,7 +59511,7 @@
         <v>21</v>
       </c>
       <c r="G142" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H142" t="s">
         <v>360</v>
@@ -59547,7 +59537,7 @@
         <v>21</v>
       </c>
       <c r="G143" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H143" t="s">
         <v>360</v>
@@ -59555,7 +59545,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="B144" s="6">
         <v>1.1175600000000001</v>
@@ -59576,7 +59566,7 @@
         <v>667</v>
       </c>
       <c r="H144" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -59599,7 +59589,7 @@
         <v>21</v>
       </c>
       <c r="G145" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H145" t="s">
         <v>671</v>
@@ -59625,7 +59615,7 @@
         <v>21</v>
       </c>
       <c r="G146" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H146" t="s">
         <v>671</v>
@@ -59657,7 +59647,7 @@
         <v>1</v>
       </c>
       <c r="B149" s="73" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -59750,7 +59740,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="B158" s="6">
         <v>1</v>
@@ -59776,7 +59766,7 @@
     </row>
     <row r="159" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="B159" s="6">
         <v>1.00057</v>
@@ -59790,8 +59780,8 @@
       <c r="F159" t="s">
         <v>21</v>
       </c>
-      <c r="K159" t="s">
-        <v>691</v>
+      <c r="K159" s="74" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
@@ -59999,7 +59989,7 @@
         <v>1</v>
       </c>
       <c r="B171" s="73" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
@@ -60023,7 +60013,7 @@
         <v>5</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
@@ -60052,7 +60042,7 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B178" s="6">
         <v>17.2</v>
@@ -60060,7 +60050,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B179" s="75">
         <v>0.1</v>
@@ -60099,7 +60089,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="B182" s="6">
         <v>1</v>
@@ -60111,7 +60101,7 @@
         <v>9</v>
       </c>
       <c r="E182" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F182" t="s">
         <v>18</v>
@@ -60120,12 +60110,12 @@
         <v>19</v>
       </c>
       <c r="H182" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="B183" s="6">
         <v>0.14000000000000001</v>
@@ -60140,10 +60130,10 @@
         <v>21</v>
       </c>
       <c r="G183" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="H183" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -60216,7 +60206,7 @@
         <v>38</v>
       </c>
       <c r="G186" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -60261,7 +60251,7 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="B189" s="6">
         <v>3.6585432000000003E-3</v>
@@ -60282,7 +60272,7 @@
         <v>19</v>
       </c>
       <c r="H189" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -60303,7 +60293,7 @@
         <v>38</v>
       </c>
       <c r="J190" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -60311,7 +60301,7 @@
         <v>1</v>
       </c>
       <c r="B192" s="73" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
@@ -60335,7 +60325,7 @@
         <v>5</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>707</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
@@ -60405,15 +60395,15 @@
         <v>5</v>
       </c>
       <c r="J201" t="s">
+        <v>676</v>
+      </c>
+      <c r="K201" t="s">
         <v>677</v>
-      </c>
-      <c r="K201" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="B202" s="6">
         <v>1</v>
@@ -60425,7 +60415,7 @@
         <v>9</v>
       </c>
       <c r="E202" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F202" t="s">
         <v>18</v>
@@ -60433,13 +60423,13 @@
       <c r="G202" t="s">
         <v>19</v>
       </c>
-      <c r="H202" t="s">
-        <v>707</v>
+      <c r="H202" s="6" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="B203" s="6">
         <f>51.839247/B186</f>
@@ -60461,7 +60451,7 @@
         <v>19</v>
       </c>
       <c r="H203" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
@@ -60493,15 +60483,15 @@
         <v>261</v>
       </c>
       <c r="J204" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="K204" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="B205" s="6">
         <v>2.3852000000000001E-3</v>
@@ -60522,21 +60512,21 @@
         <v>19</v>
       </c>
       <c r="H205" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="I205" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="J205" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="K205" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B206" s="6">
         <v>6.8340000000000002E-4</v>
@@ -60557,21 +60547,21 @@
         <v>19</v>
       </c>
       <c r="H206" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="I206" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="J206" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="K206" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B207" s="6">
         <v>5.1188000000000004E-4</v>
@@ -60592,16 +60582,16 @@
         <v>19</v>
       </c>
       <c r="H207" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="I207" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="J207" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="K207" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
@@ -60633,15 +60623,15 @@
         <v>660</v>
       </c>
       <c r="J208" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="K208" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B209" s="6">
         <v>5.1992000000000002E-3</v>
@@ -60662,16 +60652,16 @@
         <v>19</v>
       </c>
       <c r="H209" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="I209" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="J209" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="K209" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
@@ -60703,15 +60693,15 @@
         <v>396</v>
       </c>
       <c r="J210" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="K210" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B211" s="6">
         <v>7.0483999999999998E-4</v>
@@ -60732,16 +60722,16 @@
         <v>19</v>
       </c>
       <c r="H211" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="I211" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="J211" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="K211" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
@@ -60773,10 +60763,10 @@
         <v>105</v>
       </c>
       <c r="J212" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K212" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
@@ -60808,10 +60798,10 @@
         <v>100</v>
       </c>
       <c r="J213" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K213" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
@@ -60843,10 +60833,10 @@
         <v>360</v>
       </c>
       <c r="J214" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="K214" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
@@ -60878,15 +60868,15 @@
         <v>360</v>
       </c>
       <c r="J215" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="K215" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="B216" s="6">
         <v>1.1175600000000001</v>
@@ -60907,16 +60897,16 @@
         <v>19</v>
       </c>
       <c r="H216" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="I216" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="J216" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="K216" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
@@ -60948,10 +60938,10 @@
         <v>671</v>
       </c>
       <c r="J217" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K217" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
@@ -60983,10 +60973,10 @@
         <v>671</v>
       </c>
       <c r="J218" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K218" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
@@ -61055,7 +61045,7 @@
         <v>1</v>
       </c>
       <c r="B223" s="73" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
@@ -61148,7 +61138,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="B232" s="6">
         <v>1</v>
@@ -61174,7 +61164,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="B233" s="6">
         <v>1.00057</v>
@@ -61188,8 +61178,8 @@
       <c r="F233" t="s">
         <v>21</v>
       </c>
-      <c r="K233" t="s">
-        <v>707</v>
+      <c r="K233" s="6" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
@@ -61425,7 +61415,7 @@
         <v>5</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
@@ -61454,7 +61444,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B252" s="5">
         <f>14.9/(1-B253)</f>
@@ -61463,7 +61453,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B253" s="75">
         <v>0.14000000000000001</v>
@@ -61514,7 +61504,7 @@
         <v>9</v>
       </c>
       <c r="E256" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="F256" t="s">
         <v>18</v>
@@ -61537,13 +61527,13 @@
         <v>9</v>
       </c>
       <c r="E257" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="F257" t="s">
         <v>21</v>
       </c>
       <c r="G257" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
@@ -61563,7 +61553,7 @@
         <v>38</v>
       </c>
       <c r="G258" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
@@ -61583,7 +61573,7 @@
         <v>38</v>
       </c>
       <c r="G259" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
@@ -61606,7 +61596,7 @@
         <v>21</v>
       </c>
       <c r="G260" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="H260" t="s">
         <v>122</v>
@@ -61614,7 +61604,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="B261" s="6">
         <v>3.382384E-3</v>
@@ -61632,10 +61622,10 @@
         <v>21</v>
       </c>
       <c r="G261" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="H261" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
@@ -61658,7 +61648,7 @@
         <v>21</v>
       </c>
       <c r="G262" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="H262" t="s">
         <v>45</v>
@@ -61685,7 +61675,7 @@
         <v>21</v>
       </c>
       <c r="G263" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="H263" t="s">
         <v>625</v>
@@ -61711,7 +61701,7 @@
         <v>21</v>
       </c>
       <c r="G264" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="H264" t="s">
         <v>47</v>
@@ -61737,7 +61727,7 @@
         <v>21</v>
       </c>
       <c r="G265" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="H265" t="s">
         <v>49</v>
@@ -61763,7 +61753,7 @@
         <v>21</v>
       </c>
       <c r="G266" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="H266" t="s">
         <v>51</v>
@@ -61790,7 +61780,7 @@
         <v>21</v>
       </c>
       <c r="G267" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="H267" t="s">
         <v>24</v>
@@ -61816,7 +61806,7 @@
         <v>21</v>
       </c>
       <c r="G268" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="H268" t="s">
         <v>671</v>
@@ -61842,7 +61832,7 @@
         <v>21</v>
       </c>
       <c r="G269" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="H269" t="s">
         <v>671</v>
@@ -61850,7 +61840,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="B270" s="6">
         <v>3.923859E-3</v>
@@ -61868,10 +61858,10 @@
         <v>21</v>
       </c>
       <c r="G270" t="s">
+        <v>785</v>
+      </c>
+      <c r="H270" t="s">
         <v>793</v>
-      </c>
-      <c r="H270" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
@@ -61892,7 +61882,7 @@
         <v>21</v>
       </c>
       <c r="G271" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="H271" t="s">
         <v>360</v>
@@ -61916,7 +61906,7 @@
         <v>38</v>
       </c>
       <c r="G272" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
@@ -61937,7 +61927,7 @@
         <v>38</v>
       </c>
       <c r="G273" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
@@ -61958,7 +61948,7 @@
         <v>38</v>
       </c>
       <c r="G274" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
@@ -61979,7 +61969,7 @@
         <v>38</v>
       </c>
       <c r="G275" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
@@ -62000,7 +61990,7 @@
         <v>38</v>
       </c>
       <c r="G276" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
@@ -63050,7 +63040,7 @@
         <v>1</v>
       </c>
       <c r="B330" s="73" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.3">
@@ -63074,7 +63064,7 @@
         <v>5</v>
       </c>
       <c r="B333" s="74" t="s">
-        <v>858</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.3">
@@ -63106,7 +63096,7 @@
         <v>12</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.3">
@@ -63151,7 +63141,7 @@
     </row>
     <row r="341" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="B341" s="6">
         <v>1</v>
@@ -63163,7 +63153,7 @@
         <v>9</v>
       </c>
       <c r="E341" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="F341" t="s">
         <v>18</v>
@@ -63171,8 +63161,8 @@
       <c r="G341" t="s">
         <v>19</v>
       </c>
-      <c r="H341" s="79" t="s">
-        <v>858</v>
+      <c r="H341" s="74" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
@@ -63196,7 +63186,7 @@
         <v>21</v>
       </c>
       <c r="G342" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
@@ -63375,7 +63365,7 @@
         <v>21</v>
       </c>
       <c r="G349" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="H349" t="s">
         <v>105</v>
@@ -63427,7 +63417,7 @@
         <v>21</v>
       </c>
       <c r="G351" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="H351" t="s">
         <v>360</v>
@@ -63487,7 +63477,7 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="B354" s="6">
         <v>1.19262</v>
@@ -63508,12 +63498,12 @@
         <v>667</v>
       </c>
       <c r="H354" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="B355" s="6">
         <v>7.5658440000000004E-3</v>
@@ -63534,7 +63524,7 @@
         <v>668</v>
       </c>
       <c r="H355" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
@@ -63641,7 +63631,7 @@
         <v>1</v>
       </c>
       <c r="B361" s="73" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
@@ -63742,7 +63732,7 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="B371" s="6">
         <v>1</v>
@@ -63768,7 +63758,7 @@
     </row>
     <row r="372" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="B372" s="6">
         <v>1.00057</v>
@@ -63782,8 +63772,8 @@
       <c r="F372" t="s">
         <v>21</v>
       </c>
-      <c r="K372" t="s">
-        <v>858</v>
+      <c r="K372" s="74" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.3">
@@ -63995,7 +63985,7 @@
         <v>1</v>
       </c>
       <c r="B384" s="73" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
@@ -64019,7 +64009,7 @@
         <v>5</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.3">
@@ -64040,7 +64030,7 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="B390" s="6">
         <v>80.760000000000005</v>
@@ -64048,7 +64038,7 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B391" s="6">
         <v>16.3</v>
@@ -64057,7 +64047,7 @@
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B392" s="75">
         <v>0.75</v>
@@ -64104,7 +64094,7 @@
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="B396" s="6">
         <v>1</v>
@@ -64116,21 +64106,21 @@
         <v>9</v>
       </c>
       <c r="E396" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F396" t="s">
         <v>18</v>
       </c>
       <c r="G396" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="H396" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="B397" s="6">
         <v>0.14000000000000001</v>
@@ -64142,16 +64132,16 @@
         <v>9</v>
       </c>
       <c r="E397" t="s">
+        <v>678</v>
+      </c>
+      <c r="F397" t="s">
+        <v>21</v>
+      </c>
+      <c r="G397" t="s">
+        <v>883</v>
+      </c>
+      <c r="H397" t="s">
         <v>679</v>
-      </c>
-      <c r="F397" t="s">
-        <v>21</v>
-      </c>
-      <c r="G397" t="s">
-        <v>892</v>
-      </c>
-      <c r="H397" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.3">
@@ -64174,7 +64164,7 @@
         <v>21</v>
       </c>
       <c r="G398" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="H398" t="s">
         <v>45</v>
@@ -64201,7 +64191,7 @@
         <v>21</v>
       </c>
       <c r="G399" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="H399" t="s">
         <v>625</v>
@@ -64227,7 +64217,7 @@
         <v>21</v>
       </c>
       <c r="G400" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="H400" t="s">
         <v>47</v>
@@ -64253,7 +64243,7 @@
         <v>21</v>
       </c>
       <c r="G401" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="H401" t="s">
         <v>49</v>
@@ -64279,7 +64269,7 @@
         <v>21</v>
       </c>
       <c r="G402" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="H402" t="s">
         <v>51</v>
@@ -64287,7 +64277,7 @@
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="B403" s="6">
         <v>4.0750000000000008E-5</v>
@@ -64305,10 +64295,10 @@
         <v>21</v>
       </c>
       <c r="G403" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="H403" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.3">
@@ -64332,7 +64322,7 @@
         <v>21</v>
       </c>
       <c r="G404" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="H404" t="s">
         <v>24</v>
@@ -64358,7 +64348,7 @@
         <v>21</v>
       </c>
       <c r="G405" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="H405" t="s">
         <v>671</v>
@@ -64384,7 +64374,7 @@
         <v>21</v>
       </c>
       <c r="G406" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="H406" t="s">
         <v>671</v>
@@ -64407,7 +64397,7 @@
         <v>38</v>
       </c>
       <c r="G407" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.3">
@@ -64428,7 +64418,7 @@
         <v>21</v>
       </c>
       <c r="G408" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="H408" t="s">
         <v>360</v>
@@ -64452,7 +64442,7 @@
         <v>38</v>
       </c>
       <c r="G409" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.3">
@@ -64473,7 +64463,7 @@
         <v>38</v>
       </c>
       <c r="G410" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
@@ -64494,7 +64484,7 @@
         <v>38</v>
       </c>
       <c r="G411" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.3">
@@ -64515,7 +64505,7 @@
         <v>38</v>
       </c>
       <c r="G412" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
@@ -64535,7 +64525,7 @@
         <v>38</v>
       </c>
       <c r="G413" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
@@ -64555,7 +64545,7 @@
         <v>38</v>
       </c>
       <c r="G414" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.3">
@@ -64575,7 +64565,7 @@
         <v>38</v>
       </c>
       <c r="G415" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.3">
@@ -64586,7 +64576,7 @@
         <v>1.9784999999999998E-3</v>
       </c>
       <c r="C416" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="D416" t="s">
         <v>125</v>
@@ -64595,7 +64585,7 @@
         <v>21</v>
       </c>
       <c r="G416" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="H416" t="s">
         <v>126</v>
@@ -64603,7 +64593,7 @@
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="B417" s="6">
         <v>6.8171999999999998E-3</v>
@@ -64618,15 +64608,15 @@
         <v>21</v>
       </c>
       <c r="G417" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="H417" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="B418" s="6">
         <v>1.43E-5</v>
@@ -64641,10 +64631,10 @@
         <v>21</v>
       </c>
       <c r="G418" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="H418" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.3">
@@ -64664,7 +64654,7 @@
         <v>38</v>
       </c>
       <c r="G419" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.3">
@@ -64684,7 +64674,7 @@
         <v>38</v>
       </c>
       <c r="G420" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.3">
@@ -64704,7 +64694,7 @@
         <v>38</v>
       </c>
       <c r="G421" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.3">
@@ -64724,7 +64714,7 @@
         <v>38</v>
       </c>
       <c r="G422" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.3">
@@ -64744,7 +64734,7 @@
         <v>38</v>
       </c>
       <c r="G423" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.3">
@@ -64764,7 +64754,7 @@
         <v>38</v>
       </c>
       <c r="G424" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.3">
@@ -64784,7 +64774,7 @@
         <v>38</v>
       </c>
       <c r="G425" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.3">
@@ -64804,12 +64794,12 @@
         <v>38</v>
       </c>
       <c r="G426" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="B427" s="6">
         <v>2.45779249578E-6</v>
@@ -64824,7 +64814,7 @@
         <v>38</v>
       </c>
       <c r="G427" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.3">
@@ -64844,7 +64834,7 @@
         <v>38</v>
       </c>
       <c r="G428" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.3">
@@ -64864,12 +64854,12 @@
         <v>38</v>
       </c>
       <c r="G429" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="B430" s="6">
         <v>1.2234344867999999E-6</v>
@@ -64884,12 +64874,12 @@
         <v>38</v>
       </c>
       <c r="G430" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="B431" s="6">
         <v>1.0486581315400001E-6</v>
@@ -64904,12 +64894,12 @@
         <v>38</v>
       </c>
       <c r="G431" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="B432" s="6">
         <v>1.0049640427199999E-6</v>
@@ -64924,12 +64914,12 @@
         <v>38</v>
       </c>
       <c r="G432" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="B433" s="6">
         <v>7.9523241641499996E-7</v>
@@ -64944,12 +64934,12 @@
         <v>38</v>
       </c>
       <c r="G433" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="B434" s="6">
         <v>6.2045606115800001E-7</v>
@@ -64964,7 +64954,7 @@
         <v>38</v>
       </c>
       <c r="G434" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.3">
@@ -64984,7 +64974,7 @@
         <v>38</v>
       </c>
       <c r="G435" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.3">
@@ -65004,7 +64994,7 @@
         <v>38</v>
       </c>
       <c r="G436" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.3">
@@ -65024,7 +65014,7 @@
         <v>38</v>
       </c>
       <c r="G437" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.3">
@@ -65044,7 +65034,7 @@
         <v>38</v>
       </c>
       <c r="G438" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.3">
@@ -65064,7 +65054,7 @@
         <v>38</v>
       </c>
       <c r="G439" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.3">
@@ -65084,7 +65074,7 @@
         <v>38</v>
       </c>
       <c r="G440" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.3">
@@ -65104,7 +65094,7 @@
         <v>38</v>
       </c>
       <c r="G441" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.3">
@@ -65124,7 +65114,7 @@
         <v>38</v>
       </c>
       <c r="G442" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.3">
@@ -65144,7 +65134,7 @@
         <v>38</v>
       </c>
       <c r="G443" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.3">
@@ -65164,7 +65154,7 @@
         <v>38</v>
       </c>
       <c r="G444" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.3">
@@ -65184,7 +65174,7 @@
         <v>38</v>
       </c>
       <c r="G445" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.3">
@@ -65204,7 +65194,7 @@
         <v>38</v>
       </c>
       <c r="G446" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.3">
@@ -65224,7 +65214,7 @@
         <v>38</v>
       </c>
       <c r="G447" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.3">
@@ -65244,7 +65234,7 @@
         <v>38</v>
       </c>
       <c r="G448" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.3">
@@ -65264,7 +65254,7 @@
         <v>38</v>
       </c>
       <c r="G449" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.3">
@@ -65284,7 +65274,7 @@
         <v>38</v>
       </c>
       <c r="G450" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.3">
@@ -65304,7 +65294,7 @@
         <v>38</v>
       </c>
       <c r="G451" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.3">
@@ -65324,7 +65314,7 @@
         <v>38</v>
       </c>
       <c r="G452" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.3">
@@ -65344,7 +65334,7 @@
         <v>38</v>
       </c>
       <c r="G453" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.3">
@@ -65364,7 +65354,7 @@
         <v>38</v>
       </c>
       <c r="G454" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.3">
@@ -65384,7 +65374,7 @@
         <v>38</v>
       </c>
       <c r="G455" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="457" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -65392,7 +65382,7 @@
         <v>1</v>
       </c>
       <c r="B457" s="73" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.3">
@@ -65416,7 +65406,7 @@
         <v>5</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>676</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.3">
@@ -65485,7 +65475,7 @@
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="B467" s="6">
         <v>1</v>
@@ -65497,7 +65487,7 @@
         <v>9</v>
       </c>
       <c r="E467" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F467" t="s">
         <v>18</v>
@@ -65505,10 +65495,13 @@
       <c r="G467" t="s">
         <v>19</v>
       </c>
+      <c r="H467" s="6" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="B468" s="3">
         <f>35.1616/B407</f>
@@ -65530,7 +65523,7 @@
         <v>19</v>
       </c>
       <c r="H468" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.3">
@@ -65553,7 +65546,7 @@
         <v>21</v>
       </c>
       <c r="G469" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H469" t="s">
         <v>657</v>
@@ -65631,7 +65624,7 @@
         <v>21</v>
       </c>
       <c r="G472" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H472" t="s">
         <v>360</v>
@@ -65657,7 +65650,7 @@
         <v>21</v>
       </c>
       <c r="G473" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H473" t="s">
         <v>360</v>
@@ -65683,7 +65676,7 @@
         <v>21</v>
       </c>
       <c r="G474" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H474" t="s">
         <v>360</v>
@@ -65691,7 +65684,7 @@
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="B475" s="6">
         <v>1.1175600000000001</v>
@@ -65712,7 +65705,7 @@
         <v>667</v>
       </c>
       <c r="H475" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.3">
@@ -65735,7 +65728,7 @@
         <v>21</v>
       </c>
       <c r="G476" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H476" t="s">
         <v>671</v>
@@ -65761,7 +65754,7 @@
         <v>21</v>
       </c>
       <c r="G477" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H477" t="s">
         <v>671</v>
@@ -65909,7 +65902,7 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="B490" s="6">
         <v>1.00057</v>
@@ -65923,8 +65916,8 @@
       <c r="F490" t="s">
         <v>21</v>
       </c>
-      <c r="K490" t="s">
-        <v>676</v>
+      <c r="K490" s="6" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.3">
@@ -66160,7 +66153,7 @@
         <v>5</v>
       </c>
       <c r="B505" s="6" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.3">
@@ -66189,7 +66182,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B509" s="6">
         <v>19</v>
@@ -66197,7 +66190,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B510" s="6">
         <v>0</v>
@@ -66248,7 +66241,7 @@
         <v>9</v>
       </c>
       <c r="E513" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="F513" t="s">
         <v>18</v>
@@ -66257,7 +66250,7 @@
         <v>19</v>
       </c>
       <c r="H513" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.3">
@@ -66274,7 +66267,7 @@
         <v>9</v>
       </c>
       <c r="E514" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="F514" t="s">
         <v>21</v>
@@ -66283,7 +66276,7 @@
         <v>19</v>
       </c>
       <c r="H514" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.3">
@@ -66356,7 +66349,7 @@
         <v>38</v>
       </c>
       <c r="G517" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.3">
@@ -66377,7 +66370,7 @@
         <v>38</v>
       </c>
       <c r="G518" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.3">
@@ -66429,7 +66422,7 @@
         <v>5</v>
       </c>
       <c r="B524" s="74" t="s">
-        <v>702</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.3">
@@ -66510,7 +66503,7 @@
         <v>9</v>
       </c>
       <c r="E531" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F531" t="s">
         <v>18</v>
@@ -66518,8 +66511,8 @@
       <c r="G531" t="s">
         <v>19</v>
       </c>
-      <c r="H531" s="2" t="s">
-        <v>702</v>
+      <c r="H531" s="74" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="532" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -66540,12 +66533,12 @@
         <v>21</v>
       </c>
       <c r="H532" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B533" s="6">
         <v>0.13935999999999998</v>
@@ -66566,7 +66559,7 @@
         <v>19</v>
       </c>
       <c r="H533" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.3">
@@ -66667,7 +66660,7 @@
         <v>21</v>
       </c>
       <c r="G537" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="H537" t="s">
         <v>360</v>
@@ -66701,7 +66694,7 @@
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="B539" s="6">
         <v>0.68071999999999999</v>
@@ -66722,12 +66715,12 @@
         <v>19</v>
       </c>
       <c r="H539" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="B540" s="6">
         <v>8.819075999999999</v>
@@ -66748,7 +66741,7 @@
         <v>19</v>
       </c>
       <c r="H540" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.3">
@@ -66800,7 +66793,7 @@
         <v>1</v>
       </c>
       <c r="B544" s="73" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.3">
@@ -66893,7 +66886,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B553" s="6">
         <v>1</v>
@@ -66933,8 +66926,8 @@
       <c r="F554" t="s">
         <v>21</v>
       </c>
-      <c r="K554" t="s">
-        <v>702</v>
+      <c r="K554" s="74" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.3">
@@ -67146,7 +67139,7 @@
         <v>1</v>
       </c>
       <c r="B566" s="73" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.3">
@@ -67170,7 +67163,7 @@
         <v>5</v>
       </c>
       <c r="B569" s="6" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.3">
@@ -67199,7 +67192,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B573" s="6">
         <v>39.6</v>
@@ -67238,7 +67231,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="B576" s="6">
         <v>1</v>
@@ -67250,7 +67243,7 @@
         <v>9</v>
       </c>
       <c r="E576" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F576" t="s">
         <v>18</v>
@@ -67259,7 +67252,7 @@
         <v>19</v>
       </c>
       <c r="H576" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.3">
@@ -67279,12 +67272,12 @@
         <v>38</v>
       </c>
       <c r="G577" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="B578" s="6">
         <v>1.0246</v>
@@ -67299,10 +67292,10 @@
         <v>21</v>
       </c>
       <c r="G578" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="H578" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
     </row>
     <row r="579" spans="1:8" x14ac:dyDescent="0.3">
@@ -67325,7 +67318,7 @@
         <v>21</v>
       </c>
       <c r="G579" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="H579" t="s">
         <v>657</v>
@@ -67333,7 +67326,7 @@
     </row>
     <row r="580" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B580" s="6">
         <v>1.2672E-3</v>
@@ -67351,10 +67344,10 @@
         <v>21</v>
       </c>
       <c r="G580" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="H580" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.3">
@@ -67377,7 +67370,7 @@
         <v>21</v>
       </c>
       <c r="G581" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="H581" t="s">
         <v>396</v>
@@ -67403,7 +67396,7 @@
         <v>21</v>
       </c>
       <c r="G582" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="H582" t="s">
         <v>360</v>
@@ -67411,7 +67404,7 @@
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="B583" s="6">
         <v>7.4923200000000003</v>
@@ -67429,10 +67422,10 @@
         <v>21</v>
       </c>
       <c r="G583" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="H583" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.3">
@@ -67455,7 +67448,7 @@
         <v>21</v>
       </c>
       <c r="G584" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="H584" t="s">
         <v>671</v>
@@ -67479,7 +67472,7 @@
         <v>38</v>
       </c>
       <c r="G585" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
     </row>
     <row r="587" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -67487,7 +67480,7 @@
         <v>1</v>
       </c>
       <c r="B587" s="73" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.3">
@@ -67511,7 +67504,7 @@
         <v>5</v>
       </c>
       <c r="B590" s="74" t="s">
-        <v>724</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.3">
@@ -67580,7 +67573,7 @@
     </row>
     <row r="597" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A597" s="2" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="B597" s="6">
         <v>1</v>
@@ -67592,7 +67585,7 @@
         <v>9</v>
       </c>
       <c r="E597" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F597" t="s">
         <v>18</v>
@@ -67600,13 +67593,13 @@
       <c r="G597" t="s">
         <v>19</v>
       </c>
-      <c r="H597" s="2" t="s">
-        <v>724</v>
+      <c r="H597" s="74" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="B598" s="6">
         <f>1/0.975</f>
@@ -67625,15 +67618,15 @@
         <v>21</v>
       </c>
       <c r="G598" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="H598" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B599" s="6">
         <v>0.11309544000000001</v>
@@ -67651,15 +67644,15 @@
         <v>21</v>
       </c>
       <c r="G599" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="H599" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="B600" s="6">
         <v>7.7480160000000006E-2</v>
@@ -67677,15 +67670,15 @@
         <v>21</v>
       </c>
       <c r="G600" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="H600" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B601" s="6">
         <v>1.4508E-2</v>
@@ -67703,15 +67696,15 @@
         <v>21</v>
       </c>
       <c r="G601" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="H601" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B602" s="6">
         <v>1.3392000000000001E-2</v>
@@ -67729,15 +67722,15 @@
         <v>21</v>
       </c>
       <c r="G602" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="H602" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="B603" s="6">
         <v>2.6784000000000002E-2</v>
@@ -67755,10 +67748,10 @@
         <v>21</v>
       </c>
       <c r="G603" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="H603" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.3">
@@ -67833,7 +67826,7 @@
         <v>21</v>
       </c>
       <c r="G606" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="H606" t="s">
         <v>360</v>
@@ -67859,7 +67852,7 @@
         <v>21</v>
       </c>
       <c r="G607" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="H607" t="s">
         <v>360</v>
@@ -67867,7 +67860,7 @@
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="B608" s="6">
         <v>1.11972</v>
@@ -67888,7 +67881,7 @@
         <v>19</v>
       </c>
       <c r="H608" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.3">
@@ -67911,7 +67904,7 @@
         <v>21</v>
       </c>
       <c r="G609" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H609" t="s">
         <v>671</v>
@@ -67937,7 +67930,7 @@
         <v>21</v>
       </c>
       <c r="G610" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="H610" t="s">
         <v>671</v>
@@ -67963,7 +67956,7 @@
         <v>21</v>
       </c>
       <c r="G611" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="H611" t="s">
         <v>671</v>
@@ -67992,7 +67985,7 @@
         <v>1</v>
       </c>
       <c r="B614" s="73" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.3">
@@ -68016,7 +68009,7 @@
         <v>5</v>
       </c>
       <c r="B617" s="74" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.3">
@@ -68085,7 +68078,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B623" s="6">
         <v>1</v>
@@ -68106,12 +68099,12 @@
         <v>19</v>
       </c>
       <c r="K623" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="624" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A624" s="2" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="B624" s="6">
         <v>1.00057</v>
@@ -68125,8 +68118,8 @@
       <c r="F624" t="s">
         <v>21</v>
       </c>
-      <c r="K624" s="2" t="s">
-        <v>724</v>
+      <c r="K624" s="74" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.3">
@@ -68338,7 +68331,7 @@
         <v>1</v>
       </c>
       <c r="B636" s="73" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.3">
@@ -68362,7 +68355,7 @@
         <v>5</v>
       </c>
       <c r="B639" s="6" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.3">
@@ -68391,7 +68384,7 @@
     </row>
     <row r="643" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="B643" s="6">
         <v>3</v>
@@ -68399,7 +68392,7 @@
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B644" s="6">
         <f>27/0.91</f>
@@ -68408,7 +68401,7 @@
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B645" s="75">
         <v>0.15</v>
@@ -68447,7 +68440,7 @@
     </row>
     <row r="648" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="B648" s="6">
         <v>1</v>
@@ -68459,7 +68452,7 @@
         <v>9</v>
       </c>
       <c r="E648" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F648" t="s">
         <v>18</v>
@@ -68468,12 +68461,12 @@
         <v>19</v>
       </c>
       <c r="H648" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
     </row>
     <row r="649" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="B649" s="6">
         <v>0.14000000000000001</v>
@@ -68485,18 +68478,18 @@
         <v>9</v>
       </c>
       <c r="E649" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F649" t="s">
         <v>21</v>
       </c>
       <c r="H649" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
     </row>
     <row r="650" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="B650" s="6">
         <v>3.3196796703296701E-3</v>
@@ -68514,10 +68507,10 @@
         <v>21</v>
       </c>
       <c r="G650" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="H650" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
     </row>
     <row r="651" spans="1:8" x14ac:dyDescent="0.3">
@@ -68540,7 +68533,7 @@
         <v>21</v>
       </c>
       <c r="G651" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="H651" t="s">
         <v>45</v>
@@ -68567,7 +68560,7 @@
         <v>21</v>
       </c>
       <c r="G652" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="H652" t="s">
         <v>625</v>
@@ -68593,7 +68586,7 @@
         <v>21</v>
       </c>
       <c r="G653" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="H653" t="s">
         <v>47</v>
@@ -68619,7 +68612,7 @@
         <v>21</v>
       </c>
       <c r="G654" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="H654" t="s">
         <v>49</v>
@@ -68627,7 +68620,7 @@
     </row>
     <row r="655" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="B655" s="6">
         <v>9.0791208791208781E-3</v>
@@ -68645,10 +68638,10 @@
         <v>21</v>
       </c>
       <c r="G655" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="H655" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
     </row>
     <row r="656" spans="1:8" x14ac:dyDescent="0.3">
@@ -68671,7 +68664,7 @@
         <v>21</v>
       </c>
       <c r="G656" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="H656" t="s">
         <v>51</v>
@@ -68698,7 +68691,7 @@
         <v>21</v>
       </c>
       <c r="G657" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="H657" t="s">
         <v>24</v>
@@ -68724,7 +68717,7 @@
         <v>21</v>
       </c>
       <c r="G658" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="H658" t="s">
         <v>671</v>
@@ -68732,7 +68725,7 @@
     </row>
     <row r="659" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="B659" s="6">
         <v>3.851312637362637E-3</v>
@@ -68750,10 +68743,10 @@
         <v>21</v>
       </c>
       <c r="G659" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="H659" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
     </row>
     <row r="660" spans="1:8" x14ac:dyDescent="0.3">
@@ -68773,7 +68766,7 @@
         <v>38</v>
       </c>
       <c r="G660" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
     </row>
     <row r="661" spans="1:8" x14ac:dyDescent="0.3">
@@ -68794,7 +68787,7 @@
         <v>38</v>
       </c>
       <c r="G661" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.3">
@@ -68814,7 +68807,7 @@
         <v>38</v>
       </c>
       <c r="G662" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.3">
@@ -68835,7 +68828,7 @@
         <v>38</v>
       </c>
       <c r="G663" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
     </row>
     <row r="664" spans="1:8" x14ac:dyDescent="0.3">
@@ -68855,7 +68848,7 @@
         <v>38</v>
       </c>
       <c r="G664" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
     </row>
     <row r="665" spans="1:8" x14ac:dyDescent="0.3">
@@ -68875,7 +68868,7 @@
         <v>38</v>
       </c>
       <c r="G665" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.3">
@@ -68895,7 +68888,7 @@
         <v>38</v>
       </c>
       <c r="G666" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
     </row>
     <row r="667" spans="1:8" x14ac:dyDescent="0.3">
@@ -68906,7 +68899,7 @@
         <v>0.27484999999999998</v>
       </c>
       <c r="C667" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="D667" t="s">
         <v>125</v>
@@ -68915,7 +68908,7 @@
         <v>21</v>
       </c>
       <c r="G667" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="H667" t="s">
         <v>126</v>
@@ -68923,7 +68916,7 @@
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="B668" s="6">
         <v>0.23088</v>
@@ -68938,15 +68931,15 @@
         <v>21</v>
       </c>
       <c r="G668" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="H668" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
     </row>
     <row r="669" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="B669" s="6">
         <v>1.8833999999999999E-3</v>
@@ -68961,10 +68954,10 @@
         <v>21</v>
       </c>
       <c r="G669" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="H669" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
     </row>
     <row r="670" spans="1:8" x14ac:dyDescent="0.3">
@@ -68984,7 +68977,7 @@
         <v>38</v>
       </c>
       <c r="G670" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.3">
@@ -69004,7 +68997,7 @@
         <v>38</v>
       </c>
       <c r="G671" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="672" spans="1:8" x14ac:dyDescent="0.3">
@@ -69024,7 +69017,7 @@
         <v>38</v>
       </c>
       <c r="G672" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.3">
@@ -69044,7 +69037,7 @@
         <v>38</v>
       </c>
       <c r="G673" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.3">
@@ -69064,7 +69057,7 @@
         <v>38</v>
       </c>
       <c r="G674" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.3">
@@ -69084,12 +69077,12 @@
         <v>38</v>
       </c>
       <c r="G675" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="B676" s="6">
         <v>3.0517000000000001E-4</v>
@@ -69104,7 +69097,7 @@
         <v>38</v>
       </c>
       <c r="G676" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.3">
@@ -69124,7 +69117,7 @@
         <v>38</v>
       </c>
       <c r="G677" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.3">
@@ -69144,12 +69137,12 @@
         <v>38</v>
       </c>
       <c r="G678" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="B679" s="6">
         <v>1.3363000000000001E-4</v>
@@ -69164,12 +69157,12 @@
         <v>38</v>
       </c>
       <c r="G679" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="B680" s="6">
         <v>1.166E-4</v>
@@ -69184,12 +69177,12 @@
         <v>38</v>
       </c>
       <c r="G680" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="B681" s="6">
         <v>8.4437000000000005E-5</v>
@@ -69204,12 +69197,12 @@
         <v>38</v>
       </c>
       <c r="G681" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="B682" s="6">
         <v>7.9843000000000001E-5</v>
@@ -69224,7 +69217,7 @@
         <v>38</v>
       </c>
       <c r="G682" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.3">
@@ -69244,12 +69237,12 @@
         <v>38</v>
       </c>
       <c r="G683" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="B684" s="6">
         <v>5.2151999999999998E-5</v>
@@ -69264,12 +69257,12 @@
         <v>38</v>
       </c>
       <c r="G684" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="B685" s="6">
         <v>5.1523000000000001E-5</v>
@@ -69284,7 +69277,7 @@
         <v>38</v>
       </c>
       <c r="G685" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.3">
@@ -69304,12 +69297,12 @@
         <v>38</v>
       </c>
       <c r="G686" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="B687" s="6">
         <v>3.9734999999999998E-5</v>
@@ -69324,12 +69317,12 @@
         <v>38</v>
       </c>
       <c r="G687" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="B688" s="6">
         <v>1.8626000000000001E-5</v>
@@ -69344,12 +69337,12 @@
         <v>38</v>
       </c>
       <c r="G688" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="B689" s="6">
         <v>1.7960000000000001E-5</v>
@@ -69364,7 +69357,7 @@
         <v>38</v>
       </c>
       <c r="G689" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.3">
@@ -69384,7 +69377,7 @@
         <v>38</v>
       </c>
       <c r="G690" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.3">
@@ -69404,12 +69397,12 @@
         <v>38</v>
       </c>
       <c r="G691" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="B692" s="6">
         <v>6.8294999999999996E-6</v>
@@ -69424,7 +69417,7 @@
         <v>38</v>
       </c>
       <c r="G692" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.3">
@@ -69444,12 +69437,12 @@
         <v>38</v>
       </c>
       <c r="G693" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="B694" s="6">
         <v>6.2086000000000002E-6</v>
@@ -69464,7 +69457,7 @@
         <v>38</v>
       </c>
       <c r="G694" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.3">
@@ -69484,12 +69477,12 @@
         <v>38</v>
       </c>
       <c r="G695" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="B696" s="6">
         <v>4.1390999999999999E-6</v>
@@ -69504,12 +69497,12 @@
         <v>38</v>
       </c>
       <c r="G696" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="B697" s="6">
         <v>2.3841000000000002E-6</v>
@@ -69524,12 +69517,12 @@
         <v>38</v>
       </c>
       <c r="G697" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="B698" s="6">
         <v>2.0488000000000002E-6</v>
@@ -69544,7 +69537,7 @@
         <v>38</v>
       </c>
       <c r="G698" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.3">
@@ -69564,7 +69557,7 @@
         <v>38</v>
       </c>
       <c r="G699" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.3">
@@ -69584,7 +69577,7 @@
         <v>38</v>
       </c>
       <c r="G700" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.3">
@@ -69604,7 +69597,7 @@
         <v>38</v>
       </c>
       <c r="G701" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.3">
@@ -69624,7 +69617,7 @@
         <v>38</v>
       </c>
       <c r="G702" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.3">
@@ -69644,7 +69637,7 @@
         <v>38</v>
       </c>
       <c r="G703" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.3">
@@ -69664,7 +69657,7 @@
         <v>38</v>
       </c>
       <c r="G704" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.3">
@@ -69684,7 +69677,7 @@
         <v>38</v>
       </c>
       <c r="G705" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.3">
@@ -69704,12 +69697,12 @@
         <v>38</v>
       </c>
       <c r="G706" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="B707" s="6">
         <v>5.2152000000000003E-7</v>
@@ -69724,7 +69717,7 @@
         <v>38</v>
       </c>
       <c r="G707" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.3">
@@ -69744,7 +69737,7 @@
         <v>38</v>
       </c>
       <c r="G708" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.3">
@@ -69764,7 +69757,7 @@
         <v>38</v>
       </c>
       <c r="G709" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.3">
@@ -69784,7 +69777,7 @@
         <v>38</v>
       </c>
       <c r="G710" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.3">
@@ -69804,7 +69797,7 @@
         <v>38</v>
       </c>
       <c r="G711" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.3">
@@ -69824,7 +69817,7 @@
         <v>38</v>
       </c>
       <c r="G712" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.3">
@@ -69844,7 +69837,7 @@
         <v>38</v>
       </c>
       <c r="G713" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.3">
@@ -69864,7 +69857,7 @@
         <v>38</v>
       </c>
       <c r="G714" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.3">
@@ -69884,7 +69877,7 @@
         <v>38</v>
       </c>
       <c r="G715" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.3">
@@ -69904,7 +69897,7 @@
         <v>38</v>
       </c>
       <c r="G716" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.3">
@@ -69924,7 +69917,7 @@
         <v>38</v>
       </c>
       <c r="G717" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="719" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -69932,7 +69925,7 @@
         <v>1</v>
       </c>
       <c r="B719" s="73" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.3">
@@ -69956,7 +69949,7 @@
         <v>5</v>
       </c>
       <c r="B722" s="6" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.3">
@@ -69985,7 +69978,7 @@
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="B726" s="6">
         <v>37</v>
@@ -70024,7 +70017,7 @@
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="B729" s="6">
         <v>1</v>
@@ -70036,7 +70029,7 @@
         <v>9</v>
       </c>
       <c r="E729" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F729" t="s">
         <v>18</v>
@@ -70045,12 +70038,12 @@
         <v>19</v>
       </c>
       <c r="H729" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="730" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="B730" s="6">
         <f>1/0.42/0.91</f>
@@ -70069,10 +70062,10 @@
         <v>21</v>
       </c>
       <c r="G730" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="H730" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
     </row>
     <row r="731" spans="1:8" x14ac:dyDescent="0.3">
@@ -70095,7 +70088,7 @@
         <v>21</v>
       </c>
       <c r="G731" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="H731" t="s">
         <v>657</v>
@@ -70103,7 +70096,7 @@
     </row>
     <row r="732" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="B732" s="6">
         <v>3.3000000000000003E-5</v>
@@ -70121,10 +70114,10 @@
         <v>21</v>
       </c>
       <c r="G732" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="H732" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
     </row>
     <row r="733" spans="1:8" x14ac:dyDescent="0.3">
@@ -70199,7 +70192,7 @@
         <v>21</v>
       </c>
       <c r="G735" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="H735" t="s">
         <v>360</v>
@@ -70207,7 +70200,7 @@
     </row>
     <row r="736" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="B736" s="6">
         <v>0.32177499999999998</v>
@@ -70228,7 +70221,7 @@
         <v>19</v>
       </c>
       <c r="H736" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="737" spans="1:14" x14ac:dyDescent="0.3">
@@ -70251,7 +70244,7 @@
         <v>21</v>
       </c>
       <c r="G737" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="H737" t="s">
         <v>671</v>
@@ -70262,7 +70255,7 @@
         <v>1</v>
       </c>
       <c r="B739" s="73" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="740" spans="1:14" x14ac:dyDescent="0.3">
@@ -70286,7 +70279,7 @@
         <v>5</v>
       </c>
       <c r="B742" s="6" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="743" spans="1:14" x14ac:dyDescent="0.3">
@@ -70315,7 +70308,7 @@
     </row>
     <row r="746" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="B746" s="6">
         <v>37</v>
@@ -70364,15 +70357,15 @@
         <v>5</v>
       </c>
       <c r="M748" t="s">
+        <v>676</v>
+      </c>
+      <c r="N748" t="s">
         <v>677</v>
-      </c>
-      <c r="N748" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="749" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B749" s="6">
         <v>1</v>
@@ -70384,7 +70377,7 @@
         <v>9</v>
       </c>
       <c r="E749" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F749" t="s">
         <v>18</v>
@@ -70396,12 +70389,12 @@
         <v>19</v>
       </c>
       <c r="K749" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="750" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="B750" s="6">
         <v>1.0246</v>
@@ -70425,10 +70418,10 @@
         <v>1.0246</v>
       </c>
       <c r="J750" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="K750" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="751" spans="1:14" x14ac:dyDescent="0.3">
@@ -70457,7 +70450,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J751" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="K751" t="s">
         <v>657</v>
@@ -70466,15 +70459,15 @@
         <v>657</v>
       </c>
       <c r="M751" t="s">
+        <v>681</v>
+      </c>
+      <c r="N751" t="s">
         <v>682</v>
-      </c>
-      <c r="N751" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="752" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B752" s="6">
         <v>3.1999999999999999E-5</v>
@@ -70498,19 +70491,19 @@
         <v>3.1999999999999999E-5</v>
       </c>
       <c r="J752" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="K752" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="L752" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="M752" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="N752" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="753" spans="1:14" x14ac:dyDescent="0.3">
@@ -70539,7 +70532,7 @@
         <v>8.7999999999999998E-5</v>
       </c>
       <c r="J753" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="K753" t="s">
         <v>396</v>
@@ -70548,10 +70541,10 @@
         <v>396</v>
       </c>
       <c r="M753" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="N753" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="754" spans="1:14" x14ac:dyDescent="0.3">
@@ -70580,7 +70573,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="J754" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="K754" t="s">
         <v>671</v>
@@ -70589,10 +70582,10 @@
         <v>671</v>
       </c>
       <c r="M754" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N754" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="756" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -70600,7 +70593,7 @@
         <v>1</v>
       </c>
       <c r="B756" s="73" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
     </row>
     <row r="757" spans="1:14" x14ac:dyDescent="0.3">
@@ -70624,7 +70617,7 @@
         <v>5</v>
       </c>
       <c r="B759" s="74" t="s">
-        <v>742</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="760" spans="1:14" x14ac:dyDescent="0.3">
@@ -70693,7 +70686,7 @@
     </row>
     <row r="766" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A766" s="2" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="B766" s="6">
         <v>1</v>
@@ -70705,7 +70698,7 @@
         <v>9</v>
       </c>
       <c r="E766" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F766" t="s">
         <v>18</v>
@@ -70713,10 +70706,13 @@
       <c r="G766" t="s">
         <v>19</v>
       </c>
+      <c r="H766" s="74" t="s">
+        <v>1041</v>
+      </c>
     </row>
     <row r="767" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B767" s="6">
         <f>37.223436/B746</f>
@@ -70735,7 +70731,7 @@
         <v>21</v>
       </c>
       <c r="G767" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="768" spans="1:14" x14ac:dyDescent="0.3">
@@ -70758,7 +70754,7 @@
         <v>21</v>
       </c>
       <c r="G768" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="H768" t="s">
         <v>657</v>
@@ -70766,7 +70762,7 @@
     </row>
     <row r="769" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="B769" s="6">
         <v>3.6084000000000003E-3</v>
@@ -70784,15 +70780,15 @@
         <v>21</v>
       </c>
       <c r="G769" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="H769" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="770" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B770" s="6">
         <v>9.5284080000000007E-2</v>
@@ -70810,15 +70806,15 @@
         <v>21</v>
       </c>
       <c r="G770" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="H770" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="771" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B771" s="6">
         <v>4.2594000000000009E-3</v>
@@ -70836,10 +70832,10 @@
         <v>21</v>
       </c>
       <c r="G771" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="H771" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="772" spans="1:8" x14ac:dyDescent="0.3">
@@ -70914,7 +70910,7 @@
         <v>21</v>
       </c>
       <c r="G774" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="H774" t="s">
         <v>360</v>
@@ -70940,7 +70936,7 @@
         <v>21</v>
       </c>
       <c r="G775" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="H775" t="s">
         <v>360</v>
@@ -70948,7 +70944,7 @@
     </row>
     <row r="776" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="B776" s="6">
         <v>1.11972</v>
@@ -70969,12 +70965,12 @@
         <v>19</v>
       </c>
       <c r="H776" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="777" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="B777" s="6">
         <v>7.4400000000000013E-3</v>
@@ -70995,7 +70991,7 @@
         <v>19</v>
       </c>
       <c r="H777" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="778" spans="1:8" x14ac:dyDescent="0.3">
@@ -71018,7 +71014,7 @@
         <v>21</v>
       </c>
       <c r="G778" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="H778" t="s">
         <v>671</v>
@@ -71044,7 +71040,7 @@
         <v>21</v>
       </c>
       <c r="G779" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="H779" t="s">
         <v>671</v>
@@ -71070,7 +71066,7 @@
         <v>21</v>
       </c>
       <c r="G780" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="H780" t="s">
         <v>671</v>
@@ -71099,7 +71095,7 @@
         <v>1</v>
       </c>
       <c r="B783" s="73" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="784" spans="1:8" x14ac:dyDescent="0.3">
@@ -71123,7 +71119,7 @@
         <v>5</v>
       </c>
       <c r="B786" s="74" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.3">
@@ -71192,7 +71188,7 @@
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B792" s="6">
         <v>1</v>
@@ -71213,12 +71209,12 @@
         <v>19</v>
       </c>
       <c r="K792" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="793" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A793" s="2" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="B793" s="6">
         <v>1.00057</v>
@@ -71232,8 +71228,8 @@
       <c r="F793" t="s">
         <v>21</v>
       </c>
-      <c r="K793" s="2" t="s">
-        <v>742</v>
+      <c r="K793" s="74" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.3">
@@ -71445,7 +71441,7 @@
         <v>1</v>
       </c>
       <c r="B805" s="73" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
     </row>
     <row r="806" spans="1:11" x14ac:dyDescent="0.3">
@@ -71453,7 +71449,7 @@
         <v>2</v>
       </c>
       <c r="B806" s="6" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
     </row>
     <row r="807" spans="1:11" x14ac:dyDescent="0.3">
@@ -71469,7 +71465,7 @@
         <v>5</v>
       </c>
       <c r="B808" s="6" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
     </row>
     <row r="809" spans="1:11" x14ac:dyDescent="0.3">
@@ -71498,7 +71494,7 @@
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B812" s="6">
         <v>24</v>
@@ -71506,7 +71502,7 @@
     </row>
     <row r="813" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B813" s="75">
         <v>0.08</v>
@@ -71545,19 +71541,19 @@
     </row>
     <row r="816" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="B816" s="6">
         <v>1</v>
       </c>
       <c r="C816" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="D816" t="s">
         <v>9</v>
       </c>
       <c r="E816" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="F816" t="s">
         <v>18</v>
@@ -71566,35 +71562,35 @@
         <v>19</v>
       </c>
       <c r="H816" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
     </row>
     <row r="817" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="B817" s="6">
         <v>0.14000000000000001</v>
       </c>
       <c r="C817" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="D817" t="s">
         <v>9</v>
       </c>
       <c r="E817" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="F817" t="s">
         <v>21</v>
       </c>
       <c r="H817" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
     </row>
     <row r="818" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="B818" s="6">
         <v>0.31353600000000004</v>
@@ -71615,7 +71611,7 @@
         <v>19</v>
       </c>
       <c r="H818" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
     </row>
     <row r="819" spans="1:8" x14ac:dyDescent="0.3">
@@ -71626,7 +71622,7 @@
         <v>7.0656000000000017E-3</v>
       </c>
       <c r="C819" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="D819" t="s">
         <v>9</v>
@@ -71679,7 +71675,7 @@
         <v>2.2080000000000003E-3</v>
       </c>
       <c r="C821" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="D821" t="s">
         <v>9</v>
@@ -71705,7 +71701,7 @@
         <v>1.2806400000000003E-2</v>
       </c>
       <c r="C822" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="D822" t="s">
         <v>9</v>
@@ -71767,7 +71763,7 @@
         <v>21</v>
       </c>
       <c r="G824" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="H824" t="s">
         <v>126</v>
@@ -71775,7 +71771,7 @@
     </row>
     <row r="825" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="B825" s="6">
         <v>5.2299999999999999E-2</v>
@@ -71790,15 +71786,15 @@
         <v>21</v>
       </c>
       <c r="G825" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="H825" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
     </row>
     <row r="826" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="B826" s="6">
         <v>3.0899999999999998E-4</v>
@@ -71813,10 +71809,10 @@
         <v>21</v>
       </c>
       <c r="G826" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="H826" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
     </row>
     <row r="827" spans="1:8" x14ac:dyDescent="0.3">
@@ -71889,7 +71885,7 @@
         <v>38</v>
       </c>
       <c r="G830" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="831" spans="1:8" x14ac:dyDescent="0.3">
@@ -71909,7 +71905,7 @@
         <v>38</v>
       </c>
       <c r="G831" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="832" spans="1:8" x14ac:dyDescent="0.3">
@@ -71929,7 +71925,7 @@
         <v>38</v>
       </c>
       <c r="G832" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="833" spans="1:7" x14ac:dyDescent="0.3">
@@ -71949,7 +71945,7 @@
         <v>38</v>
       </c>
       <c r="G833" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="834" spans="1:7" x14ac:dyDescent="0.3">
@@ -71969,7 +71965,7 @@
         <v>38</v>
       </c>
       <c r="G834" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="835" spans="1:7" x14ac:dyDescent="0.3">
@@ -71989,7 +71985,7 @@
         <v>38</v>
       </c>
       <c r="G835" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.3">
@@ -72009,7 +72005,7 @@
         <v>38</v>
       </c>
       <c r="G836" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="837" spans="1:7" x14ac:dyDescent="0.3">
@@ -72029,7 +72025,7 @@
         <v>38</v>
       </c>
       <c r="G837" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="838" spans="1:7" x14ac:dyDescent="0.3">
@@ -72049,7 +72045,7 @@
         <v>38</v>
       </c>
       <c r="G838" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="839" spans="1:7" x14ac:dyDescent="0.3">
@@ -72069,7 +72065,7 @@
         <v>38</v>
       </c>
       <c r="G839" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="840" spans="1:7" x14ac:dyDescent="0.3">
@@ -72089,7 +72085,7 @@
         <v>38</v>
       </c>
       <c r="G840" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="841" spans="1:7" x14ac:dyDescent="0.3">
@@ -72109,7 +72105,7 @@
         <v>38</v>
       </c>
       <c r="G841" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="842" spans="1:7" x14ac:dyDescent="0.3">
@@ -72129,7 +72125,7 @@
         <v>38</v>
       </c>
       <c r="G842" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="843" spans="1:7" x14ac:dyDescent="0.3">
@@ -72149,7 +72145,7 @@
         <v>38</v>
       </c>
       <c r="G843" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="844" spans="1:7" x14ac:dyDescent="0.3">
@@ -72169,7 +72165,7 @@
         <v>38</v>
       </c>
       <c r="G844" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="845" spans="1:7" x14ac:dyDescent="0.3">
@@ -72189,7 +72185,7 @@
         <v>38</v>
       </c>
       <c r="G845" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="846" spans="1:7" x14ac:dyDescent="0.3">
@@ -72209,7 +72205,7 @@
         <v>38</v>
       </c>
       <c r="G846" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="847" spans="1:7" x14ac:dyDescent="0.3">
@@ -72229,7 +72225,7 @@
         <v>38</v>
       </c>
       <c r="G847" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="848" spans="1:7" x14ac:dyDescent="0.3">
@@ -72249,7 +72245,7 @@
         <v>38</v>
       </c>
       <c r="G848" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="849" spans="1:7" x14ac:dyDescent="0.3">
@@ -72269,7 +72265,7 @@
         <v>38</v>
       </c>
       <c r="G849" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="850" spans="1:7" x14ac:dyDescent="0.3">
@@ -72289,7 +72285,7 @@
         <v>38</v>
       </c>
       <c r="G850" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="851" spans="1:7" x14ac:dyDescent="0.3">
@@ -72309,7 +72305,7 @@
         <v>38</v>
       </c>
       <c r="G851" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="852" spans="1:7" x14ac:dyDescent="0.3">
@@ -72329,7 +72325,7 @@
         <v>38</v>
       </c>
       <c r="G852" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="853" spans="1:7" x14ac:dyDescent="0.3">
@@ -72349,7 +72345,7 @@
         <v>38</v>
       </c>
       <c r="G853" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="854" spans="1:7" x14ac:dyDescent="0.3">
@@ -72369,7 +72365,7 @@
         <v>38</v>
       </c>
       <c r="G854" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="855" spans="1:7" x14ac:dyDescent="0.3">
@@ -72389,7 +72385,7 @@
         <v>38</v>
       </c>
       <c r="G855" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="856" spans="1:7" x14ac:dyDescent="0.3">
@@ -72409,7 +72405,7 @@
         <v>38</v>
       </c>
       <c r="G856" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="857" spans="1:7" x14ac:dyDescent="0.3">
@@ -72429,7 +72425,7 @@
         <v>38</v>
       </c>
       <c r="G857" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="858" spans="1:7" x14ac:dyDescent="0.3">
@@ -72449,7 +72445,7 @@
         <v>38</v>
       </c>
       <c r="G858" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="859" spans="1:7" x14ac:dyDescent="0.3">
@@ -72469,7 +72465,7 @@
         <v>38</v>
       </c>
       <c r="G859" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="860" spans="1:7" x14ac:dyDescent="0.3">
@@ -72489,7 +72485,7 @@
         <v>38</v>
       </c>
       <c r="G860" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="861" spans="1:7" x14ac:dyDescent="0.3">
@@ -72509,7 +72505,7 @@
         <v>38</v>
       </c>
       <c r="G861" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="862" spans="1:7" x14ac:dyDescent="0.3">
@@ -72529,7 +72525,7 @@
         <v>38</v>
       </c>
       <c r="G862" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="863" spans="1:7" x14ac:dyDescent="0.3">
@@ -72549,7 +72545,7 @@
         <v>38</v>
       </c>
       <c r="G863" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="864" spans="1:7" x14ac:dyDescent="0.3">
@@ -72569,7 +72565,7 @@
         <v>38</v>
       </c>
       <c r="G864" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="865" spans="1:8" x14ac:dyDescent="0.3">
@@ -72589,7 +72585,7 @@
         <v>38</v>
       </c>
       <c r="G865" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="867" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -72597,7 +72593,7 @@
         <v>1</v>
       </c>
       <c r="B867" s="73" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
     </row>
     <row r="868" spans="1:8" x14ac:dyDescent="0.3">
@@ -72621,7 +72617,7 @@
         <v>5</v>
       </c>
       <c r="B870" s="6" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
     </row>
     <row r="871" spans="1:8" x14ac:dyDescent="0.3">
@@ -72650,7 +72646,7 @@
     </row>
     <row r="874" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="B874" s="6">
         <v>5</v>
@@ -72658,7 +72654,7 @@
     </row>
     <row r="875" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B875" s="6">
         <v>37</v>
@@ -72697,7 +72693,7 @@
     </row>
     <row r="878" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="B878" s="6">
         <v>1</v>
@@ -72709,7 +72705,7 @@
         <v>9</v>
       </c>
       <c r="E878" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="F878" t="s">
         <v>18</v>
@@ -72718,19 +72714,19 @@
         <v>19</v>
       </c>
       <c r="H878" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
     </row>
     <row r="879" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="B879" s="6">
         <f>(1.8535*B875)/B827</f>
         <v>3.1059556159420287</v>
       </c>
       <c r="C879" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="D879" t="s">
         <v>9</v>
@@ -72745,7 +72741,7 @@
         <v>19</v>
       </c>
       <c r="H879" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
     </row>
     <row r="880" spans="1:8" x14ac:dyDescent="0.3">
@@ -72768,7 +72764,7 @@
         <v>21</v>
       </c>
       <c r="G880" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="H880" t="s">
         <v>360</v>
@@ -72821,7 +72817,7 @@
         <v>21</v>
       </c>
       <c r="G882" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="H882" t="s">
         <v>671</v>
@@ -72892,7 +72888,7 @@
         <v>1</v>
       </c>
       <c r="B887" s="73" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
     </row>
     <row r="888" spans="1:8" x14ac:dyDescent="0.3">
@@ -72916,7 +72912,7 @@
         <v>5</v>
       </c>
       <c r="B890" s="6" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
     </row>
     <row r="891" spans="1:8" x14ac:dyDescent="0.3">
@@ -72945,7 +72941,7 @@
     </row>
     <row r="894" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B894" s="6">
         <v>37</v>
@@ -72984,7 +72980,7 @@
     </row>
     <row r="897" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="B897" s="6">
         <v>1</v>
@@ -72996,7 +72992,7 @@
         <v>9</v>
       </c>
       <c r="E897" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="F897" t="s">
         <v>18</v>
@@ -73005,12 +73001,12 @@
         <v>19</v>
       </c>
       <c r="H897" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
     </row>
     <row r="898" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="B898" s="6">
         <v>1.0245899999999999</v>
@@ -73031,7 +73027,7 @@
         <v>19</v>
       </c>
       <c r="H898" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
     </row>
     <row r="899" spans="1:8" x14ac:dyDescent="0.3">
@@ -73062,7 +73058,7 @@
     </row>
     <row r="900" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B900" s="6">
         <v>1.1100000000000001E-3</v>
@@ -73083,7 +73079,7 @@
         <v>19</v>
       </c>
       <c r="H900" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="901" spans="1:8" x14ac:dyDescent="0.3">
@@ -73132,7 +73128,7 @@
         <v>21</v>
       </c>
       <c r="G902" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="H902" t="s">
         <v>360</v>
@@ -73140,7 +73136,7 @@
     </row>
     <row r="903" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="B903" s="6">
         <v>16.287399999999998</v>
@@ -73158,10 +73154,10 @@
         <v>21</v>
       </c>
       <c r="G903" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="H903" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="904" spans="1:8" x14ac:dyDescent="0.3">
@@ -73210,7 +73206,7 @@
         <v>21</v>
       </c>
       <c r="G905" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="H905" t="s">
         <v>671</v>
@@ -73221,7 +73217,7 @@
         <v>1</v>
       </c>
       <c r="B907" s="73" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
     </row>
     <row r="908" spans="1:8" x14ac:dyDescent="0.3">
@@ -73245,7 +73241,7 @@
         <v>5</v>
       </c>
       <c r="B910" s="74" t="s">
-        <v>762</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="911" spans="1:8" x14ac:dyDescent="0.3">
@@ -73324,15 +73320,15 @@
         <v>5</v>
       </c>
       <c r="M916" t="s">
+        <v>676</v>
+      </c>
+      <c r="N916" t="s">
         <v>677</v>
-      </c>
-      <c r="N916" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="917" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A917" s="2" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="B917" s="6">
         <v>1</v>
@@ -73344,7 +73340,7 @@
         <v>9</v>
       </c>
       <c r="E917" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="F917" t="s">
         <v>18</v>
@@ -73355,13 +73351,13 @@
       <c r="J917" t="s">
         <v>19</v>
       </c>
-      <c r="K917" s="2" t="s">
-        <v>762</v>
+      <c r="K917" s="74" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="918" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="B918" s="6">
         <f>37.223436/B894</f>
@@ -73389,7 +73385,7 @@
         <v>19</v>
       </c>
       <c r="K918" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
     </row>
     <row r="919" spans="1:14" x14ac:dyDescent="0.3">
@@ -73427,15 +73423,15 @@
         <v>657</v>
       </c>
       <c r="M919" t="s">
+        <v>681</v>
+      </c>
+      <c r="N919" t="s">
         <v>682</v>
-      </c>
-      <c r="N919" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="920" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="B920" s="6">
         <v>3.7200000000000006E-3</v>
@@ -73462,21 +73458,21 @@
         <v>19</v>
       </c>
       <c r="K920" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="L920" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="M920" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="N920" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="921" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B921" s="6">
         <v>9.5522160000000009E-2</v>
@@ -73503,21 +73499,21 @@
         <v>19</v>
       </c>
       <c r="K921" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="L921" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="M921" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="N921" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="922" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B922" s="6">
         <v>1.3764E-2</v>
@@ -73544,16 +73540,16 @@
         <v>19</v>
       </c>
       <c r="K922" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="L922" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="M922" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="N922" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="923" spans="1:14" x14ac:dyDescent="0.3">
@@ -73591,10 +73587,10 @@
         <v>105</v>
       </c>
       <c r="M923" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="N923" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="924" spans="1:14" x14ac:dyDescent="0.3">
@@ -73632,10 +73628,10 @@
         <v>100</v>
       </c>
       <c r="M924" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="N924" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="925" spans="1:14" x14ac:dyDescent="0.3">
@@ -73664,7 +73660,7 @@
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="J925" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="K925" t="s">
         <v>360</v>
@@ -73673,10 +73669,10 @@
         <v>360</v>
       </c>
       <c r="M925" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="N925" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="926" spans="1:14" x14ac:dyDescent="0.3">
@@ -73705,7 +73701,7 @@
         <v>4.3E-3</v>
       </c>
       <c r="J926" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="K926" t="s">
         <v>360</v>
@@ -73714,15 +73710,15 @@
         <v>360</v>
       </c>
       <c r="M926" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="N926" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="927" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="B927" s="6">
         <v>1.11972</v>
@@ -73749,16 +73745,16 @@
         <v>19</v>
       </c>
       <c r="K927" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="L927" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="M927" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="N927" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="928" spans="1:14" x14ac:dyDescent="0.3">
@@ -73796,10 +73792,10 @@
         <v>671</v>
       </c>
       <c r="M928" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N928" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="929" spans="1:14" x14ac:dyDescent="0.3">
@@ -73828,7 +73824,7 @@
         <v>8.4000000000000003E-4</v>
       </c>
       <c r="J929" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="K929" t="s">
         <v>671</v>
@@ -73837,10 +73833,10 @@
         <v>671</v>
       </c>
       <c r="M929" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N929" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="930" spans="1:14" x14ac:dyDescent="0.3">
@@ -73869,7 +73865,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
       <c r="J930" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="K930" t="s">
         <v>671</v>
@@ -73878,10 +73874,10 @@
         <v>671</v>
       </c>
       <c r="M930" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N930" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="931" spans="1:14" x14ac:dyDescent="0.3">
@@ -73913,7 +73909,7 @@
         <v>1</v>
       </c>
       <c r="B933" s="73" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="934" spans="1:14" x14ac:dyDescent="0.3">
@@ -73937,7 +73933,7 @@
         <v>5</v>
       </c>
       <c r="B936" s="74" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="937" spans="1:14" x14ac:dyDescent="0.3">
@@ -74006,7 +74002,7 @@
     </row>
     <row r="942" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B942" s="6">
         <v>1</v>
@@ -74027,12 +74023,12 @@
         <v>19</v>
       </c>
       <c r="K942" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="943" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A943" s="2" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="B943" s="6">
         <v>1.00057</v>
@@ -74046,8 +74042,8 @@
       <c r="F943" t="s">
         <v>21</v>
       </c>
-      <c r="K943" s="2" t="s">
-        <v>762</v>
+      <c r="K943" s="74" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="944" spans="1:14" x14ac:dyDescent="0.3">
@@ -74259,7 +74255,7 @@
         <v>1</v>
       </c>
       <c r="B955" s="73" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
     </row>
     <row r="956" spans="1:11" x14ac:dyDescent="0.3">
@@ -74283,7 +74279,7 @@
         <v>5</v>
       </c>
       <c r="B958" s="6" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
     </row>
     <row r="959" spans="1:11" x14ac:dyDescent="0.3">
@@ -74343,7 +74339,7 @@
     </row>
     <row r="964" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A964" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="B964" s="6">
         <v>1</v>
@@ -74355,7 +74351,7 @@
         <v>9</v>
       </c>
       <c r="E964" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="F964" t="s">
         <v>18</v>
@@ -74364,7 +74360,7 @@
         <v>19</v>
       </c>
       <c r="H964" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
     </row>
     <row r="965" spans="1:11" x14ac:dyDescent="0.3">
@@ -74410,7 +74406,7 @@
         <v>38</v>
       </c>
       <c r="G966" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
     </row>
     <row r="967" spans="1:11" x14ac:dyDescent="0.3">
@@ -74431,12 +74427,12 @@
         <v>38</v>
       </c>
       <c r="G967" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
     </row>
     <row r="968" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A968" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="B968" s="6">
         <v>1.2409993199999999E-8</v>
@@ -74454,13 +74450,13 @@
         <v>21</v>
       </c>
       <c r="H968" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="K968" s="6"/>
     </row>
     <row r="969" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="B969" s="6">
         <v>4.3965884999999999E-12</v>
@@ -74478,19 +74474,19 @@
         <v>21</v>
       </c>
       <c r="H969" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="K969" s="6"/>
     </row>
     <row r="970" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A970" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="B970" s="6">
         <v>5.3739584189999995E-8</v>
       </c>
       <c r="C970" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="D970" t="s">
         <v>9</v>
@@ -74502,7 +74498,7 @@
         <v>21</v>
       </c>
       <c r="H970" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="K970" s="6"/>
     </row>
@@ -74556,7 +74552,7 @@
     </row>
     <row r="973" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="B973" s="6">
         <v>1.8320224809999999E-10</v>
@@ -74574,13 +74570,13 @@
         <v>21</v>
       </c>
       <c r="H973" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="K973" s="6"/>
     </row>
     <row r="974" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A974" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="B974" s="6">
         <v>2.1529457899999997E-2</v>
@@ -74598,13 +74594,13 @@
         <v>21</v>
       </c>
       <c r="H974" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="K974" s="6"/>
     </row>
     <row r="975" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="B975" s="6">
         <v>54.167076379999997</v>
@@ -74622,7 +74618,7 @@
         <v>21</v>
       </c>
       <c r="H975" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="K975" s="6"/>
     </row>
@@ -74655,7 +74651,7 @@
         <v>1</v>
       </c>
       <c r="B978" s="73" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
     </row>
     <row r="979" spans="1:8" x14ac:dyDescent="0.3">
@@ -74679,7 +74675,7 @@
         <v>5</v>
       </c>
       <c r="B981" s="74" t="s">
-        <v>770</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="982" spans="1:8" x14ac:dyDescent="0.3">
@@ -74748,7 +74744,7 @@
     </row>
     <row r="988" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A988" s="2" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="B988" s="6">
         <v>1</v>
@@ -74760,7 +74756,7 @@
         <v>9</v>
       </c>
       <c r="E988" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="F988" t="s">
         <v>18</v>
@@ -74768,13 +74764,13 @@
       <c r="G988" t="s">
         <v>19</v>
       </c>
-      <c r="H988" s="2" t="s">
-        <v>770</v>
+      <c r="H988" s="74" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="989" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="B989" s="6">
         <v>2.2084524000000001</v>
@@ -74795,12 +74791,12 @@
         <v>19</v>
       </c>
       <c r="H989" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
     </row>
     <row r="990" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="B990" s="6">
         <v>6.6731592000000006E-2</v>
@@ -74821,7 +74817,7 @@
         <v>19</v>
       </c>
       <c r="H990" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
     </row>
     <row r="991" spans="1:8" x14ac:dyDescent="0.3">
@@ -74930,7 +74926,7 @@
     </row>
     <row r="995" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="B995" s="6">
         <v>1.410159E-3</v>
@@ -74951,12 +74947,12 @@
         <v>19</v>
       </c>
       <c r="H995" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
     </row>
     <row r="996" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B996" s="6">
         <v>3.5373480000000001E-3</v>
@@ -74977,12 +74973,12 @@
         <v>19</v>
       </c>
       <c r="H996" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="997" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B997" s="6">
         <v>5.9706000000000009E-2</v>
@@ -75003,7 +74999,7 @@
         <v>19</v>
       </c>
       <c r="H997" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="998" spans="1:8" x14ac:dyDescent="0.3">
@@ -75060,7 +75056,7 @@
     </row>
     <row r="1000" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="B1000" s="6">
         <v>6.6960000000000006E-2</v>
@@ -75081,7 +75077,7 @@
         <v>19</v>
       </c>
       <c r="H1000" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1001" spans="1:8" x14ac:dyDescent="0.3">
@@ -75211,7 +75207,7 @@
         <v>1</v>
       </c>
       <c r="B1007" s="73" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
     </row>
     <row r="1008" spans="1:8" x14ac:dyDescent="0.3">
@@ -75235,7 +75231,7 @@
         <v>5</v>
       </c>
       <c r="B1010" s="74" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="1011" spans="1:11" x14ac:dyDescent="0.3">
@@ -75304,7 +75300,7 @@
     </row>
     <row r="1016" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1016" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="B1016" s="6">
         <v>1</v>
@@ -75325,12 +75321,12 @@
         <v>19</v>
       </c>
       <c r="K1016" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="1017" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1017" s="2" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="B1017" s="6">
         <v>1.00057</v>
@@ -75344,8 +75340,8 @@
       <c r="F1017" t="s">
         <v>21</v>
       </c>
-      <c r="K1017" s="2" t="s">
-        <v>770</v>
+      <c r="K1017" s="74" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="1018" spans="1:11" x14ac:dyDescent="0.3">
@@ -75683,7 +75679,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="B14">
         <v>2.85</v>

--- a/premise/data/additional_inventories/lci-biofuels.xlsx
+++ b/premise/data/additional_inventories/lci-biofuels.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="14016" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="14016"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -4114,8 +4114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W160"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12605,7 +12605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2157" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView topLeftCell="A2157" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="B531" sqref="B531"/>
     </sheetView>
   </sheetViews>

--- a/premise/data/additional_inventories/lci-biofuels.xlsx
+++ b/premise/data/additional_inventories/lci-biofuels.xlsx
@@ -12605,7 +12605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2183"/>
   <sheetViews>
-    <sheetView topLeftCell="A2157" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView topLeftCell="A169" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="B531" sqref="B531"/>
     </sheetView>
   </sheetViews>
@@ -49134,7 +49134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J344"/>
   <sheetViews>
-    <sheetView topLeftCell="A331" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A315" sqref="A315"/>
     </sheetView>
   </sheetViews>
@@ -54786,7 +54786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -56786,7 +56786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1027"/>
   <sheetViews>
-    <sheetView topLeftCell="A1012" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1037" sqref="K1037"/>
     </sheetView>
   </sheetViews>

--- a/premise/data/additional_inventories/lci-biofuels.xlsx
+++ b/premise/data/additional_inventories/lci-biofuels.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="25836" windowHeight="14016" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="25836" windowHeight="14016"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -486,7 +486,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15934" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15937" uniqueCount="1051">
   <si>
     <t>Database</t>
   </si>
@@ -3046,9 +3046,6 @@
   </si>
   <si>
     <t>Francesco TH::BioEthanol::corn to EtOH</t>
-  </si>
-  <si>
-    <t>corn cultivation, drying and storage</t>
   </si>
   <si>
     <t>2.55 tons dry corn per ton of ethanol producedPannonia, 2015. Personal communication to JRC, email 21/09/2016 GREET 2014 dry-mill</t>
@@ -4312,8 +4309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W160"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4391,7 +4388,7 @@
         <v>467</v>
       </c>
       <c r="O4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="P4" t="s">
         <v>468</v>
@@ -4400,10 +4397,10 @@
         <v>476</v>
       </c>
       <c r="R4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="S4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -5139,7 +5136,7 @@
         <v>265</v>
       </c>
       <c r="D17" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -5299,13 +5296,13 @@
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C20" t="s">
         <v>582</v>
       </c>
       <c r="D20" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -5360,13 +5357,13 @@
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C21" t="s">
         <v>582</v>
       </c>
       <c r="D21" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -5417,7 +5414,7 @@
         <v>582</v>
       </c>
       <c r="D22" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -5477,13 +5474,13 @@
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C23" t="s">
         <v>582</v>
       </c>
       <c r="D23" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -5543,7 +5540,7 @@
         <v>582</v>
       </c>
       <c r="D24" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -5575,13 +5572,13 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C25" t="s">
         <v>582</v>
       </c>
       <c r="D25" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -5613,13 +5610,13 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C26" t="s">
         <v>582</v>
       </c>
       <c r="D26" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -5678,13 +5675,13 @@
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C27" t="s">
         <v>582</v>
       </c>
       <c r="D27" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -5732,13 +5729,13 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C28" t="s">
         <v>582</v>
       </c>
       <c r="D28" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -6375,7 +6372,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -6610,13 +6607,13 @@
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C49" t="s">
         <v>582</v>
       </c>
       <c r="D49" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -6659,13 +6656,13 @@
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C50" t="s">
         <v>582</v>
       </c>
       <c r="D50" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -6708,13 +6705,13 @@
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C51" t="s">
         <v>582</v>
       </c>
       <c r="D51" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -6760,13 +6757,13 @@
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C52" t="s">
         <v>582</v>
       </c>
       <c r="D52" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -6818,7 +6815,7 @@
         <v>582</v>
       </c>
       <c r="D53" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -6861,13 +6858,13 @@
     </row>
     <row r="54" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C54" t="s">
         <v>582</v>
       </c>
       <c r="D54" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -6910,13 +6907,13 @@
     </row>
     <row r="55" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C55" t="s">
         <v>582</v>
       </c>
       <c r="D55" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -6962,13 +6959,13 @@
     </row>
     <row r="56" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C56" t="s">
         <v>582</v>
       </c>
       <c r="D56" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -7014,13 +7011,13 @@
     </row>
     <row r="57" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C57" t="s">
         <v>582</v>
       </c>
       <c r="D57" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -7745,7 +7742,7 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -8029,13 +8026,13 @@
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C77" t="s">
         <v>582</v>
       </c>
       <c r="D77" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -8087,13 +8084,13 @@
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C78" t="s">
         <v>582</v>
       </c>
       <c r="D78" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -8145,13 +8142,13 @@
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C79" t="s">
         <v>582</v>
       </c>
       <c r="D79" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -8203,13 +8200,13 @@
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C80" t="s">
         <v>582</v>
       </c>
       <c r="D80" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -8267,7 +8264,7 @@
         <v>582</v>
       </c>
       <c r="D81" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -8319,13 +8316,13 @@
     </row>
     <row r="82" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B82" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C82" t="s">
         <v>582</v>
       </c>
       <c r="D82" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -8377,13 +8374,13 @@
     </row>
     <row r="83" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B83" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C83" t="s">
         <v>582</v>
       </c>
       <c r="D83" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -8435,13 +8432,13 @@
     </row>
     <row r="84" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B84" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C84" t="s">
         <v>582</v>
       </c>
       <c r="D84" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -8493,13 +8490,13 @@
     </row>
     <row r="85" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C85" t="s">
         <v>582</v>
       </c>
       <c r="D85" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -9157,7 +9154,7 @@
         <v>3</v>
       </c>
       <c r="D101" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -10029,7 +10026,7 @@
         <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -10983,7 +10980,7 @@
         <v>3</v>
       </c>
       <c r="D139" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -12128,7 +12125,7 @@
         <v>3</v>
       </c>
       <c r="D157" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -12799,8 +12796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A921" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A956" sqref="A956"/>
+    <sheetView topLeftCell="A1962" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A1987" sqref="A1987"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12893,7 +12890,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B11" s="5">
         <f>Summary!R6</f>
@@ -12902,7 +12899,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B12" s="78">
         <f>Summary!Q6</f>
@@ -13169,7 +13166,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B25" s="6">
         <f>0.466*(44/12)*0.85</f>
@@ -13179,7 +13176,7 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F25" t="s">
         <v>37</v>
@@ -13289,12 +13286,12 @@
         <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B31" s="6">
         <f>75.643/1000000</f>
@@ -13310,7 +13307,7 @@
         <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -13331,7 +13328,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -15761,7 +15758,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B185" s="5">
         <f>Summary!R7</f>
@@ -15770,7 +15767,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B186" s="78">
         <f>Summary!Q7</f>
@@ -16121,12 +16118,12 @@
         <v>37</v>
       </c>
       <c r="G202" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B203" s="6">
         <f>27.433/1000000</f>
@@ -16142,7 +16139,7 @@
         <v>37</v>
       </c>
       <c r="G203" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
@@ -16163,7 +16160,7 @@
         <v>37</v>
       </c>
       <c r="G204" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
@@ -16248,7 +16245,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B209" s="6">
         <f>0.501*(44/12)*0.85</f>
@@ -16258,7 +16255,7 @@
         <v>9</v>
       </c>
       <c r="E209" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F209" t="s">
         <v>37</v>
@@ -19172,7 +19169,7 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B386" s="5">
         <f>Summary!R8</f>
@@ -19181,7 +19178,7 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B387" s="78">
         <f>Summary!Q8</f>
@@ -19531,12 +19528,12 @@
         <v>37</v>
       </c>
       <c r="G403" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B404" s="6">
         <f>20.36/1000000</f>
@@ -19552,7 +19549,7 @@
         <v>37</v>
       </c>
       <c r="G404" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.3">
@@ -19573,7 +19570,7 @@
         <v>37</v>
       </c>
       <c r="G405" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.3">
@@ -19658,7 +19655,7 @@
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B410" s="6">
         <v>1.758866488192</v>
@@ -19667,7 +19664,7 @@
         <v>9</v>
       </c>
       <c r="E410" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F410" t="s">
         <v>37</v>
@@ -22634,7 +22631,7 @@
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B590" s="6">
         <v>1.81</v>
@@ -22643,7 +22640,7 @@
         <v>9</v>
       </c>
       <c r="E590" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F590" t="s">
         <v>37</v>
@@ -24716,7 +24713,7 @@
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B726" s="5">
         <f>Summary!R10</f>
@@ -24725,7 +24722,7 @@
     </row>
     <row r="727" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B727" s="78">
         <f>Summary!Q10</f>
@@ -25097,12 +25094,12 @@
         <v>37</v>
       </c>
       <c r="G744" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="745" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B745" s="6">
         <f>73.885/1000000</f>
@@ -25118,7 +25115,7 @@
         <v>37</v>
       </c>
       <c r="G745" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.3">
@@ -25139,7 +25136,7 @@
         <v>37</v>
       </c>
       <c r="G746" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="747" spans="1:8" x14ac:dyDescent="0.3">
@@ -25224,7 +25221,7 @@
     </row>
     <row r="751" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B751" s="6">
         <v>1.7590123356145999</v>
@@ -25233,7 +25230,7 @@
         <v>9</v>
       </c>
       <c r="E751" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F751" t="s">
         <v>37</v>
@@ -28205,7 +28202,7 @@
     </row>
     <row r="930" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B930" s="5">
         <f>Summary!R11</f>
@@ -28214,7 +28211,7 @@
     </row>
     <row r="931" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B931" s="78">
         <f>Summary!Q11</f>
@@ -28412,7 +28409,7 @@
     </row>
     <row r="941" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B941" s="6">
         <f>0.4682*(44/12)*1</f>
@@ -28422,7 +28419,7 @@
         <v>9</v>
       </c>
       <c r="E941" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F941" t="s">
         <v>37</v>
@@ -30862,7 +30859,7 @@
     </row>
     <row r="1094" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1094" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B1094" s="5">
         <f>Summary!R12</f>
@@ -30871,7 +30868,7 @@
     </row>
     <row r="1095" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1095" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B1095" s="78">
         <f>Summary!Q12</f>
@@ -31246,12 +31243,12 @@
         <v>37</v>
       </c>
       <c r="G1112" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1113" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B1113" s="6">
         <f>29.38/1000000</f>
@@ -31267,7 +31264,7 @@
         <v>37</v>
       </c>
       <c r="G1113" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1114" spans="1:8" x14ac:dyDescent="0.3">
@@ -31288,7 +31285,7 @@
         <v>37</v>
       </c>
       <c r="G1114" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1115" spans="1:8" x14ac:dyDescent="0.3">
@@ -31433,7 +31430,7 @@
     </row>
     <row r="1122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1122" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B1122" s="6">
         <v>0.44</v>
@@ -31442,7 +31439,7 @@
         <v>9</v>
       </c>
       <c r="E1122" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F1122" t="s">
         <v>37</v>
@@ -33904,7 +33901,7 @@
     </row>
     <row r="1277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1277" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B1277" s="5">
         <f>Summary!R13</f>
@@ -33913,7 +33910,7 @@
     </row>
     <row r="1278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1278" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B1278" s="78">
         <f>Summary!Q13</f>
@@ -34311,12 +34308,12 @@
         <v>37</v>
       </c>
       <c r="G1296" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1297" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B1297" s="6">
         <f>11.36/1000000</f>
@@ -34332,7 +34329,7 @@
         <v>37</v>
       </c>
       <c r="G1297" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1298" spans="1:7" x14ac:dyDescent="0.3">
@@ -34353,7 +34350,7 @@
         <v>37</v>
       </c>
       <c r="G1298" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1299" spans="1:7" x14ac:dyDescent="0.3">
@@ -34758,7 +34755,7 @@
     </row>
     <row r="1319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1319" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B1319" s="6">
         <f>0.393*(44/12)</f>
@@ -34768,7 +34765,7 @@
         <v>9</v>
       </c>
       <c r="E1319" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F1319" t="s">
         <v>37</v>
@@ -37285,7 +37282,7 @@
     </row>
     <row r="1476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1476" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B1476" s="5">
         <f>Summary!R14</f>
@@ -37294,7 +37291,7 @@
     </row>
     <row r="1477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1477" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B1477" s="78">
         <f>Summary!Q14</f>
@@ -37671,12 +37668,12 @@
         <v>37</v>
       </c>
       <c r="G1494" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1495" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B1495" s="6">
         <f>25.65/1000000</f>
@@ -37692,7 +37689,7 @@
         <v>37</v>
       </c>
       <c r="G1495" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="1496" spans="1:8" x14ac:dyDescent="0.3">
@@ -37713,7 +37710,7 @@
         <v>37</v>
       </c>
       <c r="G1496" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="1497" spans="1:8" x14ac:dyDescent="0.3">
@@ -38118,7 +38115,7 @@
     </row>
     <row r="1517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1517" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B1517" s="6">
         <f>0.42*(1-0.72)*(44/12)</f>
@@ -38128,7 +38125,7 @@
         <v>9</v>
       </c>
       <c r="E1517" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F1517" t="s">
         <v>37</v>
@@ -39907,7 +39904,7 @@
     </row>
     <row r="1635" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1635" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B1635" s="5">
         <f>Summary!R15</f>
@@ -39916,7 +39913,7 @@
     </row>
     <row r="1636" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1636" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B1636" s="78">
         <f>Summary!Q15</f>
@@ -40335,12 +40332,12 @@
         <v>37</v>
       </c>
       <c r="G1655" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1656" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1656" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B1656" s="6">
         <f>25.75/1000000</f>
@@ -40356,7 +40353,7 @@
         <v>37</v>
       </c>
       <c r="G1656" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1657" spans="1:8" x14ac:dyDescent="0.3">
@@ -40377,7 +40374,7 @@
         <v>37</v>
       </c>
       <c r="G1657" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1658" spans="1:8" x14ac:dyDescent="0.3">
@@ -40782,7 +40779,7 @@
     </row>
     <row r="1678" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1678" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B1678" s="6">
         <f>0.42*(1-0.73)*(44/12)</f>
@@ -40792,7 +40789,7 @@
         <v>9</v>
       </c>
       <c r="E1678" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F1678" t="s">
         <v>37</v>
@@ -43100,7 +43097,7 @@
     </row>
     <row r="1825" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1825" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B1825" s="5">
         <f>Summary!R16</f>
@@ -43109,7 +43106,7 @@
     </row>
     <row r="1826" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1826" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B1826" s="78">
         <f>Summary!Q16</f>
@@ -43538,7 +43535,7 @@
     </row>
     <row r="1846" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1846" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B1846" s="6">
         <v>1.4762999999999999</v>
@@ -43547,7 +43544,7 @@
         <v>9</v>
       </c>
       <c r="E1846" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F1846" t="s">
         <v>37</v>
@@ -43594,12 +43591,12 @@
         <v>37</v>
       </c>
       <c r="G1848" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1849" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1849" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B1849" s="6">
         <f>8.88/1000000</f>
@@ -43615,7 +43612,7 @@
         <v>37</v>
       </c>
       <c r="G1849" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1850" spans="1:8" x14ac:dyDescent="0.3">
@@ -43636,7 +43633,7 @@
         <v>37</v>
       </c>
       <c r="G1850" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1851" spans="1:8" x14ac:dyDescent="0.3">
@@ -44850,7 +44847,7 @@
         <v>21</v>
       </c>
       <c r="G1917" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H1917" s="2" t="s">
         <v>440</v>
@@ -45209,7 +45206,7 @@
         <v>21</v>
       </c>
       <c r="G1940" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H1940" s="2" t="s">
         <v>440</v>
@@ -45568,7 +45565,7 @@
         <v>21</v>
       </c>
       <c r="G1963" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H1963" s="2" t="s">
         <v>440</v>
@@ -45871,7 +45868,7 @@
         <v>12</v>
       </c>
       <c r="B1982" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1983" spans="1:9" x14ac:dyDescent="0.3">
@@ -46928,7 +46925,7 @@
         <v>21</v>
       </c>
       <c r="G2044" s="36" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H2044" s="36" t="s">
         <v>555</v>
@@ -49408,7 +49405,7 @@
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B9" s="5">
         <f>Summary!R17</f>
@@ -49417,7 +49414,7 @@
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B10" s="78">
         <f>Summary!Q17</f>
@@ -49640,7 +49637,7 @@
         <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H20" t="s">
         <v>24</v>
@@ -50325,7 +50322,7 @@
     </row>
     <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B54" s="6">
         <v>0.49888461538461598</v>
@@ -50334,7 +50331,7 @@
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F54" t="s">
         <v>37</v>
@@ -50510,7 +50507,7 @@
     </row>
     <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B69" s="5">
         <f>Summary!R18</f>
@@ -50519,7 +50516,7 @@
     </row>
     <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B70" s="78">
         <f>Summary!Q18</f>
@@ -50598,7 +50595,7 @@
         <v>21</v>
       </c>
       <c r="G74" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H74" t="s">
         <v>24</v>
@@ -50654,7 +50651,7 @@
     </row>
     <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B77" s="6">
         <f>0.4155*(44/12)*(1-0.06)</f>
@@ -50664,7 +50661,7 @@
         <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F77" t="s">
         <v>37</v>
@@ -51782,7 +51779,7 @@
         <v>10</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -51994,7 +51991,7 @@
         <v>21</v>
       </c>
       <c r="G164" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>317</v>
@@ -52018,7 +52015,7 @@
         <v>21</v>
       </c>
       <c r="G165" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>257</v>
@@ -52335,7 +52332,7 @@
         <v>21</v>
       </c>
       <c r="G186" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H186" s="2" t="s">
         <v>257</v>
@@ -52652,7 +52649,7 @@
         <v>21</v>
       </c>
       <c r="G207" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H207" s="2" t="s">
         <v>257</v>
@@ -55149,12 +55146,12 @@
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B9" s="6">
         <v>18.850000000000001</v>
@@ -55162,7 +55159,7 @@
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B10" s="78">
         <f>Summary!Q19</f>
@@ -55256,7 +55253,7 @@
         <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>579</v>
@@ -55447,7 +55444,7 @@
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B25" s="6">
         <f>1.83*(1-0.4)</f>
@@ -55457,7 +55454,7 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F25" t="s">
         <v>37</v>
@@ -55505,7 +55502,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -56023,7 +56020,7 @@
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F51" t="s">
         <v>37</v>
@@ -56063,7 +56060,7 @@
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F53" t="s">
         <v>37</v>
@@ -56103,7 +56100,7 @@
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F55" t="s">
         <v>37</v>
@@ -56123,7 +56120,7 @@
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F56" t="s">
         <v>37</v>
@@ -56263,7 +56260,7 @@
         <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F63" t="s">
         <v>37</v>
@@ -56283,7 +56280,7 @@
         <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F64" t="s">
         <v>37</v>
@@ -57086,8 +57083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1029"/>
   <sheetViews>
-    <sheetView topLeftCell="A850" workbookViewId="0">
-      <selection activeCell="B869" sqref="B869"/>
+    <sheetView topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="H343" sqref="H343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57107,7 +57104,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -57131,7 +57128,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -57163,12 +57160,12 @@
         <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B9" s="5">
         <v>15.15</v>
@@ -57176,7 +57173,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B10" s="78">
         <v>0.13500000000000001</v>
@@ -57215,7 +57212,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -57236,12 +57233,12 @@
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B14" s="6">
         <v>0.14000000000000001</v>
@@ -57256,15 +57253,15 @@
         <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H14" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B15" s="6">
         <v>1.6118842500000003E-4</v>
@@ -57285,7 +57282,7 @@
         <v>825</v>
       </c>
       <c r="H15" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -57585,7 +57582,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B28" s="6">
         <f>0.458*(44/12)*(1-B10)</f>
@@ -57595,13 +57592,13 @@
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F28" t="s">
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -57621,7 +57618,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -57641,7 +57638,7 @@
         <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -57661,7 +57658,7 @@
         <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -57672,7 +57669,7 @@
         <v>0.12318</v>
       </c>
       <c r="C32" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D32" t="s">
         <v>122</v>
@@ -57681,7 +57678,7 @@
         <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H32" t="s">
         <v>123</v>
@@ -57689,7 +57686,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B33" s="6">
         <v>9.4816999999999999E-2</v>
@@ -57704,15 +57701,15 @@
         <v>21</v>
       </c>
       <c r="G33" t="s">
+        <v>900</v>
+      </c>
+      <c r="H33" t="s">
         <v>901</v>
-      </c>
-      <c r="H33" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B34" s="6">
         <v>1.0309E-3</v>
@@ -57727,10 +57724,10 @@
         <v>21</v>
       </c>
       <c r="G34" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H34" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -57750,7 +57747,7 @@
         <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -57770,7 +57767,7 @@
         <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -57790,7 +57787,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -57810,7 +57807,7 @@
         <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -57830,7 +57827,7 @@
         <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -57850,7 +57847,7 @@
         <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -57870,12 +57867,12 @@
         <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B42" s="6">
         <v>9.7411999999999995E-5</v>
@@ -57890,7 +57887,7 @@
         <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -57910,12 +57907,12 @@
         <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B44" s="6">
         <v>6.7764999999999999E-5</v>
@@ -57930,7 +57927,7 @@
         <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -57950,12 +57947,12 @@
         <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B46" s="6">
         <v>4.1820000000000003E-5</v>
@@ -57970,7 +57967,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -57990,12 +57987,12 @@
         <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B48" s="6">
         <v>2.8062999999999999E-5</v>
@@ -58010,12 +58007,12 @@
         <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B49" s="6">
         <v>2.6434000000000001E-5</v>
@@ -58030,12 +58027,12 @@
         <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B50" s="6">
         <v>2.5826999999999999E-5</v>
@@ -58050,12 +58047,12 @@
         <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B51" s="6">
         <v>2.2212999999999999E-5</v>
@@ -58070,12 +58067,12 @@
         <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B52" s="6">
         <v>2.0055999999999999E-5</v>
@@ -58090,12 +58087,12 @@
         <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B53" s="6">
         <v>1.9833000000000001E-5</v>
@@ -58110,7 +58107,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -58130,7 +58127,7 @@
         <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -58150,12 +58147,12 @@
         <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B56" s="6">
         <v>1.1124999999999999E-5</v>
@@ -58170,12 +58167,12 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B57" s="6">
         <v>7.9096999999999998E-6</v>
@@ -58190,12 +58187,12 @@
         <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B58" s="6">
         <v>7.0283000000000001E-6</v>
@@ -58210,12 +58207,12 @@
         <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B59" s="6">
         <v>6.9120000000000001E-6</v>
@@ -58230,12 +58227,12 @@
         <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B60" s="6">
         <v>6.2171000000000002E-6</v>
@@ -58250,7 +58247,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -58270,12 +58267,12 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B62" s="6">
         <v>5.2755999999999999E-6</v>
@@ -58290,12 +58287,12 @@
         <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B63" s="6">
         <v>4.318E-6</v>
@@ -58310,12 +58307,12 @@
         <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B64" s="6">
         <v>4.2709000000000001E-6</v>
@@ -58330,12 +58327,12 @@
         <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B65" s="6">
         <v>4.0783000000000004E-6</v>
@@ -58350,12 +58347,12 @@
         <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B66" s="6">
         <v>3.9253999999999997E-6</v>
@@ -58370,12 +58367,12 @@
         <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B67" s="6">
         <v>2.9745000000000001E-6</v>
@@ -58390,7 +58387,7 @@
         <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -58410,12 +58407,12 @@
         <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B69" s="6">
         <v>2.7584000000000001E-6</v>
@@ -58430,7 +58427,7 @@
         <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -58450,7 +58447,7 @@
         <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -58470,12 +58467,12 @@
         <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B72" s="6">
         <v>2.1621E-6</v>
@@ -58490,12 +58487,12 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B73" s="6">
         <v>1.8418000000000001E-6</v>
@@ -58510,12 +58507,12 @@
         <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B74" s="6">
         <v>1.7949E-6</v>
@@ -58530,12 +58527,12 @@
         <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B75" s="6">
         <v>1.7571000000000001E-6</v>
@@ -58550,12 +58547,12 @@
         <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B76" s="6">
         <v>1.7163E-6</v>
@@ -58570,12 +58567,12 @@
         <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B77" s="6">
         <v>1.4859E-6</v>
@@ -58590,12 +58587,12 @@
         <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B78" s="6">
         <v>1.3882999999999999E-6</v>
@@ -58610,12 +58607,12 @@
         <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B79" s="6">
         <v>1.1375999999999999E-6</v>
@@ -58630,7 +58627,7 @@
         <v>37</v>
       </c>
       <c r="G79" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -58650,7 +58647,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -58670,12 +58667,12 @@
         <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B82" s="6">
         <v>1.0217999999999999E-6</v>
@@ -58690,7 +58687,7 @@
         <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -58710,12 +58707,12 @@
         <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B84" s="6">
         <v>7.5175000000000004E-7</v>
@@ -58730,12 +58727,12 @@
         <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B85" s="6">
         <v>7.1319000000000005E-7</v>
@@ -58750,12 +58747,12 @@
         <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B86" s="6">
         <v>6.2196999999999995E-7</v>
@@ -58770,12 +58767,12 @@
         <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B87" s="6">
         <v>5.4909E-7</v>
@@ -58790,12 +58787,12 @@
         <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B88" s="6">
         <v>5.0380000000000005E-7</v>
@@ -58810,7 +58807,7 @@
         <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -58830,7 +58827,7 @@
         <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -58850,7 +58847,7 @@
         <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -58870,12 +58867,12 @@
         <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B92" s="6">
         <v>4.2759999999999999E-7</v>
@@ -58890,12 +58887,12 @@
         <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B93" s="6">
         <v>4.1983000000000002E-7</v>
@@ -58910,7 +58907,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -58930,12 +58927,12 @@
         <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B95" s="6">
         <v>3.5656000000000001E-7</v>
@@ -58950,12 +58947,12 @@
         <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B96" s="6">
         <v>3.4060000000000002E-7</v>
@@ -58970,7 +58967,7 @@
         <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -58990,7 +58987,7 @@
         <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -59010,7 +59007,7 @@
         <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -59030,12 +59027,12 @@
         <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B100" s="6">
         <v>2.4989999999999998E-7</v>
@@ -59050,12 +59047,12 @@
         <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B101" s="6">
         <v>2.0524999999999999E-7</v>
@@ -59070,7 +59067,7 @@
         <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -59090,12 +59087,12 @@
         <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B103" s="6">
         <v>1.4880999999999999E-7</v>
@@ -59110,7 +59107,7 @@
         <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -59130,12 +59127,12 @@
         <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B105" s="6">
         <v>1.1766E-7</v>
@@ -59150,12 +59147,12 @@
         <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B106" s="6">
         <v>9.4035999999999996E-8</v>
@@ -59170,7 +59167,7 @@
         <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -59190,12 +59187,12 @@
         <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B108" s="6">
         <v>6.2196999999999998E-8</v>
@@ -59210,12 +59207,12 @@
         <v>37</v>
       </c>
       <c r="G108" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B109" s="6">
         <v>4.7693999999999997E-8</v>
@@ -59230,12 +59227,12 @@
         <v>37</v>
       </c>
       <c r="G109" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B110" s="6">
         <v>3.7021999999999999E-8</v>
@@ -59250,12 +59247,12 @@
         <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B111" s="6">
         <v>3.3320000000000003E-8</v>
@@ -59270,12 +59267,12 @@
         <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B112" s="6">
         <v>2.9761000000000001E-8</v>
@@ -59290,7 +59287,7 @@
         <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -59310,7 +59307,7 @@
         <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -59330,7 +59327,7 @@
         <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -59350,7 +59347,7 @@
         <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -59370,7 +59367,7 @@
         <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -59390,7 +59387,7 @@
         <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -59410,7 +59407,7 @@
         <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -59430,7 +59427,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -59450,7 +59447,7 @@
         <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -59458,7 +59455,7 @@
         <v>1</v>
       </c>
       <c r="B122" s="73" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -59482,7 +59479,7 @@
         <v>5</v>
       </c>
       <c r="B125" s="74" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -59503,10 +59500,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
+        <v>849</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>850</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -59559,7 +59556,7 @@
     </row>
     <row r="133" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B133" s="6">
         <v>1</v>
@@ -59580,12 +59577,12 @@
         <v>683</v>
       </c>
       <c r="H133" s="74" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B134" s="6">
         <f>29.2388/B27</f>
@@ -59607,7 +59604,7 @@
         <v>684</v>
       </c>
       <c r="H134" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -59846,7 +59843,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B144" s="6">
         <v>1.1175600000000001</v>
@@ -59867,7 +59864,7 @@
         <v>659</v>
       </c>
       <c r="H144" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -59948,7 +59945,7 @@
         <v>1</v>
       </c>
       <c r="B149" s="73" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -60041,7 +60038,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B158" s="6">
         <v>1</v>
@@ -60067,7 +60064,7 @@
     </row>
     <row r="159" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B159" s="6">
         <v>1.00057</v>
@@ -60082,7 +60079,7 @@
         <v>21</v>
       </c>
       <c r="K159" s="74" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
@@ -60290,7 +60287,7 @@
         <v>1</v>
       </c>
       <c r="B171" s="73" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
@@ -60314,7 +60311,7 @@
         <v>5</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
@@ -60343,7 +60340,7 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B178" s="6">
         <v>17.2</v>
@@ -60351,7 +60348,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B179" s="75">
         <v>0.1</v>
@@ -60390,7 +60387,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B182" s="6">
         <v>1</v>
@@ -60411,12 +60408,12 @@
         <v>19</v>
       </c>
       <c r="H182" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B183" s="6">
         <v>0.14000000000000001</v>
@@ -60431,10 +60428,10 @@
         <v>21</v>
       </c>
       <c r="G183" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H183" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -60578,7 +60575,7 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B190" s="6">
         <f>0.46*(44/12)*(1-B179)</f>
@@ -60588,13 +60585,13 @@
         <v>9</v>
       </c>
       <c r="E190" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F190" t="s">
         <v>37</v>
       </c>
       <c r="J190" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -60602,7 +60599,7 @@
         <v>1</v>
       </c>
       <c r="B192" s="73" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
@@ -60626,7 +60623,7 @@
         <v>5</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
@@ -60704,7 +60701,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B202" s="6">
         <v>1</v>
@@ -60725,12 +60722,12 @@
         <v>19</v>
       </c>
       <c r="H202" s="6" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B203" s="6">
         <f>51.839247/B186</f>
@@ -60752,7 +60749,7 @@
         <v>19</v>
       </c>
       <c r="H203" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
@@ -60784,7 +60781,7 @@
         <v>257</v>
       </c>
       <c r="J204" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K204" t="s">
         <v>674</v>
@@ -60792,7 +60789,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B205" s="6">
         <v>2.3852000000000001E-3</v>
@@ -60813,13 +60810,13 @@
         <v>19</v>
       </c>
       <c r="H205" t="s">
+        <v>978</v>
+      </c>
+      <c r="I205" t="s">
+        <v>978</v>
+      </c>
+      <c r="J205" t="s">
         <v>979</v>
-      </c>
-      <c r="I205" t="s">
-        <v>979</v>
-      </c>
-      <c r="J205" t="s">
-        <v>980</v>
       </c>
       <c r="K205" t="s">
         <v>674</v>
@@ -61134,7 +61131,7 @@
         <v>354</v>
       </c>
       <c r="J214" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="K214" t="s">
         <v>674</v>
@@ -61169,7 +61166,7 @@
         <v>354</v>
       </c>
       <c r="J215" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="K215" t="s">
         <v>674</v>
@@ -61177,7 +61174,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B216" s="6">
         <v>1.1175600000000001</v>
@@ -61198,13 +61195,13 @@
         <v>19</v>
       </c>
       <c r="H216" t="s">
+        <v>992</v>
+      </c>
+      <c r="I216" t="s">
+        <v>992</v>
+      </c>
+      <c r="J216" t="s">
         <v>993</v>
-      </c>
-      <c r="I216" t="s">
-        <v>993</v>
-      </c>
-      <c r="J216" t="s">
-        <v>994</v>
       </c>
       <c r="K216" t="s">
         <v>674</v>
@@ -61346,7 +61343,7 @@
         <v>1</v>
       </c>
       <c r="B223" s="73" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
@@ -61439,7 +61436,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B232" s="6">
         <v>1</v>
@@ -61465,7 +61462,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B233" s="6">
         <v>1.00057</v>
@@ -61480,7 +61477,7 @@
         <v>21</v>
       </c>
       <c r="K233" s="6" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
@@ -61711,12 +61708,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>5</v>
       </c>
-      <c r="B248" s="6" t="s">
-        <v>844</v>
+      <c r="B248" s="2" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
@@ -61724,7 +61721,7 @@
         <v>10</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.3">
@@ -61745,7 +61742,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B252" s="5">
         <f>14.9/(1-B253)</f>
@@ -61754,7 +61751,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B253" s="75">
         <v>0.14000000000000001</v>
@@ -61791,7 +61788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>97</v>
       </c>
@@ -61813,8 +61810,11 @@
       <c r="G256" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H256" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>97</v>
       </c>
@@ -61834,7 +61834,10 @@
         <v>21</v>
       </c>
       <c r="G257" t="s">
-        <v>878</v>
+        <v>877</v>
+      </c>
+      <c r="H257" s="2" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
@@ -61905,7 +61908,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B261" s="6">
         <v>3.382384E-3</v>
@@ -61926,7 +61929,7 @@
         <v>777</v>
       </c>
       <c r="H261" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
@@ -62000,7 +62003,7 @@
         <v>21</v>
       </c>
       <c r="G264" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H264" t="s">
         <v>54</v>
@@ -62207,7 +62210,7 @@
         <v>21</v>
       </c>
       <c r="G272" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H272" t="s">
         <v>354</v>
@@ -62236,7 +62239,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B274" s="6">
         <f>0.444*(44/12)*(1-B253)</f>
@@ -62246,13 +62249,13 @@
         <v>9</v>
       </c>
       <c r="E274" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F274" t="s">
         <v>37</v>
       </c>
       <c r="G274" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
@@ -62273,7 +62276,7 @@
         <v>37</v>
       </c>
       <c r="G275" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
@@ -62294,7 +62297,7 @@
         <v>37</v>
       </c>
       <c r="G276" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
@@ -62315,7 +62318,7 @@
         <v>37</v>
       </c>
       <c r="G277" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
@@ -63365,7 +63368,7 @@
         <v>1</v>
       </c>
       <c r="B331" s="73" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.3">
@@ -63389,7 +63392,7 @@
         <v>5</v>
       </c>
       <c r="B334" s="74" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.3">
@@ -63466,7 +63469,7 @@
     </row>
     <row r="342" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B342" s="6">
         <v>1</v>
@@ -63487,10 +63490,10 @@
         <v>19</v>
       </c>
       <c r="H342" s="74" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>97</v>
       </c>
@@ -63511,7 +63514,10 @@
         <v>21</v>
       </c>
       <c r="G343" t="s">
-        <v>845</v>
+        <v>844</v>
+      </c>
+      <c r="H343" s="2" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
@@ -63690,7 +63696,7 @@
         <v>21</v>
       </c>
       <c r="G350" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H350" t="s">
         <v>104</v>
@@ -63742,7 +63748,7 @@
         <v>21</v>
       </c>
       <c r="G352" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H352" t="s">
         <v>354</v>
@@ -63802,7 +63808,7 @@
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B355" s="6">
         <v>1.19262</v>
@@ -63823,12 +63829,12 @@
         <v>659</v>
       </c>
       <c r="H355" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B356" s="6">
         <v>7.5658440000000004E-3</v>
@@ -63849,7 +63855,7 @@
         <v>660</v>
       </c>
       <c r="H356" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.3">
@@ -64083,7 +64089,7 @@
     </row>
     <row r="373" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B373" s="6">
         <v>1.00057</v>
@@ -64098,7 +64104,7 @@
         <v>21</v>
       </c>
       <c r="K373" s="74" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.3">
@@ -64310,7 +64316,7 @@
         <v>1</v>
       </c>
       <c r="B385" s="73" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
@@ -64355,7 +64361,7 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B391" s="6">
         <v>80.760000000000005</v>
@@ -64363,7 +64369,7 @@
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B392" s="6">
         <v>16.3</v>
@@ -64372,7 +64378,7 @@
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B393" s="75">
         <v>0.75</v>
@@ -64419,7 +64425,7 @@
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B397" s="6">
         <v>1</v>
@@ -64445,7 +64451,7 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B398" s="6">
         <v>0.14000000000000001</v>
@@ -64463,7 +64469,7 @@
         <v>21</v>
       </c>
       <c r="G398" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H398" t="s">
         <v>671</v>
@@ -64743,7 +64749,7 @@
         <v>21</v>
       </c>
       <c r="G409" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H409" t="s">
         <v>354</v>
@@ -64751,7 +64757,7 @@
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B410" s="6">
         <f>0.445*(44/12)*(1-B393)</f>
@@ -64761,13 +64767,13 @@
         <v>9</v>
       </c>
       <c r="E410" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F410" t="s">
         <v>37</v>
       </c>
       <c r="G410" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
@@ -64788,7 +64794,7 @@
         <v>37</v>
       </c>
       <c r="G411" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.3">
@@ -64809,7 +64815,7 @@
         <v>37</v>
       </c>
       <c r="G412" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
@@ -64830,7 +64836,7 @@
         <v>37</v>
       </c>
       <c r="G413" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
@@ -64901,7 +64907,7 @@
         <v>1.9784999999999998E-3</v>
       </c>
       <c r="C417" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D417" t="s">
         <v>122</v>
@@ -64910,7 +64916,7 @@
         <v>21</v>
       </c>
       <c r="G417" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H417" t="s">
         <v>123</v>
@@ -64918,7 +64924,7 @@
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B418" s="6">
         <v>6.8171999999999998E-3</v>
@@ -64933,15 +64939,15 @@
         <v>21</v>
       </c>
       <c r="G418" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H418" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B419" s="6">
         <v>1.43E-5</v>
@@ -64956,10 +64962,10 @@
         <v>21</v>
       </c>
       <c r="G419" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H419" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.3">
@@ -64979,7 +64985,7 @@
         <v>37</v>
       </c>
       <c r="G420" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.3">
@@ -64999,7 +65005,7 @@
         <v>37</v>
       </c>
       <c r="G421" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.3">
@@ -65019,7 +65025,7 @@
         <v>37</v>
       </c>
       <c r="G422" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.3">
@@ -65039,7 +65045,7 @@
         <v>37</v>
       </c>
       <c r="G423" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.3">
@@ -65059,7 +65065,7 @@
         <v>37</v>
       </c>
       <c r="G424" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.3">
@@ -65079,7 +65085,7 @@
         <v>37</v>
       </c>
       <c r="G425" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.3">
@@ -65099,7 +65105,7 @@
         <v>37</v>
       </c>
       <c r="G426" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.3">
@@ -65119,12 +65125,12 @@
         <v>37</v>
       </c>
       <c r="G427" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B428" s="6">
         <v>2.45779249578E-6</v>
@@ -65139,7 +65145,7 @@
         <v>37</v>
       </c>
       <c r="G428" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.3">
@@ -65159,7 +65165,7 @@
         <v>37</v>
       </c>
       <c r="G429" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.3">
@@ -65179,12 +65185,12 @@
         <v>37</v>
       </c>
       <c r="G430" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B431" s="6">
         <v>1.2234344867999999E-6</v>
@@ -65199,12 +65205,12 @@
         <v>37</v>
       </c>
       <c r="G431" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B432" s="6">
         <v>1.0486581315400001E-6</v>
@@ -65219,12 +65225,12 @@
         <v>37</v>
       </c>
       <c r="G432" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B433" s="6">
         <v>1.0049640427199999E-6</v>
@@ -65239,12 +65245,12 @@
         <v>37</v>
       </c>
       <c r="G433" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B434" s="6">
         <v>7.9523241641499996E-7</v>
@@ -65259,12 +65265,12 @@
         <v>37</v>
       </c>
       <c r="G434" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B435" s="6">
         <v>6.2045606115800001E-7</v>
@@ -65279,7 +65285,7 @@
         <v>37</v>
       </c>
       <c r="G435" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.3">
@@ -65299,7 +65305,7 @@
         <v>37</v>
       </c>
       <c r="G436" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.3">
@@ -65319,7 +65325,7 @@
         <v>37</v>
       </c>
       <c r="G437" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.3">
@@ -65339,7 +65345,7 @@
         <v>37</v>
       </c>
       <c r="G438" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.3">
@@ -65359,7 +65365,7 @@
         <v>37</v>
       </c>
       <c r="G439" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.3">
@@ -65379,7 +65385,7 @@
         <v>37</v>
       </c>
       <c r="G440" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.3">
@@ -65399,7 +65405,7 @@
         <v>37</v>
       </c>
       <c r="G441" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.3">
@@ -65419,7 +65425,7 @@
         <v>37</v>
       </c>
       <c r="G442" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.3">
@@ -65439,7 +65445,7 @@
         <v>37</v>
       </c>
       <c r="G443" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.3">
@@ -65459,7 +65465,7 @@
         <v>37</v>
       </c>
       <c r="G444" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.3">
@@ -65479,7 +65485,7 @@
         <v>37</v>
       </c>
       <c r="G445" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.3">
@@ -65499,7 +65505,7 @@
         <v>37</v>
       </c>
       <c r="G446" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.3">
@@ -65519,7 +65525,7 @@
         <v>37</v>
       </c>
       <c r="G447" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.3">
@@ -65539,7 +65545,7 @@
         <v>37</v>
       </c>
       <c r="G448" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.3">
@@ -65559,7 +65565,7 @@
         <v>37</v>
       </c>
       <c r="G449" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.3">
@@ -65579,7 +65585,7 @@
         <v>37</v>
       </c>
       <c r="G450" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.3">
@@ -65599,7 +65605,7 @@
         <v>37</v>
       </c>
       <c r="G451" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.3">
@@ -65619,7 +65625,7 @@
         <v>37</v>
       </c>
       <c r="G452" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.3">
@@ -65639,7 +65645,7 @@
         <v>37</v>
       </c>
       <c r="G453" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.3">
@@ -65659,7 +65665,7 @@
         <v>37</v>
       </c>
       <c r="G454" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.3">
@@ -65679,7 +65685,7 @@
         <v>37</v>
       </c>
       <c r="G455" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.3">
@@ -65699,7 +65705,7 @@
         <v>37</v>
       </c>
       <c r="G456" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="458" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -65707,7 +65713,7 @@
         <v>1</v>
       </c>
       <c r="B458" s="73" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.3">
@@ -65731,7 +65737,7 @@
         <v>5</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.3">
@@ -65800,7 +65806,7 @@
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B468" s="6">
         <v>1</v>
@@ -65821,12 +65827,12 @@
         <v>19</v>
       </c>
       <c r="H468" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B469" s="3">
         <f>35.1616/B408</f>
@@ -66009,7 +66015,7 @@
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B476" s="6">
         <v>1.1175600000000001</v>
@@ -66030,7 +66036,7 @@
         <v>659</v>
       </c>
       <c r="H476" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.3">
@@ -66227,7 +66233,7 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B491" s="6">
         <v>1.00057</v>
@@ -66242,7 +66248,7 @@
         <v>21</v>
       </c>
       <c r="K491" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.3">
@@ -66478,7 +66484,7 @@
         <v>5</v>
       </c>
       <c r="B506" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.3">
@@ -66507,7 +66513,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B510" s="6">
         <v>19</v>
@@ -66515,7 +66521,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B511" s="6">
         <v>0</v>
@@ -66575,7 +66581,7 @@
         <v>19</v>
       </c>
       <c r="H514" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.3">
@@ -66601,7 +66607,7 @@
         <v>19</v>
       </c>
       <c r="H515" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.3">
@@ -66679,7 +66685,7 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B519" s="6">
         <f>0.496*(44/12)*(1-B511)</f>
@@ -66689,13 +66695,13 @@
         <v>9</v>
       </c>
       <c r="E519" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F519" t="s">
         <v>37</v>
       </c>
       <c r="G519" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.3">
@@ -66747,7 +66753,7 @@
         <v>5</v>
       </c>
       <c r="B525" s="74" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.3">
@@ -66837,7 +66843,7 @@
         <v>19</v>
       </c>
       <c r="H532" s="74" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="533" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -66858,7 +66864,7 @@
         <v>21</v>
       </c>
       <c r="H533" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.3">
@@ -67019,7 +67025,7 @@
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B540" s="6">
         <v>0.68071999999999999</v>
@@ -67040,12 +67046,12 @@
         <v>19</v>
       </c>
       <c r="H540" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B541" s="6">
         <v>8.819075999999999</v>
@@ -67066,7 +67072,7 @@
         <v>19</v>
       </c>
       <c r="H541" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.3">
@@ -67252,7 +67258,7 @@
         <v>21</v>
       </c>
       <c r="K555" s="74" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.3">
@@ -67464,7 +67470,7 @@
         <v>1</v>
       </c>
       <c r="B567" s="73" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.3">
@@ -67517,7 +67523,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B574" s="6">
         <v>39.6</v>
@@ -67556,7 +67562,7 @@
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B577" s="6">
         <v>1</v>
@@ -67729,7 +67735,7 @@
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B584" s="6">
         <v>7.4923200000000003</v>
@@ -67750,7 +67756,7 @@
         <v>810</v>
       </c>
       <c r="H584" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.3">
@@ -67781,7 +67787,7 @@
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B586" s="6">
         <f>0.52*(44/12)</f>
@@ -67791,13 +67797,13 @@
         <v>9</v>
       </c>
       <c r="E586" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F586" t="s">
         <v>37</v>
       </c>
       <c r="G586" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="588" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -67805,7 +67811,7 @@
         <v>1</v>
       </c>
       <c r="B588" s="73" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.3">
@@ -67829,7 +67835,7 @@
         <v>5</v>
       </c>
       <c r="B591" s="74" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.3">
@@ -67898,7 +67904,7 @@
     </row>
     <row r="598" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A598" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B598" s="6">
         <v>1</v>
@@ -67919,12 +67925,12 @@
         <v>19</v>
       </c>
       <c r="H598" s="74" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B599" s="6">
         <f>1/0.975</f>
@@ -67977,7 +67983,7 @@
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B601" s="6">
         <v>7.7480160000000006E-2</v>
@@ -67998,7 +68004,7 @@
         <v>715</v>
       </c>
       <c r="H601" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.3">
@@ -68055,7 +68061,7 @@
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B604" s="6">
         <v>2.6784000000000002E-2</v>
@@ -68076,7 +68082,7 @@
         <v>715</v>
       </c>
       <c r="H604" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.3">
@@ -68185,7 +68191,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B609" s="6">
         <v>1.11972</v>
@@ -68206,7 +68212,7 @@
         <v>19</v>
       </c>
       <c r="H609" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.3">
@@ -68289,7 +68295,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B613" s="6">
         <f>Parameters!$B$14-(B599*B586)</f>
@@ -68299,7 +68305,7 @@
         <v>9</v>
       </c>
       <c r="E613" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F613" t="s">
         <v>37</v>
@@ -68429,7 +68435,7 @@
     </row>
     <row r="625" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A625" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B625" s="6">
         <v>1.00057</v>
@@ -68444,7 +68450,7 @@
         <v>21</v>
       </c>
       <c r="K625" s="74" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.3">
@@ -68656,7 +68662,7 @@
         <v>1</v>
       </c>
       <c r="B637" s="73" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.3">
@@ -68709,7 +68715,7 @@
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B644" s="6">
         <v>3</v>
@@ -68717,7 +68723,7 @@
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B645" s="6">
         <f>27/0.91</f>
@@ -68726,7 +68732,7 @@
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B646" s="75">
         <v>0.15</v>
@@ -68765,7 +68771,7 @@
     </row>
     <row r="649" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B649" s="6">
         <v>1</v>
@@ -68791,7 +68797,7 @@
     </row>
     <row r="650" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B650" s="6">
         <v>0.14000000000000001</v>
@@ -68814,7 +68820,7 @@
     </row>
     <row r="651" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B651" s="6">
         <v>3.3196796703296701E-3</v>
@@ -68835,7 +68841,7 @@
         <v>794</v>
       </c>
       <c r="H651" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="652" spans="1:8" x14ac:dyDescent="0.3">
@@ -69092,7 +69098,7 @@
         <v>21</v>
       </c>
       <c r="G661" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H661" t="s">
         <v>54</v>
@@ -69161,7 +69167,7 @@
     </row>
     <row r="665" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B665" s="6">
         <f>0.535*(44/12)*(1-B646)</f>
@@ -69171,13 +69177,13 @@
         <v>9</v>
       </c>
       <c r="E665" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F665" t="s">
         <v>37</v>
       </c>
       <c r="G665" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.3">
@@ -69197,7 +69203,7 @@
         <v>37</v>
       </c>
       <c r="G666" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="667" spans="1:8" x14ac:dyDescent="0.3">
@@ -69217,7 +69223,7 @@
         <v>37</v>
       </c>
       <c r="G667" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.3">
@@ -69237,7 +69243,7 @@
         <v>37</v>
       </c>
       <c r="G668" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="669" spans="1:8" x14ac:dyDescent="0.3">
@@ -69248,7 +69254,7 @@
         <v>0.27484999999999998</v>
       </c>
       <c r="C669" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D669" t="s">
         <v>122</v>
@@ -69257,7 +69263,7 @@
         <v>21</v>
       </c>
       <c r="G669" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H669" t="s">
         <v>123</v>
@@ -69265,7 +69271,7 @@
     </row>
     <row r="670" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B670" s="6">
         <v>0.23088</v>
@@ -69280,15 +69286,15 @@
         <v>21</v>
       </c>
       <c r="G670" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H670" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B671" s="6">
         <v>1.8833999999999999E-3</v>
@@ -69303,10 +69309,10 @@
         <v>21</v>
       </c>
       <c r="G671" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H671" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="672" spans="1:8" x14ac:dyDescent="0.3">
@@ -69326,7 +69332,7 @@
         <v>37</v>
       </c>
       <c r="G672" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.3">
@@ -69346,7 +69352,7 @@
         <v>37</v>
       </c>
       <c r="G673" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.3">
@@ -69366,7 +69372,7 @@
         <v>37</v>
       </c>
       <c r="G674" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.3">
@@ -69386,7 +69392,7 @@
         <v>37</v>
       </c>
       <c r="G675" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.3">
@@ -69406,7 +69412,7 @@
         <v>37</v>
       </c>
       <c r="G676" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.3">
@@ -69426,12 +69432,12 @@
         <v>37</v>
       </c>
       <c r="G677" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B678" s="6">
         <v>3.0517000000000001E-4</v>
@@ -69446,7 +69452,7 @@
         <v>37</v>
       </c>
       <c r="G678" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.3">
@@ -69466,7 +69472,7 @@
         <v>37</v>
       </c>
       <c r="G679" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.3">
@@ -69486,12 +69492,12 @@
         <v>37</v>
       </c>
       <c r="G680" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B681" s="6">
         <v>1.3363000000000001E-4</v>
@@ -69506,12 +69512,12 @@
         <v>37</v>
       </c>
       <c r="G681" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B682" s="6">
         <v>1.166E-4</v>
@@ -69526,12 +69532,12 @@
         <v>37</v>
       </c>
       <c r="G682" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B683" s="6">
         <v>8.4437000000000005E-5</v>
@@ -69546,12 +69552,12 @@
         <v>37</v>
       </c>
       <c r="G683" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B684" s="6">
         <v>7.9843000000000001E-5</v>
@@ -69566,7 +69572,7 @@
         <v>37</v>
       </c>
       <c r="G684" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.3">
@@ -69586,12 +69592,12 @@
         <v>37</v>
       </c>
       <c r="G685" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B686" s="6">
         <v>5.2151999999999998E-5</v>
@@ -69606,12 +69612,12 @@
         <v>37</v>
       </c>
       <c r="G686" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B687" s="6">
         <v>5.1523000000000001E-5</v>
@@ -69626,7 +69632,7 @@
         <v>37</v>
       </c>
       <c r="G687" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.3">
@@ -69646,12 +69652,12 @@
         <v>37</v>
       </c>
       <c r="G688" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B689" s="6">
         <v>3.9734999999999998E-5</v>
@@ -69666,12 +69672,12 @@
         <v>37</v>
       </c>
       <c r="G689" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B690" s="6">
         <v>1.8626000000000001E-5</v>
@@ -69686,12 +69692,12 @@
         <v>37</v>
       </c>
       <c r="G690" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B691" s="6">
         <v>1.7960000000000001E-5</v>
@@ -69706,7 +69712,7 @@
         <v>37</v>
       </c>
       <c r="G691" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.3">
@@ -69726,7 +69732,7 @@
         <v>37</v>
       </c>
       <c r="G692" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.3">
@@ -69746,12 +69752,12 @@
         <v>37</v>
       </c>
       <c r="G693" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B694" s="6">
         <v>6.8294999999999996E-6</v>
@@ -69766,7 +69772,7 @@
         <v>37</v>
       </c>
       <c r="G694" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.3">
@@ -69786,12 +69792,12 @@
         <v>37</v>
       </c>
       <c r="G695" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B696" s="6">
         <v>6.2086000000000002E-6</v>
@@ -69806,7 +69812,7 @@
         <v>37</v>
       </c>
       <c r="G696" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.3">
@@ -69826,12 +69832,12 @@
         <v>37</v>
       </c>
       <c r="G697" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B698" s="6">
         <v>4.1390999999999999E-6</v>
@@ -69846,12 +69852,12 @@
         <v>37</v>
       </c>
       <c r="G698" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B699" s="6">
         <v>2.3841000000000002E-6</v>
@@ -69866,12 +69872,12 @@
         <v>37</v>
       </c>
       <c r="G699" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B700" s="6">
         <v>2.0488000000000002E-6</v>
@@ -69886,7 +69892,7 @@
         <v>37</v>
       </c>
       <c r="G700" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.3">
@@ -69906,7 +69912,7 @@
         <v>37</v>
       </c>
       <c r="G701" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.3">
@@ -69926,7 +69932,7 @@
         <v>37</v>
       </c>
       <c r="G702" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.3">
@@ -69946,7 +69952,7 @@
         <v>37</v>
       </c>
       <c r="G703" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.3">
@@ -69966,7 +69972,7 @@
         <v>37</v>
       </c>
       <c r="G704" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.3">
@@ -69986,7 +69992,7 @@
         <v>37</v>
       </c>
       <c r="G705" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.3">
@@ -70006,7 +70012,7 @@
         <v>37</v>
       </c>
       <c r="G706" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.3">
@@ -70026,7 +70032,7 @@
         <v>37</v>
       </c>
       <c r="G707" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.3">
@@ -70046,12 +70052,12 @@
         <v>37</v>
       </c>
       <c r="G708" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B709" s="6">
         <v>5.2152000000000003E-7</v>
@@ -70066,7 +70072,7 @@
         <v>37</v>
       </c>
       <c r="G709" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.3">
@@ -70086,7 +70092,7 @@
         <v>37</v>
       </c>
       <c r="G710" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.3">
@@ -70106,7 +70112,7 @@
         <v>37</v>
       </c>
       <c r="G711" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.3">
@@ -70126,7 +70132,7 @@
         <v>37</v>
       </c>
       <c r="G712" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.3">
@@ -70146,7 +70152,7 @@
         <v>37</v>
       </c>
       <c r="G713" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.3">
@@ -70166,7 +70172,7 @@
         <v>37</v>
       </c>
       <c r="G714" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.3">
@@ -70186,7 +70192,7 @@
         <v>37</v>
       </c>
       <c r="G715" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.3">
@@ -70206,7 +70212,7 @@
         <v>37</v>
       </c>
       <c r="G716" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.3">
@@ -70226,7 +70232,7 @@
         <v>37</v>
       </c>
       <c r="G717" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.3">
@@ -70246,7 +70252,7 @@
         <v>37</v>
       </c>
       <c r="G718" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.3">
@@ -70266,7 +70272,7 @@
         <v>37</v>
       </c>
       <c r="G719" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="721" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -70327,7 +70333,7 @@
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B728" s="6">
         <v>37</v>
@@ -70392,7 +70398,7 @@
     </row>
     <row r="732" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B732" s="6">
         <f>1/0.42/0.91</f>
@@ -70549,7 +70555,7 @@
     </row>
     <row r="738" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B738" s="6">
         <v>0.32177499999999998</v>
@@ -70570,7 +70576,7 @@
         <v>19</v>
       </c>
       <c r="H738" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="739" spans="1:14" x14ac:dyDescent="0.3">
@@ -70657,7 +70663,7 @@
     </row>
     <row r="748" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B748" s="6">
         <v>37</v>
@@ -70942,7 +70948,7 @@
         <v>1</v>
       </c>
       <c r="B758" s="73" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="759" spans="1:14" x14ac:dyDescent="0.3">
@@ -70966,7 +70972,7 @@
         <v>5</v>
       </c>
       <c r="B761" s="74" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="762" spans="1:14" x14ac:dyDescent="0.3">
@@ -71035,7 +71041,7 @@
     </row>
     <row r="768" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A768" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B768" s="6">
         <v>1</v>
@@ -71056,7 +71062,7 @@
         <v>19</v>
       </c>
       <c r="H768" s="74" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="769" spans="1:8" x14ac:dyDescent="0.3">
@@ -71293,7 +71299,7 @@
     </row>
     <row r="778" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B778" s="6">
         <v>1.11972</v>
@@ -71314,7 +71320,7 @@
         <v>19</v>
       </c>
       <c r="H778" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="779" spans="1:8" x14ac:dyDescent="0.3">
@@ -71563,7 +71569,7 @@
     </row>
     <row r="795" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A795" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B795" s="6">
         <v>1.00057</v>
@@ -71578,7 +71584,7 @@
         <v>21</v>
       </c>
       <c r="K795" s="74" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.3">
@@ -71790,7 +71796,7 @@
         <v>1</v>
       </c>
       <c r="B807" s="73" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="808" spans="1:11" x14ac:dyDescent="0.3">
@@ -71798,7 +71804,7 @@
         <v>2</v>
       </c>
       <c r="B808" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="809" spans="1:11" x14ac:dyDescent="0.3">
@@ -71843,7 +71849,7 @@
     </row>
     <row r="814" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B814" s="6">
         <v>24</v>
@@ -71851,7 +71857,7 @@
     </row>
     <row r="815" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B815" s="75">
         <v>0.08</v>
@@ -71890,13 +71896,13 @@
     </row>
     <row r="818" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B818" s="6">
         <v>1</v>
       </c>
       <c r="C818" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D818" t="s">
         <v>9</v>
@@ -71916,13 +71922,13 @@
     </row>
     <row r="819" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B819" s="6">
         <v>0.14000000000000001</v>
       </c>
       <c r="C819" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D819" t="s">
         <v>9</v>
@@ -71971,7 +71977,7 @@
         <v>7.0656000000000017E-3</v>
       </c>
       <c r="C821" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D821" t="s">
         <v>9</v>
@@ -72024,7 +72030,7 @@
         <v>2.2080000000000003E-3</v>
       </c>
       <c r="C823" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D823" t="s">
         <v>9</v>
@@ -72050,7 +72056,7 @@
         <v>1.2806400000000003E-2</v>
       </c>
       <c r="C824" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D824" t="s">
         <v>9</v>
@@ -72112,7 +72118,7 @@
         <v>21</v>
       </c>
       <c r="G826" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H826" t="s">
         <v>123</v>
@@ -72120,7 +72126,7 @@
     </row>
     <row r="827" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B827" s="6">
         <v>5.2299999999999999E-2</v>
@@ -72135,15 +72141,15 @@
         <v>21</v>
       </c>
       <c r="G827" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H827" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="828" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B828" s="6">
         <v>3.0899999999999998E-4</v>
@@ -72158,10 +72164,10 @@
         <v>21</v>
       </c>
       <c r="G828" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H828" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="829" spans="1:8" x14ac:dyDescent="0.3">
@@ -72201,7 +72207,7 @@
     </row>
     <row r="831" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B831" s="6">
         <f>0.506*(44/12)*(1-B815)</f>
@@ -72211,7 +72217,7 @@
         <v>9</v>
       </c>
       <c r="E831" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F831" t="s">
         <v>37</v>
@@ -72234,7 +72240,7 @@
         <v>37</v>
       </c>
       <c r="G832" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="833" spans="1:7" x14ac:dyDescent="0.3">
@@ -72254,7 +72260,7 @@
         <v>37</v>
       </c>
       <c r="G833" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="834" spans="1:7" x14ac:dyDescent="0.3">
@@ -72274,7 +72280,7 @@
         <v>37</v>
       </c>
       <c r="G834" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="835" spans="1:7" x14ac:dyDescent="0.3">
@@ -72294,7 +72300,7 @@
         <v>37</v>
       </c>
       <c r="G835" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.3">
@@ -72314,7 +72320,7 @@
         <v>37</v>
       </c>
       <c r="G836" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="837" spans="1:7" x14ac:dyDescent="0.3">
@@ -72334,7 +72340,7 @@
         <v>37</v>
       </c>
       <c r="G837" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="838" spans="1:7" x14ac:dyDescent="0.3">
@@ -72354,7 +72360,7 @@
         <v>37</v>
       </c>
       <c r="G838" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="839" spans="1:7" x14ac:dyDescent="0.3">
@@ -72374,7 +72380,7 @@
         <v>37</v>
       </c>
       <c r="G839" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="840" spans="1:7" x14ac:dyDescent="0.3">
@@ -72394,7 +72400,7 @@
         <v>37</v>
       </c>
       <c r="G840" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="841" spans="1:7" x14ac:dyDescent="0.3">
@@ -72414,7 +72420,7 @@
         <v>37</v>
       </c>
       <c r="G841" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="842" spans="1:7" x14ac:dyDescent="0.3">
@@ -72434,7 +72440,7 @@
         <v>37</v>
       </c>
       <c r="G842" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="843" spans="1:7" x14ac:dyDescent="0.3">
@@ -72454,7 +72460,7 @@
         <v>37</v>
       </c>
       <c r="G843" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="844" spans="1:7" x14ac:dyDescent="0.3">
@@ -72474,7 +72480,7 @@
         <v>37</v>
       </c>
       <c r="G844" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="845" spans="1:7" x14ac:dyDescent="0.3">
@@ -72494,7 +72500,7 @@
         <v>37</v>
       </c>
       <c r="G845" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="846" spans="1:7" x14ac:dyDescent="0.3">
@@ -72514,7 +72520,7 @@
         <v>37</v>
       </c>
       <c r="G846" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="847" spans="1:7" x14ac:dyDescent="0.3">
@@ -72534,7 +72540,7 @@
         <v>37</v>
       </c>
       <c r="G847" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="848" spans="1:7" x14ac:dyDescent="0.3">
@@ -72554,7 +72560,7 @@
         <v>37</v>
       </c>
       <c r="G848" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="849" spans="1:7" x14ac:dyDescent="0.3">
@@ -72574,7 +72580,7 @@
         <v>37</v>
       </c>
       <c r="G849" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="850" spans="1:7" x14ac:dyDescent="0.3">
@@ -72594,7 +72600,7 @@
         <v>37</v>
       </c>
       <c r="G850" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="851" spans="1:7" x14ac:dyDescent="0.3">
@@ -72614,7 +72620,7 @@
         <v>37</v>
       </c>
       <c r="G851" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="852" spans="1:7" x14ac:dyDescent="0.3">
@@ -72634,7 +72640,7 @@
         <v>37</v>
       </c>
       <c r="G852" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="853" spans="1:7" x14ac:dyDescent="0.3">
@@ -72654,7 +72660,7 @@
         <v>37</v>
       </c>
       <c r="G853" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="854" spans="1:7" x14ac:dyDescent="0.3">
@@ -72674,7 +72680,7 @@
         <v>37</v>
       </c>
       <c r="G854" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="855" spans="1:7" x14ac:dyDescent="0.3">
@@ -72694,7 +72700,7 @@
         <v>37</v>
       </c>
       <c r="G855" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="856" spans="1:7" x14ac:dyDescent="0.3">
@@ -72714,7 +72720,7 @@
         <v>37</v>
       </c>
       <c r="G856" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="857" spans="1:7" x14ac:dyDescent="0.3">
@@ -72734,7 +72740,7 @@
         <v>37</v>
       </c>
       <c r="G857" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="858" spans="1:7" x14ac:dyDescent="0.3">
@@ -72754,7 +72760,7 @@
         <v>37</v>
       </c>
       <c r="G858" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="859" spans="1:7" x14ac:dyDescent="0.3">
@@ -72774,7 +72780,7 @@
         <v>37</v>
       </c>
       <c r="G859" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="860" spans="1:7" x14ac:dyDescent="0.3">
@@ -72794,7 +72800,7 @@
         <v>37</v>
       </c>
       <c r="G860" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="861" spans="1:7" x14ac:dyDescent="0.3">
@@ -72814,7 +72820,7 @@
         <v>37</v>
       </c>
       <c r="G861" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="862" spans="1:7" x14ac:dyDescent="0.3">
@@ -72834,7 +72840,7 @@
         <v>37</v>
       </c>
       <c r="G862" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="863" spans="1:7" x14ac:dyDescent="0.3">
@@ -72854,7 +72860,7 @@
         <v>37</v>
       </c>
       <c r="G863" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="864" spans="1:7" x14ac:dyDescent="0.3">
@@ -72874,7 +72880,7 @@
         <v>37</v>
       </c>
       <c r="G864" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="865" spans="1:8" x14ac:dyDescent="0.3">
@@ -72894,7 +72900,7 @@
         <v>37</v>
       </c>
       <c r="G865" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="866" spans="1:8" x14ac:dyDescent="0.3">
@@ -72914,7 +72920,7 @@
         <v>37</v>
       </c>
       <c r="G866" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="867" spans="1:8" x14ac:dyDescent="0.3">
@@ -72934,7 +72940,7 @@
         <v>37</v>
       </c>
       <c r="G867" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="869" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -72995,7 +73001,7 @@
     </row>
     <row r="876" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B876" s="6">
         <v>5</v>
@@ -73003,7 +73009,7 @@
     </row>
     <row r="877" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B877" s="6">
         <v>37</v>
@@ -73068,14 +73074,14 @@
     </row>
     <row r="881" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B881" s="6">
         <f>(1.8535*B877)/B829</f>
         <v>3.1059556159420287</v>
       </c>
       <c r="C881" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D881" t="s">
         <v>9</v>
@@ -73290,7 +73296,7 @@
     </row>
     <row r="896" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B896" s="6">
         <v>37</v>
@@ -73485,7 +73491,7 @@
     </row>
     <row r="905" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B905" s="6">
         <v>16.287399999999998</v>
@@ -73506,7 +73512,7 @@
         <v>789</v>
       </c>
       <c r="H905" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="906" spans="1:8" x14ac:dyDescent="0.3">
@@ -73566,7 +73572,7 @@
         <v>1</v>
       </c>
       <c r="B909" s="73" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="910" spans="1:8" x14ac:dyDescent="0.3">
@@ -73590,7 +73596,7 @@
         <v>5</v>
       </c>
       <c r="B912" s="74" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="913" spans="1:14" x14ac:dyDescent="0.3">
@@ -73677,7 +73683,7 @@
     </row>
     <row r="919" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A919" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B919" s="6">
         <v>1</v>
@@ -73701,7 +73707,7 @@
         <v>19</v>
       </c>
       <c r="K919" s="74" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="920" spans="1:14" x14ac:dyDescent="0.3">
@@ -74018,7 +74024,7 @@
         <v>354</v>
       </c>
       <c r="M927" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="N927" t="s">
         <v>674</v>
@@ -74059,7 +74065,7 @@
         <v>354</v>
       </c>
       <c r="M928" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="N928" t="s">
         <v>674</v>
@@ -74067,7 +74073,7 @@
     </row>
     <row r="929" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B929" s="6">
         <v>1.11972</v>
@@ -74094,13 +74100,13 @@
         <v>19</v>
       </c>
       <c r="K929" t="s">
+        <v>992</v>
+      </c>
+      <c r="L929" t="s">
+        <v>992</v>
+      </c>
+      <c r="M929" t="s">
         <v>993</v>
-      </c>
-      <c r="L929" t="s">
-        <v>993</v>
-      </c>
-      <c r="M929" t="s">
-        <v>994</v>
       </c>
       <c r="N929" t="s">
         <v>674</v>
@@ -74377,7 +74383,7 @@
     </row>
     <row r="945" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A945" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B945" s="6">
         <v>1.00057</v>
@@ -74392,7 +74398,7 @@
         <v>21</v>
       </c>
       <c r="K945" s="74" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="946" spans="1:11" x14ac:dyDescent="0.3">
@@ -74604,7 +74610,7 @@
         <v>1</v>
       </c>
       <c r="B957" s="73" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="958" spans="1:11" x14ac:dyDescent="0.3">
@@ -74688,7 +74694,7 @@
     </row>
     <row r="966" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B966" s="6">
         <v>1</v>
@@ -74760,7 +74766,7 @@
     </row>
     <row r="969" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B969" s="6">
         <f>0.53*(44/12)</f>
@@ -74770,13 +74776,13 @@
         <v>9</v>
       </c>
       <c r="E969" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F969" t="s">
         <v>37</v>
       </c>
       <c r="G969" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="970" spans="1:11" x14ac:dyDescent="0.3">
@@ -74835,7 +74841,7 @@
         <v>5.3739584189999995E-8</v>
       </c>
       <c r="C972" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D972" t="s">
         <v>9</v>
@@ -74925,7 +74931,7 @@
     </row>
     <row r="976" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B976" s="6">
         <v>2.1529457899999997E-2</v>
@@ -74943,13 +74949,13 @@
         <v>21</v>
       </c>
       <c r="H976" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="K976" s="6"/>
     </row>
     <row r="977" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A977" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B977" s="6">
         <v>54.167076379999997</v>
@@ -74967,7 +74973,7 @@
         <v>21</v>
       </c>
       <c r="H977" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K977" s="6"/>
     </row>
@@ -75000,7 +75006,7 @@
         <v>1</v>
       </c>
       <c r="B980" s="73" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="981" spans="1:11" x14ac:dyDescent="0.3">
@@ -75024,7 +75030,7 @@
         <v>5</v>
       </c>
       <c r="B983" s="74" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="984" spans="1:11" x14ac:dyDescent="0.3">
@@ -75093,7 +75099,7 @@
     </row>
     <row r="990" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A990" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B990" s="6">
         <v>1</v>
@@ -75114,12 +75120,12 @@
         <v>19</v>
       </c>
       <c r="H990" s="74" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="991" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A991" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B991" s="6">
         <v>2.2084524000000001</v>
@@ -75405,7 +75411,7 @@
     </row>
     <row r="1002" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1002" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B1002" s="6">
         <v>6.6960000000000006E-2</v>
@@ -75426,7 +75432,7 @@
         <v>19</v>
       </c>
       <c r="H1002" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1003" spans="1:8" x14ac:dyDescent="0.3">
@@ -75675,7 +75681,7 @@
     </row>
     <row r="1019" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1019" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B1019" s="6">
         <v>1.00057</v>
@@ -75690,7 +75696,7 @@
         <v>21</v>
       </c>
       <c r="K1019" s="74" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1020" spans="1:11" x14ac:dyDescent="0.3">
@@ -76029,7 +76035,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B14">
         <v>2.85</v>

--- a/premise/data/additional_inventories/lci-biofuels.xlsx
+++ b/premise/data/additional_inventories/lci-biofuels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65134BF3-DBFD-3D40-91A5-A3E96074F362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13BD1AB-D74F-854A-AA80-C7E16973853B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34160" yWindow="1300" windowWidth="30020" windowHeight="18880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">GREET!$A$1:$J$2818</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Pereira et al. 2019'!$A$1:$J$347</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual" iterate="1" iterateDelta="1.0000000000000001E-5" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcMode="manual" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19514" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19514" uniqueCount="1144">
   <si>
     <t>Database</t>
   </si>
@@ -3644,9 +3644,6 @@
   </si>
   <si>
     <t>Farming and supply of Fresh Fruit Bunches (FFBs) for palm oil</t>
-  </si>
-  <si>
-    <t>US only</t>
   </si>
   <si>
     <t>US</t>
@@ -4687,7 +4684,7 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -7206,13 +7203,13 @@
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C54" t="s">
         <v>572</v>
       </c>
       <c r="D54" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -7252,13 +7249,13 @@
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C55" t="s">
         <v>572</v>
       </c>
       <c r="D55" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -7503,13 +7500,13 @@
     </row>
     <row r="60" spans="2:17" ht="16" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C60" t="s">
         <v>572</v>
       </c>
       <c r="D60" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -7549,13 +7546,13 @@
     </row>
     <row r="61" spans="2:17" ht="16" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C61" t="s">
         <v>572</v>
       </c>
       <c r="D61" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -7595,13 +7592,13 @@
     </row>
     <row r="62" spans="2:17" ht="16" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C62" t="s">
         <v>572</v>
       </c>
       <c r="D62" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -7641,13 +7638,13 @@
     </row>
     <row r="63" spans="2:17" ht="16" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C63" t="s">
         <v>572</v>
       </c>
       <c r="D63" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -7687,7 +7684,7 @@
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B65" s="9" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.2">
@@ -8940,13 +8937,13 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C88" t="s">
         <v>572</v>
       </c>
       <c r="D88" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -8998,13 +8995,13 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C89" t="s">
         <v>572</v>
       </c>
       <c r="D89" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -9288,13 +9285,13 @@
     </row>
     <row r="94" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C94" t="s">
         <v>572</v>
       </c>
       <c r="D94" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -9346,13 +9343,13 @@
     </row>
     <row r="95" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C95" t="s">
         <v>572</v>
       </c>
       <c r="D95" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -9404,13 +9401,13 @@
     </row>
     <row r="96" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C96" t="s">
         <v>572</v>
       </c>
       <c r="D96" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -9462,13 +9459,13 @@
     </row>
     <row r="97" spans="2:17" ht="16" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C97" t="s">
         <v>572</v>
       </c>
       <c r="D97" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -13857,7 +13854,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -13965,7 +13962,7 @@
         <v>1.4240323939166664E-3</v>
       </c>
       <c r="C17" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D17" t="s">
         <v>29</v>
@@ -14013,7 +14010,7 @@
         <v>4.8769999999999994E-3</v>
       </c>
       <c r="C19" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -14034,7 +14031,7 @@
         <v>2.307E-3</v>
       </c>
       <c r="C20" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -14055,7 +14052,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="C21" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -14130,7 +14127,7 @@
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H24" t="s">
         <v>55</v>
@@ -14258,7 +14255,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -14300,7 +14297,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -15449,7 +15446,7 @@
         <v>-0.37292496697490091</v>
       </c>
       <c r="C106" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D106" t="s">
         <v>29</v>
@@ -15473,7 +15470,7 @@
         <v>1</v>
       </c>
       <c r="B109" s="58" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -15529,7 +15526,7 @@
         <v>11</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -15574,7 +15571,7 @@
     </row>
     <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B120" s="6">
         <v>1</v>
@@ -15853,7 +15850,7 @@
         <v>0.58470340392291054</v>
       </c>
       <c r="C132" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D132" t="s">
         <v>29</v>
@@ -15870,7 +15867,7 @@
     </row>
     <row r="133" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B133" s="6">
         <f>((B25*B121)-Parameters!$B$15)*0.975</f>
@@ -15886,10 +15883,10 @@
         <v>20</v>
       </c>
       <c r="G133" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -15901,7 +15898,7 @@
         <v>1</v>
       </c>
       <c r="B135" s="58" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -16002,7 +15999,7 @@
     </row>
     <row r="146" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B146" s="6">
         <v>1</v>
@@ -16278,7 +16275,7 @@
         <v>0.65875957157592058</v>
       </c>
       <c r="C158" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D158" t="s">
         <v>29</v>
@@ -16295,7 +16292,7 @@
     </row>
     <row r="159" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B159" s="6">
         <f>((B25*B147)-Parameters!$B$15)*0.975</f>
@@ -16311,10 +16308,10 @@
         <v>20</v>
       </c>
       <c r="G159" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -16326,7 +16323,7 @@
         <v>1</v>
       </c>
       <c r="B161" s="58" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -16427,7 +16424,7 @@
     </row>
     <row r="172" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B172" s="6">
         <v>1</v>
@@ -16703,7 +16700,7 @@
         <v>0.3580601828460353</v>
       </c>
       <c r="C184" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D184" t="s">
         <v>29</v>
@@ -16720,7 +16717,7 @@
     </row>
     <row r="185" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B185" s="6">
         <f>((B25*B173)-Parameters!$B$15)*0.975</f>
@@ -16736,10 +16733,10 @@
         <v>20</v>
       </c>
       <c r="G185" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -16901,7 +16898,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C199" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D199" t="s">
         <v>29</v>
@@ -17248,7 +17245,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C222" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D222" t="s">
         <v>29</v>
@@ -17595,7 +17592,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C245" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D245" t="s">
         <v>29</v>
@@ -17792,7 +17789,7 @@
         <v>1</v>
       </c>
       <c r="B256" s="58" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
@@ -17890,7 +17887,7 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B266" s="6">
         <v>1</v>
@@ -17913,7 +17910,7 @@
     </row>
     <row r="267" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="65" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B267" s="6">
         <v>1.00057</v>
@@ -17942,7 +17939,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C268" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D268" t="s">
         <v>29</v>
@@ -18139,7 +18136,7 @@
         <v>1</v>
       </c>
       <c r="B279" s="58" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
@@ -18237,7 +18234,7 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B289" s="6">
         <v>1</v>
@@ -18260,7 +18257,7 @@
     </row>
     <row r="290" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="65" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B290" s="6">
         <v>1.00057</v>
@@ -18289,7 +18286,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C291" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D291" t="s">
         <v>29</v>
@@ -18486,7 +18483,7 @@
         <v>1</v>
       </c>
       <c r="B302" s="58" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
@@ -18584,7 +18581,7 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B312" s="6">
         <v>1</v>
@@ -18607,7 +18604,7 @@
     </row>
     <row r="313" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="65" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B313" s="6">
         <v>1.00057</v>
@@ -18636,7 +18633,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C314" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D314" t="s">
         <v>29</v>
@@ -19021,7 +19018,7 @@
         <v>1.97E-3</v>
       </c>
       <c r="C340" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D340" t="s">
         <v>8</v>
@@ -19042,7 +19039,7 @@
         <v>5.9099999999999995E-4</v>
       </c>
       <c r="C341" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D341" t="s">
         <v>8</v>
@@ -19063,7 +19060,7 @@
         <v>5.2249999999999996E-4</v>
       </c>
       <c r="C342" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D342" t="s">
         <v>8</v>
@@ -19296,7 +19293,7 @@
         <v>36</v>
       </c>
       <c r="G352" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
@@ -20651,7 +20648,7 @@
         <v>1</v>
       </c>
       <c r="B433" s="58" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.2">
@@ -20752,7 +20749,7 @@
     </row>
     <row r="444" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B444" s="6">
         <v>1</v>
@@ -20980,7 +20977,7 @@
         <v>0.7334662883251849</v>
       </c>
       <c r="C454" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D454" t="s">
         <v>29</v>
@@ -20989,7 +20986,7 @@
         <v>20</v>
       </c>
       <c r="G454" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H454" t="s">
         <v>30</v>
@@ -20997,7 +20994,7 @@
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B455" s="6">
         <f>(($B$357*$B$445)-Parameters!$B$15)*(0.975)</f>
@@ -21013,7 +21010,7 @@
         <v>20</v>
       </c>
       <c r="H455" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="456" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -21402,7 +21399,7 @@
         <v>-0.37292496697490091</v>
       </c>
       <c r="C480" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D480" t="s">
         <v>29</v>
@@ -21576,7 +21573,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C494" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D494" t="s">
         <v>29</v>
@@ -21923,7 +21920,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C517" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D517" t="s">
         <v>29</v>
@@ -22270,7 +22267,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C540" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D540" t="s">
         <v>29</v>
@@ -22631,7 +22628,7 @@
         <v>1.2162449958333332E-4</v>
       </c>
       <c r="C565" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D565" t="s">
         <v>29</v>
@@ -22676,7 +22673,7 @@
         <v>1.462E-3</v>
       </c>
       <c r="C567" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D567" t="s">
         <v>8</v>
@@ -22697,7 +22694,7 @@
         <v>6.4999999999999997E-4</v>
       </c>
       <c r="C568" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D568" t="s">
         <v>8</v>
@@ -22718,7 +22715,7 @@
         <v>1.0020000000000001E-3</v>
       </c>
       <c r="C569" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D569" t="s">
         <v>8</v>
@@ -22929,7 +22926,7 @@
         <v>36</v>
       </c>
       <c r="G578" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.2">
@@ -24604,7 +24601,7 @@
         <v>-0.37292496697490091</v>
       </c>
       <c r="C679" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D679" t="s">
         <v>29</v>
@@ -24778,7 +24775,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C693" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D693" t="s">
         <v>29</v>
@@ -25125,7 +25122,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C716" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D716" t="s">
         <v>29</v>
@@ -25472,7 +25469,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C739" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D739" t="s">
         <v>29</v>
@@ -25870,7 +25867,7 @@
         <v>36</v>
       </c>
       <c r="G764" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="765" spans="1:8" x14ac:dyDescent="0.2">
@@ -26602,7 +26599,7 @@
         <v>1</v>
       </c>
       <c r="B813" s="58" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="814" spans="1:8" x14ac:dyDescent="0.2">
@@ -26658,7 +26655,7 @@
         <v>11</v>
       </c>
       <c r="B820" s="6" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="821" spans="1:8" x14ac:dyDescent="0.2">
@@ -26703,7 +26700,7 @@
     </row>
     <row r="824" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A824" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B824" s="6">
         <v>1</v>
@@ -26933,7 +26930,7 @@
         <v>0.90368802505272983</v>
       </c>
       <c r="C834" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D834" t="s">
         <v>29</v>
@@ -26950,7 +26947,7 @@
     </row>
     <row r="835" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B835" s="6">
         <f>(($B$765*$B$803)-Parameters!$B$15)*(0.975)</f>
@@ -26966,7 +26963,7 @@
         <v>20</v>
       </c>
       <c r="H835" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="836" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -27309,7 +27306,7 @@
         <v>-0.37292496697490091</v>
       </c>
       <c r="C858" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D858" t="s">
         <v>29</v>
@@ -27483,7 +27480,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C872" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D872" t="s">
         <v>29</v>
@@ -27830,7 +27827,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C895" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D895" t="s">
         <v>29</v>
@@ -28177,7 +28174,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C918" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D918" t="s">
         <v>29</v>
@@ -28538,7 +28535,7 @@
         <v>1.0896382878333333E-3</v>
       </c>
       <c r="C943" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D943" t="s">
         <v>29</v>
@@ -28583,7 +28580,7 @@
         <v>4.6410000000000002E-3</v>
       </c>
       <c r="C945" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D945" t="s">
         <v>8</v>
@@ -28604,7 +28601,7 @@
         <v>1.047E-3</v>
       </c>
       <c r="C946" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D946" t="s">
         <v>8</v>
@@ -28625,7 +28622,7 @@
         <v>2.8679999999999999E-3</v>
       </c>
       <c r="C947" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D947" t="s">
         <v>8</v>
@@ -28700,7 +28697,7 @@
         <v>20</v>
       </c>
       <c r="G950" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H950" t="s">
         <v>55</v>
@@ -28858,7 +28855,7 @@
         <v>36</v>
       </c>
       <c r="G957" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="958" spans="1:8" x14ac:dyDescent="0.2">
@@ -30640,7 +30637,7 @@
         <v>-0.37292496697490091</v>
       </c>
       <c r="C1062" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1062" t="s">
         <v>29</v>
@@ -30664,7 +30661,7 @@
         <v>1</v>
       </c>
       <c r="B1065" s="58" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1066" spans="1:8" x14ac:dyDescent="0.2">
@@ -30765,7 +30762,7 @@
     </row>
     <row r="1076" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1076" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B1076" s="6">
         <v>1</v>
@@ -31044,7 +31041,7 @@
         <v>0.77907662910803421</v>
       </c>
       <c r="C1088" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1088" t="s">
         <v>29</v>
@@ -31061,7 +31058,7 @@
     </row>
     <row r="1089" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B1089" s="6">
         <f>((B962*B1077)-Parameters!$B$15)*0.975</f>
@@ -31077,7 +31074,7 @@
         <v>20</v>
       </c>
       <c r="H1089" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1090" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -31089,7 +31086,7 @@
         <v>1</v>
       </c>
       <c r="B1091" s="58" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1092" spans="1:8" x14ac:dyDescent="0.2">
@@ -31190,7 +31187,7 @@
     </row>
     <row r="1102" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1102" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B1102" s="6">
         <v>1</v>
@@ -31466,7 +31463,7 @@
         <v>0.86876865758797817</v>
       </c>
       <c r="C1114" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1114" t="s">
         <v>29</v>
@@ -31483,7 +31480,7 @@
     </row>
     <row r="1115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B1115" s="6">
         <f>((B962*B1103)-Parameters!$B$15)*0.975</f>
@@ -31499,7 +31496,7 @@
         <v>20</v>
       </c>
       <c r="H1115" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1116" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -31511,7 +31508,7 @@
         <v>1</v>
       </c>
       <c r="B1117" s="58" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1118" spans="1:8" x14ac:dyDescent="0.2">
@@ -31612,7 +31609,7 @@
     </row>
     <row r="1128" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1128" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B1128" s="6">
         <v>1</v>
@@ -31888,7 +31885,7 @@
         <v>0.58331862789696776</v>
       </c>
       <c r="C1140" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1140" t="s">
         <v>29</v>
@@ -31905,7 +31902,7 @@
     </row>
     <row r="1141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B1141" s="6">
         <f>((B962*B1129)-Parameters!$B$15)*0.975</f>
@@ -31921,7 +31918,7 @@
         <v>20</v>
       </c>
       <c r="H1141" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1142" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -32083,7 +32080,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C1155" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1155" t="s">
         <v>29</v>
@@ -32430,7 +32427,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C1178" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1178" t="s">
         <v>29</v>
@@ -32777,7 +32774,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C1201" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1201" t="s">
         <v>29</v>
@@ -32974,7 +32971,7 @@
         <v>1</v>
       </c>
       <c r="B1212" s="58" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1213" spans="1:10" x14ac:dyDescent="0.2">
@@ -33072,7 +33069,7 @@
     </row>
     <row r="1222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B1222" s="6">
         <v>1</v>
@@ -33095,7 +33092,7 @@
     </row>
     <row r="1223" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1223" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B1223" s="6">
         <v>1.00057</v>
@@ -33124,7 +33121,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C1224" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1224" t="s">
         <v>29</v>
@@ -33321,7 +33318,7 @@
         <v>1</v>
       </c>
       <c r="B1235" s="58" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1236" spans="1:10" x14ac:dyDescent="0.2">
@@ -33419,7 +33416,7 @@
     </row>
     <row r="1245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B1245" s="6">
         <v>1</v>
@@ -33442,7 +33439,7 @@
     </row>
     <row r="1246" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1246" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B1246" s="6">
         <v>1.00057</v>
@@ -33471,7 +33468,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C1247" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1247" t="s">
         <v>29</v>
@@ -33668,7 +33665,7 @@
         <v>1</v>
       </c>
       <c r="B1258" s="58" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1259" spans="1:10" x14ac:dyDescent="0.2">
@@ -33766,7 +33763,7 @@
     </row>
     <row r="1268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1268" s="6">
         <v>1</v>
@@ -33789,7 +33786,7 @@
     </row>
     <row r="1269" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1269" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B1269" s="6">
         <v>1.00057</v>
@@ -33818,7 +33815,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C1270" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1270" t="s">
         <v>29</v>
@@ -34203,7 +34200,7 @@
         <v>3.1829999999999996E-3</v>
       </c>
       <c r="C1296" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1296" t="s">
         <v>8</v>
@@ -34224,7 +34221,7 @@
         <v>2.2730000000000003E-3</v>
       </c>
       <c r="C1297" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1297" t="s">
         <v>8</v>
@@ -34245,7 +34242,7 @@
         <v>1.3641E-2</v>
       </c>
       <c r="C1298" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1298" t="s">
         <v>8</v>
@@ -34275,7 +34272,7 @@
         <v>20</v>
       </c>
       <c r="G1299" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1299" t="s">
         <v>55</v>
@@ -35452,7 +35449,7 @@
         <v>-0.37292496697490091</v>
       </c>
       <c r="C1374" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1374" t="s">
         <v>29</v>
@@ -35626,7 +35623,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C1388" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1388" t="s">
         <v>29</v>
@@ -35973,7 +35970,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C1411" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1411" t="s">
         <v>29</v>
@@ -36320,7 +36317,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C1434" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1434" t="s">
         <v>29</v>
@@ -36729,7 +36726,7 @@
         <v>2.5057577624999997E-3</v>
       </c>
       <c r="C1461" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1461" t="s">
         <v>29</v>
@@ -36774,7 +36771,7 @@
         <v>1.0493E-3</v>
       </c>
       <c r="C1463" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1463" t="s">
         <v>8</v>
@@ -36795,7 +36792,7 @@
         <v>3.3289999999999996E-4</v>
       </c>
       <c r="C1464" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1464" t="s">
         <v>8</v>
@@ -36816,7 +36813,7 @@
         <v>1.7056E-3</v>
       </c>
       <c r="C1465" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1465" t="s">
         <v>8</v>
@@ -36929,7 +36926,7 @@
         <v>4.2599999999999999E-2</v>
       </c>
       <c r="C1470" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1470" t="s">
         <v>121</v>
@@ -37004,7 +37001,7 @@
         <v>36</v>
       </c>
       <c r="G1473" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1474" spans="1:7" x14ac:dyDescent="0.2">
@@ -38336,7 +38333,7 @@
         <v>-0.97410752972258918</v>
       </c>
       <c r="C1557" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1557" t="s">
         <v>29</v>
@@ -38360,7 +38357,7 @@
         <v>1</v>
       </c>
       <c r="B1560" s="58" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1561" spans="1:8" x14ac:dyDescent="0.2">
@@ -38416,7 +38413,7 @@
         <v>11</v>
       </c>
       <c r="B1567" s="6" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1568" spans="1:8" x14ac:dyDescent="0.2">
@@ -38461,7 +38458,7 @@
     </row>
     <row r="1571" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1571" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B1571" s="6">
         <v>1</v>
@@ -38608,7 +38605,7 @@
         <v>0.6324810730386583</v>
       </c>
       <c r="C1577" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1577" t="s">
         <v>29</v>
@@ -38617,7 +38614,7 @@
         <v>20</v>
       </c>
       <c r="G1577" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1577" t="s">
         <v>30</v>
@@ -38625,7 +38622,7 @@
     </row>
     <row r="1578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1578" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B1578" s="6">
         <f>((B1481*B1572)-Parameters!$B$15)*0.975</f>
@@ -38641,7 +38638,7 @@
         <v>20</v>
       </c>
       <c r="H1578" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1579" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -38653,7 +38650,7 @@
         <v>1</v>
       </c>
       <c r="B1580" s="58" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1581" spans="1:8" x14ac:dyDescent="0.2">
@@ -38754,7 +38751,7 @@
     </row>
     <row r="1591" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1591" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B1591" s="6">
         <v>1</v>
@@ -38901,7 +38898,7 @@
         <v>0.81593907808253552</v>
       </c>
       <c r="C1597" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1597" t="s">
         <v>29</v>
@@ -38910,7 +38907,7 @@
         <v>20</v>
       </c>
       <c r="G1597" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1597" t="s">
         <v>30</v>
@@ -38918,7 +38915,7 @@
     </row>
     <row r="1598" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1598" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B1598" s="6">
         <f>((B1481*B1592)-Parameters!$B$15)*0.975</f>
@@ -38934,7 +38931,7 @@
         <v>20</v>
       </c>
       <c r="H1598" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1599" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -38946,7 +38943,7 @@
         <v>1</v>
       </c>
       <c r="B1600" s="58" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1601" spans="1:8" x14ac:dyDescent="0.2">
@@ -39002,7 +38999,7 @@
         <v>11</v>
       </c>
       <c r="B1607" s="6" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1608" spans="1:8" x14ac:dyDescent="0.2">
@@ -39047,7 +39044,7 @@
     </row>
     <row r="1611" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1611" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B1611" s="6">
         <v>1</v>
@@ -39194,7 +39191,7 @@
         <v>6.0302345522126766E-2</v>
       </c>
       <c r="C1617" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1617" t="s">
         <v>29</v>
@@ -39211,7 +39208,7 @@
     </row>
     <row r="1618" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1618" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B1618" s="6">
         <f>((B1481*B1612)-Parameters!$B$15)*0.975</f>
@@ -39227,7 +39224,7 @@
         <v>20</v>
       </c>
       <c r="H1618" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1619" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -39389,7 +39386,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C1632" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1632" t="s">
         <v>29</v>
@@ -39736,7 +39733,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C1655" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1655" t="s">
         <v>29</v>
@@ -40083,7 +40080,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C1678" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1678" t="s">
         <v>29</v>
@@ -40284,7 +40281,7 @@
         <v>1</v>
       </c>
       <c r="B1690" s="58" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1691" spans="1:10" x14ac:dyDescent="0.2">
@@ -40382,7 +40379,7 @@
     </row>
     <row r="1700" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1700" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B1700" s="6">
         <v>1</v>
@@ -40405,7 +40402,7 @@
     </row>
     <row r="1701" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1701" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B1701" s="6">
         <v>1.00057</v>
@@ -40434,7 +40431,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C1702" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1702" t="s">
         <v>29</v>
@@ -40631,7 +40628,7 @@
         <v>1</v>
       </c>
       <c r="B1713" s="58" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1714" spans="1:10" x14ac:dyDescent="0.2">
@@ -40729,7 +40726,7 @@
     </row>
     <row r="1723" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1723" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B1723" s="6">
         <v>1</v>
@@ -40752,7 +40749,7 @@
     </row>
     <row r="1724" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1724" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B1724" s="6">
         <v>1.00057</v>
@@ -40781,7 +40778,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C1725" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1725" t="s">
         <v>29</v>
@@ -40978,7 +40975,7 @@
         <v>1</v>
       </c>
       <c r="B1736" s="58" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1737" spans="1:10" x14ac:dyDescent="0.2">
@@ -41076,7 +41073,7 @@
     </row>
     <row r="1746" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1746" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B1746" s="6">
         <v>1</v>
@@ -41099,7 +41096,7 @@
     </row>
     <row r="1747" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1747" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B1747" s="6">
         <v>1.00057</v>
@@ -41128,7 +41125,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C1748" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1748" t="s">
         <v>29</v>
@@ -41381,7 +41378,7 @@
         <v>11</v>
       </c>
       <c r="B1766" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1767" spans="1:8" x14ac:dyDescent="0.2">
@@ -41537,7 +41534,7 @@
         <v>1.1429772250000001E-5</v>
       </c>
       <c r="C1775" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1775" t="s">
         <v>29</v>
@@ -41582,7 +41579,7 @@
         <v>1.8704687000000001E-2</v>
       </c>
       <c r="C1777" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1777" t="s">
         <v>8</v>
@@ -41603,7 +41600,7 @@
         <v>4.1181019999999994E-3</v>
       </c>
       <c r="C1778" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1778" t="s">
         <v>8</v>
@@ -41624,7 +41621,7 @@
         <v>1.0590529999999999E-3</v>
       </c>
       <c r="C1779" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1779" t="s">
         <v>8</v>
@@ -41737,7 +41734,7 @@
         <v>0.252</v>
       </c>
       <c r="C1784" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1784" t="s">
         <v>121</v>
@@ -41835,7 +41832,7 @@
         <v>36</v>
       </c>
       <c r="G1788" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1789" spans="1:8" x14ac:dyDescent="0.2">
@@ -42583,7 +42580,7 @@
         <v>0.19659673024320534</v>
       </c>
       <c r="C1832" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1832" t="s">
         <v>29</v>
@@ -42942,7 +42939,7 @@
         <v>0.14947242037217484</v>
       </c>
       <c r="C1855" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1855" t="s">
         <v>29</v>
@@ -43301,7 +43298,7 @@
         <v>0.24543911391161713</v>
       </c>
       <c r="C1878" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1878" t="s">
         <v>29</v>
@@ -43481,7 +43478,7 @@
         <v>0</v>
       </c>
       <c r="C1886" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1886" t="s">
         <v>29</v>
@@ -43679,7 +43676,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C1901" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1901" t="s">
         <v>29</v>
@@ -44026,7 +44023,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C1924" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1924" t="s">
         <v>29</v>
@@ -44373,7 +44370,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C1947" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1947" t="s">
         <v>29</v>
@@ -44782,7 +44779,7 @@
         <v>2.6238654090833331E-3</v>
       </c>
       <c r="C1974" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1974" t="s">
         <v>29</v>
@@ -44827,7 +44824,7 @@
         <v>1.1459999999999999E-3</v>
       </c>
       <c r="C1976" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1976" t="s">
         <v>8</v>
@@ -44848,7 +44845,7 @@
         <v>5.13E-4</v>
       </c>
       <c r="C1977" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1977" t="s">
         <v>8</v>
@@ -44961,7 +44958,7 @@
         <v>0.252</v>
       </c>
       <c r="C1982" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1982" t="s">
         <v>121</v>
@@ -45059,7 +45056,7 @@
         <v>36</v>
       </c>
       <c r="G1986" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1987" spans="1:7" x14ac:dyDescent="0.2">
@@ -46300,7 +46297,7 @@
         <v>-2.8328956406869219</v>
       </c>
       <c r="C2066" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2066" t="s">
         <v>29</v>
@@ -46324,7 +46321,7 @@
         <v>-1.0295355614266841E-2</v>
       </c>
       <c r="C2067" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2067" t="s">
         <v>8</v>
@@ -46348,7 +46345,7 @@
         <v>-2.5585487714663145E-2</v>
       </c>
       <c r="C2068" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2068" t="s">
         <v>8</v>
@@ -46372,7 +46369,7 @@
         <v>0</v>
       </c>
       <c r="C2069" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2069" t="s">
         <v>8</v>
@@ -46546,7 +46543,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C2083" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2083" t="s">
         <v>29</v>
@@ -46893,7 +46890,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C2106" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2106" t="s">
         <v>29</v>
@@ -47302,7 +47299,7 @@
         <v>1.6576100473333331E-3</v>
       </c>
       <c r="C2133" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2133" t="s">
         <v>29</v>
@@ -47347,7 +47344,7 @@
         <v>1.521E-3</v>
       </c>
       <c r="C2135" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2135" t="s">
         <v>8</v>
@@ -47368,7 +47365,7 @@
         <v>6.0800000000000003E-4</v>
       </c>
       <c r="C2136" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2136" t="s">
         <v>8</v>
@@ -47389,7 +47386,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="C2137" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2137" t="s">
         <v>8</v>
@@ -47523,7 +47520,7 @@
         <v>0.252</v>
       </c>
       <c r="C2143" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2143" t="s">
         <v>121</v>
@@ -47621,7 +47618,7 @@
         <v>36</v>
       </c>
       <c r="G2147" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="2148" spans="1:7" x14ac:dyDescent="0.2">
@@ -48246,7 +48243,7 @@
         <v>11</v>
       </c>
       <c r="B2184" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="2185" spans="1:8" x14ac:dyDescent="0.2">
@@ -48535,7 +48532,7 @@
         <v>11</v>
       </c>
       <c r="B2204" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="2205" spans="1:8" x14ac:dyDescent="0.2">
@@ -48824,7 +48821,7 @@
         <v>11</v>
       </c>
       <c r="B2224" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="2225" spans="1:8" x14ac:dyDescent="0.2">
@@ -49057,7 +49054,7 @@
         <v>-0.51905151915455749</v>
       </c>
       <c r="C2236" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2236" t="s">
         <v>29</v>
@@ -49231,7 +49228,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C2250" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2250" t="s">
         <v>29</v>
@@ -49578,7 +49575,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C2273" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2273" t="s">
         <v>29</v>
@@ -49925,7 +49922,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C2296" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2296" t="s">
         <v>29</v>
@@ -50271,7 +50268,7 @@
         <v>20</v>
       </c>
       <c r="G2320" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H2320" t="s">
         <v>23</v>
@@ -50319,7 +50316,7 @@
         <v>20</v>
       </c>
       <c r="G2322" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H2322" t="s">
         <v>82</v>
@@ -50334,7 +50331,7 @@
         <v>1.5299664538404997E-2</v>
       </c>
       <c r="C2323" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2323" t="s">
         <v>29</v>
@@ -50343,7 +50340,7 @@
         <v>20</v>
       </c>
       <c r="G2323" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H2323" t="s">
         <v>30</v>
@@ -50430,7 +50427,7 @@
         <v>1.5807054999999997E-2</v>
       </c>
       <c r="C2327" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2327" t="s">
         <v>8</v>
@@ -50451,7 +50448,7 @@
         <v>5.9291219999999993E-3</v>
       </c>
       <c r="C2328" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2328" t="s">
         <v>8</v>
@@ -50472,7 +50469,7 @@
         <v>5.9960509999999988E-3</v>
       </c>
       <c r="C2329" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2329" t="s">
         <v>8</v>
@@ -50607,7 +50604,7 @@
         <v>0.24474000000000001</v>
       </c>
       <c r="C2335" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2335" t="s">
         <v>121</v>
@@ -50680,7 +50677,7 @@
         <v>36</v>
       </c>
       <c r="G2338" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="2339" spans="1:7" x14ac:dyDescent="0.2">
@@ -50722,7 +50719,7 @@
         <v>36</v>
       </c>
       <c r="G2340" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="2341" spans="1:7" x14ac:dyDescent="0.2">
@@ -51936,7 +51933,7 @@
         <v>20</v>
       </c>
       <c r="G2407" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H2407" s="2" t="s">
         <v>439</v>
@@ -51951,7 +51948,7 @@
         <v>0.17671635828914636</v>
       </c>
       <c r="C2408" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2408" t="s">
         <v>29</v>
@@ -52310,7 +52307,7 @@
         <v>0.13436285093059064</v>
       </c>
       <c r="C2431" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2431" t="s">
         <v>29</v>
@@ -52669,7 +52666,7 @@
         <v>0.20863796728352582</v>
       </c>
       <c r="C2454" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2454" t="s">
         <v>29</v>
@@ -52897,7 +52894,7 @@
         <v>1</v>
       </c>
       <c r="B2465" s="58" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="2466" spans="1:8" x14ac:dyDescent="0.2">
@@ -52998,7 +52995,7 @@
     </row>
     <row r="2476" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2476" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B2476" s="6">
         <v>1</v>
@@ -53061,7 +53058,7 @@
         <v>20</v>
       </c>
       <c r="G2478" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H2478" s="2" t="s">
         <v>439</v>
@@ -53076,7 +53073,7 @@
         <v>0.33730714108060017</v>
       </c>
       <c r="C2479" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2479" t="s">
         <v>29</v>
@@ -53085,7 +53082,7 @@
         <v>20</v>
       </c>
       <c r="G2479" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H2479" s="2" t="s">
         <v>30</v>
@@ -53259,7 +53256,7 @@
         <v>1</v>
       </c>
       <c r="B2488" s="58" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="2489" spans="1:8" x14ac:dyDescent="0.2">
@@ -53315,7 +53312,7 @@
         <v>11</v>
       </c>
       <c r="B2495" s="6" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="2496" spans="1:8" x14ac:dyDescent="0.2">
@@ -53360,7 +53357,7 @@
     </row>
     <row r="2499" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2499" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B2499" s="6">
         <v>1</v>
@@ -53438,7 +53435,7 @@
         <v>0.25646493371417534</v>
       </c>
       <c r="C2502" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2502" t="s">
         <v>29</v>
@@ -53618,7 +53615,7 @@
         <v>1</v>
       </c>
       <c r="B2511" s="58" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="2512" spans="1:8" x14ac:dyDescent="0.2">
@@ -53674,7 +53671,7 @@
         <v>11</v>
       </c>
       <c r="B2518" s="6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="2519" spans="1:8" x14ac:dyDescent="0.2">
@@ -53719,7 +53716,7 @@
     </row>
     <row r="2522" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2522" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B2522" s="6">
         <v>1</v>
@@ -53797,7 +53794,7 @@
         <v>0.39823747471145238</v>
       </c>
       <c r="C2525" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2525" t="s">
         <v>29</v>
@@ -54053,7 +54050,7 @@
         <v>1</v>
       </c>
       <c r="B2538" s="58" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="2539" spans="1:8" x14ac:dyDescent="0.2">
@@ -54109,7 +54106,7 @@
         <v>11</v>
       </c>
       <c r="B2545" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="2546" spans="1:8" x14ac:dyDescent="0.2">
@@ -54154,7 +54151,7 @@
     </row>
     <row r="2549" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2549" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B2549" s="6">
         <v>1</v>
@@ -54217,7 +54214,7 @@
         <v>20</v>
       </c>
       <c r="G2551" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H2551" s="2" t="s">
         <v>439</v>
@@ -54232,7 +54229,7 @@
         <v>0.33730714108060017</v>
       </c>
       <c r="C2552" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2552" t="s">
         <v>29</v>
@@ -54241,7 +54238,7 @@
         <v>20</v>
       </c>
       <c r="G2552" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H2552" s="2" t="s">
         <v>30</v>
@@ -54408,7 +54405,7 @@
     </row>
     <row r="2560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2560" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B2560" s="6">
         <f>((B2336*B2550)-Parameters!$B$15)*0.975</f>
@@ -54424,10 +54421,10 @@
         <v>20</v>
       </c>
       <c r="G2560" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H2560" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="2561" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -54439,7 +54436,7 @@
         <v>1</v>
       </c>
       <c r="B2562" s="58" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="2563" spans="1:8" x14ac:dyDescent="0.2">
@@ -54495,7 +54492,7 @@
         <v>11</v>
       </c>
       <c r="B2569" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="2570" spans="1:8" x14ac:dyDescent="0.2">
@@ -54540,7 +54537,7 @@
     </row>
     <row r="2573" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2573" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B2573" s="6">
         <v>1</v>
@@ -54618,7 +54615,7 @@
         <v>0.25646493371417534</v>
       </c>
       <c r="C2576" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2576" t="s">
         <v>29</v>
@@ -54791,7 +54788,7 @@
     </row>
     <row r="2584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2584" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B2584" s="6">
         <f>((B2336*B2574)-Parameters!$B$15)*0.975</f>
@@ -54807,10 +54804,10 @@
         <v>20</v>
       </c>
       <c r="G2584" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H2584" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="2585" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -54822,7 +54819,7 @@
         <v>1</v>
       </c>
       <c r="B2586" s="58" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="2587" spans="1:8" x14ac:dyDescent="0.2">
@@ -54878,7 +54875,7 @@
         <v>11</v>
       </c>
       <c r="B2593" s="6" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="2594" spans="1:8" x14ac:dyDescent="0.2">
@@ -54923,7 +54920,7 @@
     </row>
     <row r="2597" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2597" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B2597" s="6">
         <v>1</v>
@@ -55001,7 +54998,7 @@
         <v>0.39823747471145238</v>
       </c>
       <c r="C2600" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2600" t="s">
         <v>29</v>
@@ -55246,7 +55243,7 @@
     </row>
     <row r="2611" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2611" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B2611" s="6">
         <f>((B2336*B2598)-Parameters!$B$15)*0.975</f>
@@ -55262,10 +55259,10 @@
         <v>20</v>
       </c>
       <c r="G2611" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H2611" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="2612" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -55427,7 +55424,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C2625" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2625" t="s">
         <v>29</v>
@@ -55774,7 +55771,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C2648" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2648" t="s">
         <v>29</v>
@@ -56121,7 +56118,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C2671" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2671" t="s">
         <v>29</v>
@@ -56318,7 +56315,7 @@
         <v>1</v>
       </c>
       <c r="B2682" s="58" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="2683" spans="1:10" x14ac:dyDescent="0.2">
@@ -56416,7 +56413,7 @@
     </row>
     <row r="2692" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2692" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B2692" s="6">
         <v>1</v>
@@ -56439,7 +56436,7 @@
     </row>
     <row r="2693" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2693" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B2693" s="6">
         <v>1.00057</v>
@@ -56468,7 +56465,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C2694" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2694" t="s">
         <v>29</v>
@@ -56665,7 +56662,7 @@
         <v>1</v>
       </c>
       <c r="B2705" s="58" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="2706" spans="1:10" x14ac:dyDescent="0.2">
@@ -56763,7 +56760,7 @@
     </row>
     <row r="2715" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2715" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B2715" s="6">
         <v>1</v>
@@ -56786,7 +56783,7 @@
     </row>
     <row r="2716" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2716" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B2716" s="6">
         <v>1.00057</v>
@@ -56815,7 +56812,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C2717" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2717" t="s">
         <v>29</v>
@@ -57012,7 +57009,7 @@
         <v>1</v>
       </c>
       <c r="B2728" s="58" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="2729" spans="1:10" x14ac:dyDescent="0.2">
@@ -57110,7 +57107,7 @@
     </row>
     <row r="2738" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2738" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B2738" s="6">
         <v>1</v>
@@ -57133,7 +57130,7 @@
     </row>
     <row r="2739" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2739" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B2739" s="6">
         <v>1.00057</v>
@@ -57162,7 +57159,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C2740" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2740" t="s">
         <v>29</v>
@@ -57359,7 +57356,7 @@
         <v>1</v>
       </c>
       <c r="B2751" s="58" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="2752" spans="1:10" x14ac:dyDescent="0.2">
@@ -57457,7 +57454,7 @@
     </row>
     <row r="2761" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2761" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B2761" s="6">
         <v>1</v>
@@ -57480,7 +57477,7 @@
     </row>
     <row r="2762" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2762" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B2762" s="6">
         <v>1.00057</v>
@@ -57509,7 +57506,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C2763" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2763" t="s">
         <v>29</v>
@@ -57706,7 +57703,7 @@
         <v>1</v>
       </c>
       <c r="B2774" s="58" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="2775" spans="1:10" x14ac:dyDescent="0.2">
@@ -57804,7 +57801,7 @@
     </row>
     <row r="2784" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2784" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B2784" s="6">
         <v>1</v>
@@ -57827,7 +57824,7 @@
     </row>
     <row r="2785" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2785" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B2785" s="6">
         <v>1.00057</v>
@@ -57856,7 +57853,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C2786" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2786" t="s">
         <v>29</v>
@@ -58053,7 +58050,7 @@
         <v>1</v>
       </c>
       <c r="B2797" s="58" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="2798" spans="1:10" x14ac:dyDescent="0.2">
@@ -58151,7 +58148,7 @@
     </row>
     <row r="2807" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2807" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B2807" s="6">
         <v>1</v>
@@ -58174,7 +58171,7 @@
     </row>
     <row r="2808" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2808" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B2808" s="6">
         <v>1.00057</v>
@@ -58203,7 +58200,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C2809" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D2809" t="s">
         <v>29</v>
@@ -65479,7 +65476,7 @@
         <v>1</v>
       </c>
       <c r="B93" s="58" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -65580,7 +65577,7 @@
     </row>
     <row r="104" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B104" s="6">
         <v>1</v>
@@ -65879,7 +65876,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B119" s="6">
         <f>4.2*0.975</f>
@@ -65895,7 +65892,7 @@
         <v>20</v>
       </c>
       <c r="H119" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -73883,7 +73880,7 @@
         <v>36</v>
       </c>
       <c r="G407" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.2">
@@ -73904,7 +73901,7 @@
         <v>36</v>
       </c>
       <c r="G408" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.2">
@@ -73925,7 +73922,7 @@
         <v>36</v>
       </c>
       <c r="G409" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.2">
@@ -74922,7 +74919,7 @@
         <v>20</v>
       </c>
       <c r="G464" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H464" t="s">
         <v>661</v>
@@ -75185,7 +75182,7 @@
         <v>1</v>
       </c>
       <c r="B477" s="58" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.2">
@@ -75233,7 +75230,7 @@
         <v>11</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.2">
@@ -75286,7 +75283,7 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B488" s="6">
         <v>1</v>
@@ -75618,7 +75615,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B501" s="6">
         <f>(('Cozzolini 2018'!$B$464*'Cozzolini 2018'!$B$406)-Parameters!$B$15)*(0.975)</f>
@@ -75634,7 +75631,7 @@
         <v>20</v>
       </c>
       <c r="H501" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="503" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -75984,7 +75981,7 @@
         <v>1</v>
       </c>
       <c r="B525" s="58" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.2">
@@ -76077,7 +76074,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B534" s="6">
         <v>1</v>
@@ -76103,7 +76100,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B535" s="6">
         <v>1.00057</v>
@@ -76402,7 +76399,7 @@
         <v>11</v>
       </c>
       <c r="B556" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="557" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -76602,7 +76599,7 @@
         <v>36</v>
       </c>
       <c r="G565" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.2">
@@ -78242,7 +78239,7 @@
         <v>1</v>
       </c>
       <c r="B663" s="58" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="664" spans="1:8" x14ac:dyDescent="0.2">
@@ -78298,7 +78295,7 @@
         <v>11</v>
       </c>
       <c r="B670" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.2">
@@ -78343,7 +78340,7 @@
     </row>
     <row r="674" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A674" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B674" s="6">
         <v>1</v>
@@ -78779,7 +78776,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B691" s="6">
         <f>(Parameters!$B$16-(B646*B633))*(0.975)</f>
@@ -78795,7 +78792,7 @@
         <v>20</v>
       </c>
       <c r="H691" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="693" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -83596,7 +83593,7 @@
     </row>
     <row r="960" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B960" s="6">
         <v>6.9399641999999995E-4</v>
@@ -83959,7 +83956,7 @@
     </row>
     <row r="982" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B982" s="6">
         <v>9.5659799999999982E-3</v>
@@ -83985,7 +83982,7 @@
     </row>
     <row r="983" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B983" s="6">
         <v>1.8411940000000002E-2</v>
@@ -84556,7 +84553,7 @@
     </row>
     <row r="1006" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B1006" s="6">
         <v>4.1883480000000001E-2</v>
@@ -84597,7 +84594,7 @@
     </row>
     <row r="1007" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B1007" s="6">
         <v>8.6869440000000003E-3</v>
@@ -84638,7 +84635,7 @@
     </row>
     <row r="1008" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B1008" s="6">
         <v>3.5161440000000002E-2</v>
@@ -84845,7 +84842,7 @@
     </row>
     <row r="1022" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B1022" s="6">
         <v>6.7000000000000002E-3</v>
@@ -86351,8 +86348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F5820A-E001-4A42-8382-32FC181BB2BB}">
   <dimension ref="A2:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -86365,7 +86362,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -86413,7 +86410,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -86421,18 +86418,18 @@
         <v>11</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B11" s="5"/>
     </row>
@@ -86446,7 +86443,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B13" s="28">
         <f>7059/(7059+554)</f>
@@ -86487,7 +86484,7 @@
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -86657,7 +86654,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B24" s="3">
         <f>(0.5+13.9)*$B$13*(Parameters!$B$5/7059)</f>
@@ -86673,7 +86670,7 @@
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -86720,7 +86717,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B27" s="3">
         <f>0.0000037*$B$13*(Parameters!$B$5/7059)</f>
@@ -86736,7 +86733,7 @@
         <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -86906,7 +86903,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="58" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -86954,7 +86951,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -86962,18 +86959,18 @@
         <v>11</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B47" s="5"/>
     </row>
@@ -86987,7 +86984,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B49" s="28">
         <f>7059/(7059+554)</f>
@@ -87028,7 +87025,7 @@
     </row>
     <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
@@ -87051,7 +87048,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B53" s="3">
         <f>1000*$B$49*(Parameters!$B$5/7059)</f>
@@ -87067,7 +87064,7 @@
         <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -87198,7 +87195,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B60" s="3">
         <f>(0.5+13.9)*$B$49*(Parameters!$B$5/7059)</f>
@@ -87214,7 +87211,7 @@
         <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -87261,7 +87258,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B63" s="3">
         <f>0.0000037*$B$49*(Parameters!$B$5/7059)</f>
@@ -87277,7 +87274,7 @@
         <v>20</v>
       </c>
       <c r="H63" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -87447,7 +87444,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="58" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -87471,7 +87468,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="67" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -87495,7 +87492,7 @@
         <v>9</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -87506,13 +87503,13 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B82" s="5"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B83" s="5"/>
     </row>
@@ -87524,7 +87521,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B85" s="28">
         <f>5728/(5728+1514+2524)</f>
@@ -87565,7 +87562,7 @@
     </row>
     <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B88" s="3">
         <v>1</v>
@@ -87583,7 +87580,7 @@
         <v>18</v>
       </c>
       <c r="H88" s="67" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -87693,7 +87690,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B94" s="3">
         <f>1.1*$B$85*(Parameters!B6/5728)</f>
@@ -87709,12 +87706,12 @@
         <v>20</v>
       </c>
       <c r="H94" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B95" s="3">
         <f>6.8*$B$85*(Parameters!B6/5728)</f>
@@ -87730,12 +87727,12 @@
         <v>20</v>
       </c>
       <c r="H95" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B96" s="3">
         <f>0.00000102*$B$85*(Parameters!B6/5728)</f>
@@ -87751,12 +87748,12 @@
         <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B97" s="3">
         <f>0.000000503*$B$85*(Parameters!B6/5728)</f>
@@ -87772,7 +87769,7 @@
         <v>20</v>
       </c>
       <c r="H97" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -87906,7 +87903,7 @@
         <v>1</v>
       </c>
       <c r="B106" s="58" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -87930,7 +87927,7 @@
         <v>4</v>
       </c>
       <c r="B109" s="67" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -87954,7 +87951,7 @@
         <v>9</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -87965,13 +87962,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B114" s="5"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B115" s="5"/>
     </row>
@@ -87983,7 +87980,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B117" s="28">
         <f>5728/(5728+1514+2524)</f>
@@ -88024,7 +88021,7 @@
     </row>
     <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B120" s="3">
         <v>1</v>
@@ -88042,12 +88039,12 @@
         <v>18</v>
       </c>
       <c r="H120" s="67" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B121" s="3">
         <f>1000*$B$117*(Parameters!B6/5728)</f>
@@ -88063,7 +88060,7 @@
         <v>20</v>
       </c>
       <c r="H121" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -88152,7 +88149,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B126" s="3">
         <f>1.1*$B$117*(Parameters!B6/5728)</f>
@@ -88168,12 +88165,12 @@
         <v>20</v>
       </c>
       <c r="H126" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B127" s="3">
         <f>6.8*$B$117*(Parameters!B6/5728)</f>
@@ -88189,12 +88186,12 @@
         <v>20</v>
       </c>
       <c r="H127" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B128" s="3">
         <f>0.00000102*$B$117*(Parameters!B6/5728)</f>
@@ -88210,12 +88207,12 @@
         <v>20</v>
       </c>
       <c r="H128" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B129" s="3">
         <f>0.000000503*$B$117*(Parameters!B6/5728)</f>
@@ -88231,7 +88228,7 @@
         <v>20</v>
       </c>
       <c r="H129" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -88365,7 +88362,7 @@
         <v>1</v>
       </c>
       <c r="B139" s="58" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -88389,7 +88386,7 @@
         <v>4</v>
       </c>
       <c r="B142" s="67" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -88413,7 +88410,7 @@
         <v>9</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -88421,18 +88418,18 @@
         <v>11</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B147" s="5"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B148" s="5"/>
     </row>
@@ -88444,7 +88441,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B150" s="28">
         <f>2524/(5728+1514+2524)</f>
@@ -88485,7 +88482,7 @@
     </row>
     <row r="153" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B153" s="3">
         <v>1</v>
@@ -88503,7 +88500,7 @@
         <v>18</v>
       </c>
       <c r="H153" s="67" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -88613,7 +88610,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B159" s="3">
         <f>1.1*$B$150*(Parameters!B7/5728)</f>
@@ -88629,12 +88626,12 @@
         <v>20</v>
       </c>
       <c r="H159" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B160" s="3">
         <f>6.8*$B$150*(Parameters!B7/5728)</f>
@@ -88650,12 +88647,12 @@
         <v>20</v>
       </c>
       <c r="H160" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B161" s="3">
         <f>0.00000102*$B$150*(Parameters!B7/5728)</f>
@@ -88671,12 +88668,12 @@
         <v>20</v>
       </c>
       <c r="H161" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B162" s="3">
         <f>0.000000503*$B$150*(Parameters!B7/5728)</f>
@@ -88692,7 +88689,7 @@
         <v>20</v>
       </c>
       <c r="H162" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -88826,7 +88823,7 @@
         <v>1</v>
       </c>
       <c r="B171" s="58" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -88850,7 +88847,7 @@
         <v>4</v>
       </c>
       <c r="B174" s="67" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
@@ -88874,7 +88871,7 @@
         <v>9</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -88885,13 +88882,13 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B179" s="5"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B180" s="5"/>
     </row>
@@ -88903,7 +88900,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B182" s="28">
         <f>2524/(5728+1514+2524)</f>
@@ -88944,7 +88941,7 @@
     </row>
     <row r="185" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B185" s="3">
         <v>1</v>
@@ -88962,12 +88959,12 @@
         <v>18</v>
       </c>
       <c r="H185" s="67" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B186" s="3">
         <f>1000*$B$182*(Parameters!B7/5728)</f>
@@ -88983,7 +88980,7 @@
         <v>20</v>
       </c>
       <c r="H186" s="6" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -89072,7 +89069,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B191" s="3">
         <f>1.1*$B$182*(Parameters!B7/5728)</f>
@@ -89088,12 +89085,12 @@
         <v>20</v>
       </c>
       <c r="H191" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B192" s="3">
         <f>6.8*$B$182*(Parameters!B7/5728)</f>
@@ -89109,12 +89106,12 @@
         <v>20</v>
       </c>
       <c r="H192" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B193" s="3">
         <f>0.00000102*$B$182*(Parameters!B7/5728)</f>
@@ -89130,12 +89127,12 @@
         <v>20</v>
       </c>
       <c r="H193" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B194" s="3">
         <f>0.000000503*$B$182*(Parameters!B7/5728)</f>
@@ -89151,7 +89148,7 @@
         <v>20</v>
       </c>
       <c r="H194" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -89341,7 +89338,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B6">
         <v>37.200000000000003</v>
@@ -89349,7 +89346,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B7">
         <v>43</v>
@@ -89431,7 +89428,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B17">
         <v>3.15</v>

--- a/premise/data/additional_inventories/lci-biofuels.xlsx
+++ b/premise/data/additional_inventories/lci-biofuels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BE0844-0C52-DA42-9F3B-C27E03401450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BEA56E-2F9A-9E48-B819-985832EDA14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">GREET!$A$1:$J$2872</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Pereira et al. 2019'!$A$1:$J$220</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="0.01" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3733,9 +3733,6 @@
     <t>There is a net co-production of electricity (0.8 kWh per kg of ethanol produced), but cancelled by the additional electricity needed for CO2 capture. In this case, the carbon from fermentation CO2 is captured, by using additional electricity (180 kWh/t CO2) for compression. The captured CO2 is then stored. This configuration is not part of the GREET database. It displaces demand for liquid carbon dioxide used in the chemical industry. System expansion performed.</t>
   </si>
   <si>
-    <t>CO2 storage/at wood burning power plant 20 MW, truck 25km, post, pipeline 200km, storage 1000m</t>
-  </si>
-  <si>
     <t>CO2 storage. 97.5% of fermentation CO2 captured.</t>
   </si>
   <si>
@@ -4061,6 +4058,9 @@
   </si>
   <si>
     <t>US ton to metric ton</t>
+  </si>
+  <si>
+    <t>carbon dioxide storage at wood burning power plant 20 MW post, pipeline 200km, storage 1000m</t>
   </si>
 </sst>
 </file>
@@ -4767,7 +4767,7 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -6240,7 +6240,7 @@
         <v>449</v>
       </c>
       <c r="F32" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G32" t="s">
         <v>481</v>
@@ -7237,13 +7237,13 @@
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C53" t="s">
         <v>558</v>
       </c>
       <c r="D53" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -7283,13 +7283,13 @@
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C54" t="s">
         <v>558</v>
       </c>
       <c r="D54" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -7534,13 +7534,13 @@
     </row>
     <row r="59" spans="2:17" ht="16" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C59" t="s">
         <v>558</v>
       </c>
       <c r="D59" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -7580,13 +7580,13 @@
     </row>
     <row r="60" spans="2:17" ht="16" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C60" t="s">
         <v>558</v>
       </c>
       <c r="D60" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -7626,13 +7626,13 @@
     </row>
     <row r="61" spans="2:17" ht="16" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C61" t="s">
         <v>558</v>
       </c>
       <c r="D61" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -7672,13 +7672,13 @@
     </row>
     <row r="62" spans="2:17" ht="16" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C62" t="s">
         <v>558</v>
       </c>
       <c r="D62" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -7718,7 +7718,7 @@
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B64" s="9" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.2">
@@ -8913,13 +8913,13 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C86" t="s">
         <v>558</v>
       </c>
       <c r="D86" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -8971,13 +8971,13 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C87" t="s">
         <v>558</v>
       </c>
       <c r="D87" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -9261,13 +9261,13 @@
     </row>
     <row r="92" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C92" t="s">
         <v>558</v>
       </c>
       <c r="D92" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -9319,13 +9319,13 @@
     </row>
     <row r="93" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C93" t="s">
         <v>558</v>
       </c>
       <c r="D93" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -9377,13 +9377,13 @@
     </row>
     <row r="94" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C94" t="s">
         <v>558</v>
       </c>
       <c r="D94" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -9435,13 +9435,13 @@
     </row>
     <row r="95" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C95" t="s">
         <v>558</v>
       </c>
       <c r="D95" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -9530,7 +9530,7 @@
         <v>449</v>
       </c>
       <c r="F99" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G99" t="s">
         <v>481</v>
@@ -13499,8 +13499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2872"/>
   <sheetViews>
-    <sheetView topLeftCell="A1473" zoomScale="131" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A1485" sqref="A1485:XFD1485"/>
+    <sheetView tabSelected="1" topLeftCell="B2579" zoomScale="131" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="B2596" sqref="B2596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13588,7 +13588,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -14031,12 +14031,12 @@
         <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B33" s="6">
         <f>0.708</f>
@@ -14046,13 +14046,13 @@
         <v>121</v>
       </c>
       <c r="E33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F33" t="s">
         <v>36</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -14452,7 +14452,7 @@
         <v>20</v>
       </c>
       <c r="G58" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H58" s="2"/>
     </row>
@@ -14851,7 +14851,7 @@
         <v>20</v>
       </c>
       <c r="G83" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H83" s="2"/>
     </row>
@@ -14873,7 +14873,7 @@
         <v>20</v>
       </c>
       <c r="G84" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H84" s="2"/>
     </row>
@@ -15296,7 +15296,7 @@
         <v>20</v>
       </c>
       <c r="G110" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H110" s="2"/>
     </row>
@@ -15309,7 +15309,7 @@
         <v>1</v>
       </c>
       <c r="B113" s="58" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -15365,7 +15365,7 @@
         <v>11</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -15410,7 +15410,7 @@
     </row>
     <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B124" s="6">
         <v>1</v>
@@ -15704,9 +15704,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>1041</v>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>1150</v>
       </c>
       <c r="B137" s="6">
         <f>((B25*B125)-Parameters!$B$15)*0.975</f>
@@ -15722,10 +15722,10 @@
         <v>20</v>
       </c>
       <c r="G137" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>1041</v>
+        <v>1049</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -15746,7 +15746,7 @@
         <v>20</v>
       </c>
       <c r="G138" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H138" s="2"/>
     </row>
@@ -15759,7 +15759,7 @@
         <v>1</v>
       </c>
       <c r="B140" s="58" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -15860,7 +15860,7 @@
     </row>
     <row r="151" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B151" s="6">
         <v>1</v>
@@ -16151,9 +16151,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
-        <v>1041</v>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>1150</v>
       </c>
       <c r="B164" s="6">
         <f>((B25*B152)-Parameters!$B$15)*0.975</f>
@@ -16169,10 +16169,10 @@
         <v>20</v>
       </c>
       <c r="G164" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H164" s="2" t="s">
-        <v>1041</v>
+        <v>1049</v>
+      </c>
+      <c r="H164" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -16193,7 +16193,7 @@
         <v>20</v>
       </c>
       <c r="G165" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H165" s="2"/>
     </row>
@@ -16206,7 +16206,7 @@
         <v>1</v>
       </c>
       <c r="B167" s="58" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -16307,7 +16307,7 @@
     </row>
     <row r="178" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B178" s="6">
         <v>1</v>
@@ -16598,9 +16598,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A191" s="2" t="s">
-        <v>1041</v>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>1150</v>
       </c>
       <c r="B191" s="6">
         <f>((B25*B179)-Parameters!$B$15)*0.975</f>
@@ -16616,10 +16616,10 @@
         <v>20</v>
       </c>
       <c r="G191" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H191" s="2" t="s">
-        <v>1041</v>
+        <v>1049</v>
+      </c>
+      <c r="H191" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -16640,7 +16640,7 @@
         <v>20</v>
       </c>
       <c r="G192" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H192" s="2"/>
     </row>
@@ -17694,7 +17694,7 @@
         <v>1</v>
       </c>
       <c r="B263" s="58" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.2">
@@ -17792,7 +17792,7 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B273" s="6">
         <v>1</v>
@@ -17815,7 +17815,7 @@
     </row>
     <row r="274" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="65" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B274" s="6">
         <v>1.00057</v>
@@ -18041,7 +18041,7 @@
         <v>1</v>
       </c>
       <c r="B286" s="58" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
@@ -18139,7 +18139,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B296" s="6">
         <v>1</v>
@@ -18162,7 +18162,7 @@
     </row>
     <row r="297" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="65" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B297" s="6">
         <v>1.00057</v>
@@ -18388,7 +18388,7 @@
         <v>1</v>
       </c>
       <c r="B309" s="58" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
@@ -18486,7 +18486,7 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B319" s="6">
         <v>1</v>
@@ -18509,7 +18509,7 @@
     </row>
     <row r="320" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="65" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B320" s="6">
         <v>1.00057</v>
@@ -19198,7 +19198,7 @@
         <v>36</v>
       </c>
       <c r="G359" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
@@ -19885,7 +19885,7 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B394" s="6">
         <f>1.305</f>
@@ -19895,13 +19895,13 @@
         <v>121</v>
       </c>
       <c r="E394" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F394" t="s">
         <v>36</v>
       </c>
       <c r="G394" s="8" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.2">
@@ -20250,7 +20250,7 @@
         <v>20</v>
       </c>
       <c r="G417" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H417" s="2"/>
     </row>
@@ -20601,7 +20601,7 @@
         <v>20</v>
       </c>
       <c r="G440" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H440" s="2"/>
     </row>
@@ -20618,7 +20618,7 @@
         <v>1</v>
       </c>
       <c r="B443" s="58" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.2">
@@ -20719,7 +20719,7 @@
     </row>
     <row r="454" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B454" s="6">
         <v>1</v>
@@ -20956,7 +20956,7 @@
         <v>20</v>
       </c>
       <c r="G464" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H464" t="s">
         <v>30</v>
@@ -20964,7 +20964,7 @@
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
       <c r="B465" s="6">
         <f>(($B$364*$B$455)-Parameters!$B$15)*(0.975)</f>
@@ -20980,7 +20980,7 @@
         <v>20</v>
       </c>
       <c r="H465" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="466" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -21001,7 +21001,7 @@
         <v>20</v>
       </c>
       <c r="G466" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H466" s="2"/>
     </row>
@@ -21424,7 +21424,7 @@
         <v>20</v>
       </c>
       <c r="G492" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H492" s="2"/>
     </row>
@@ -22940,7 +22940,7 @@
         <v>36</v>
       </c>
       <c r="G590" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.2">
@@ -23625,7 +23625,7 @@
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B625" s="6">
         <f>1.305</f>
@@ -23635,13 +23635,13 @@
         <v>121</v>
       </c>
       <c r="E625" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F625" t="s">
         <v>36</v>
       </c>
       <c r="G625" s="8" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="627" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -23987,7 +23987,7 @@
         <v>20</v>
       </c>
       <c r="G648" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H648" s="2"/>
     </row>
@@ -24338,7 +24338,7 @@
         <v>20</v>
       </c>
       <c r="G671" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H671" s="2"/>
     </row>
@@ -24713,7 +24713,7 @@
         <v>20</v>
       </c>
       <c r="G695" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H695" s="2"/>
     </row>
@@ -25945,7 +25945,7 @@
         <v>36</v>
       </c>
       <c r="G779" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="780" spans="1:8" x14ac:dyDescent="0.2">
@@ -26010,7 +26010,7 @@
     </row>
     <row r="783" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B783" s="6">
         <f>1.299</f>
@@ -26020,13 +26020,13 @@
         <v>121</v>
       </c>
       <c r="E783" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F783" t="s">
         <v>36</v>
       </c>
       <c r="G783" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="785" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -26376,7 +26376,7 @@
         <v>20</v>
       </c>
       <c r="G806" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H806" s="2"/>
     </row>
@@ -26729,7 +26729,7 @@
         <v>20</v>
       </c>
       <c r="G829" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H829" s="2"/>
     </row>
@@ -26742,7 +26742,7 @@
         <v>1</v>
       </c>
       <c r="B831" s="58" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="832" spans="1:8" x14ac:dyDescent="0.2">
@@ -26798,7 +26798,7 @@
         <v>11</v>
       </c>
       <c r="B838" s="6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="839" spans="1:8" x14ac:dyDescent="0.2">
@@ -26843,7 +26843,7 @@
     </row>
     <row r="842" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A842" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B842" s="6">
         <v>1</v>
@@ -27090,7 +27090,7 @@
     </row>
     <row r="853" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
       <c r="B853" s="6">
         <f>(($B$780*$B$820)-Parameters!$B$15)*(0.975)</f>
@@ -27106,7 +27106,7 @@
         <v>20</v>
       </c>
       <c r="H853" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="854" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -27127,7 +27127,7 @@
         <v>20</v>
       </c>
       <c r="G854" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H854" s="2"/>
     </row>
@@ -27504,7 +27504,7 @@
         <v>20</v>
       </c>
       <c r="G878" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H878" s="2"/>
     </row>
@@ -29042,7 +29042,7 @@
         <v>36</v>
       </c>
       <c r="G977" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="978" spans="1:7" x14ac:dyDescent="0.2">
@@ -29687,7 +29687,7 @@
     </row>
     <row r="1010" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B1010" s="6">
         <f>0.708</f>
@@ -29697,13 +29697,13 @@
         <v>121</v>
       </c>
       <c r="E1010" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F1010" t="s">
         <v>36</v>
       </c>
       <c r="G1010" s="8" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1012" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -30100,7 +30100,7 @@
         <v>20</v>
       </c>
       <c r="G1035" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H1035" s="2"/>
     </row>
@@ -30499,7 +30499,7 @@
         <v>20</v>
       </c>
       <c r="G1060" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H1060" s="2"/>
     </row>
@@ -30922,7 +30922,7 @@
         <v>20</v>
       </c>
       <c r="G1086" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H1086" s="2"/>
     </row>
@@ -30935,7 +30935,7 @@
         <v>1</v>
       </c>
       <c r="B1089" s="58" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1090" spans="1:8" x14ac:dyDescent="0.2">
@@ -31036,7 +31036,7 @@
     </row>
     <row r="1100" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1100" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B1100" s="6">
         <v>1</v>
@@ -31332,7 +31332,7 @@
     </row>
     <row r="1113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
       <c r="B1113" s="6">
         <f>((B982*B1101)-Parameters!$B$15)*0.975</f>
@@ -31348,7 +31348,7 @@
         <v>20</v>
       </c>
       <c r="H1113" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1114" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -31369,7 +31369,7 @@
         <v>20</v>
       </c>
       <c r="G1114" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H1114" s="2"/>
     </row>
@@ -31382,7 +31382,7 @@
         <v>1</v>
       </c>
       <c r="B1116" s="58" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1117" spans="1:8" x14ac:dyDescent="0.2">
@@ -31483,7 +31483,7 @@
     </row>
     <row r="1127" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1127" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B1127" s="6">
         <v>1</v>
@@ -31776,7 +31776,7 @@
     </row>
     <row r="1140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
       <c r="B1140" s="6">
         <f>((B982*B1128)-Parameters!$B$15)*0.975</f>
@@ -31792,7 +31792,7 @@
         <v>20</v>
       </c>
       <c r="H1140" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1141" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -31813,7 +31813,7 @@
         <v>20</v>
       </c>
       <c r="G1141" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H1141" s="2"/>
     </row>
@@ -31826,7 +31826,7 @@
         <v>1</v>
       </c>
       <c r="B1143" s="58" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1144" spans="1:8" x14ac:dyDescent="0.2">
@@ -31927,7 +31927,7 @@
     </row>
     <row r="1154" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1154" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B1154" s="6">
         <v>1</v>
@@ -32220,7 +32220,7 @@
     </row>
     <row r="1167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
       <c r="B1167" s="6">
         <f>((B982*B1155)-Parameters!$B$15)*0.975</f>
@@ -32236,7 +32236,7 @@
         <v>20</v>
       </c>
       <c r="H1167" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1168" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -32257,7 +32257,7 @@
         <v>20</v>
       </c>
       <c r="G1168" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H1168" s="2"/>
     </row>
@@ -33311,7 +33311,7 @@
         <v>1</v>
       </c>
       <c r="B1239" s="58" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="1240" spans="1:10" x14ac:dyDescent="0.2">
@@ -33409,7 +33409,7 @@
     </row>
     <row r="1249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B1249" s="6">
         <v>1</v>
@@ -33432,7 +33432,7 @@
     </row>
     <row r="1250" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1250" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B1250" s="6">
         <v>1.00057</v>
@@ -33658,7 +33658,7 @@
         <v>1</v>
       </c>
       <c r="B1262" s="58" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1263" spans="1:10" x14ac:dyDescent="0.2">
@@ -33756,7 +33756,7 @@
     </row>
     <row r="1272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B1272" s="6">
         <v>1</v>
@@ -33779,7 +33779,7 @@
     </row>
     <row r="1273" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1273" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B1273" s="6">
         <v>1.00057</v>
@@ -34005,7 +34005,7 @@
         <v>1</v>
       </c>
       <c r="B1285" s="58" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1286" spans="1:10" x14ac:dyDescent="0.2">
@@ -34103,7 +34103,7 @@
     </row>
     <row r="1295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B1295" s="6">
         <v>1</v>
@@ -34126,7 +34126,7 @@
     </row>
     <row r="1296" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1296" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B1296" s="6">
         <v>1.00057</v>
@@ -34661,7 +34661,7 @@
     </row>
     <row r="1329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B1329" s="6">
         <f>(0.1592+0.0136+0.0326)</f>
@@ -34671,13 +34671,13 @@
         <v>121</v>
       </c>
       <c r="E1329" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F1329" t="s">
         <v>36</v>
       </c>
       <c r="G1329" s="8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1331" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -35071,7 +35071,7 @@
         <v>20</v>
       </c>
       <c r="G1354" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H1354" s="2"/>
     </row>
@@ -35467,7 +35467,7 @@
         <v>20</v>
       </c>
       <c r="G1379" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H1379" s="2"/>
     </row>
@@ -35887,7 +35887,7 @@
         <v>20</v>
       </c>
       <c r="G1405" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H1405" s="2"/>
     </row>
@@ -37011,7 +37011,7 @@
     </row>
     <row r="1485" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1485" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B1485" s="5">
         <f>B1484*(1-B1486)</f>
@@ -37437,7 +37437,7 @@
         <v>36</v>
       </c>
       <c r="G1505" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1506" spans="1:7" x14ac:dyDescent="0.2">
@@ -38023,7 +38023,7 @@
     </row>
     <row r="1535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1535" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B1535" s="6">
         <f>(0.1173+0.0481+0.011)</f>
@@ -38033,13 +38033,13 @@
         <v>121</v>
       </c>
       <c r="E1535" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F1535" t="s">
         <v>36</v>
       </c>
       <c r="G1535" s="8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1537" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -38304,7 +38304,7 @@
         <v>20</v>
       </c>
       <c r="G1554" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H1554" s="2"/>
     </row>
@@ -38574,7 +38574,7 @@
         <v>20</v>
       </c>
       <c r="G1573" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H1573" s="2"/>
     </row>
@@ -38868,7 +38868,7 @@
         <v>20</v>
       </c>
       <c r="G1593" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H1593" s="2"/>
     </row>
@@ -38877,7 +38877,7 @@
         <v>1</v>
       </c>
       <c r="B1595" s="58" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1596" spans="1:8" x14ac:dyDescent="0.2">
@@ -38933,7 +38933,7 @@
         <v>11</v>
       </c>
       <c r="B1602" s="6" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1603" spans="1:8" x14ac:dyDescent="0.2">
@@ -38978,7 +38978,7 @@
     </row>
     <row r="1606" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1606" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B1606" s="6">
         <v>1</v>
@@ -39134,7 +39134,7 @@
         <v>20</v>
       </c>
       <c r="G1612" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H1612" t="s">
         <v>30</v>
@@ -39142,7 +39142,7 @@
     </row>
     <row r="1613" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1613" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
       <c r="B1613" s="6">
         <f>((B1513*B1607)-Parameters!$B$15)*0.975</f>
@@ -39158,7 +39158,7 @@
         <v>20</v>
       </c>
       <c r="H1613" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1614" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -39179,7 +39179,7 @@
         <v>20</v>
       </c>
       <c r="G1614" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H1614" s="2"/>
     </row>
@@ -39192,7 +39192,7 @@
         <v>1</v>
       </c>
       <c r="B1616" s="58" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1617" spans="1:8" x14ac:dyDescent="0.2">
@@ -39293,7 +39293,7 @@
     </row>
     <row r="1627" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1627" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B1627" s="6">
         <v>1</v>
@@ -39449,7 +39449,7 @@
         <v>20</v>
       </c>
       <c r="G1633" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H1633" t="s">
         <v>30</v>
@@ -39457,7 +39457,7 @@
     </row>
     <row r="1634" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1634" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
       <c r="B1634" s="6">
         <f>((B1513*B1628)-Parameters!$B$15)*0.975</f>
@@ -39473,7 +39473,7 @@
         <v>20</v>
       </c>
       <c r="H1634" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1635" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -39494,7 +39494,7 @@
         <v>20</v>
       </c>
       <c r="G1635" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H1635" s="2"/>
     </row>
@@ -39507,7 +39507,7 @@
         <v>1</v>
       </c>
       <c r="B1637" s="58" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1638" spans="1:8" x14ac:dyDescent="0.2">
@@ -39563,7 +39563,7 @@
         <v>11</v>
       </c>
       <c r="B1644" s="6" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1645" spans="1:8" x14ac:dyDescent="0.2">
@@ -39608,7 +39608,7 @@
     </row>
     <row r="1648" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1648" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B1648" s="6">
         <v>1</v>
@@ -39772,7 +39772,7 @@
     </row>
     <row r="1655" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1655" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
       <c r="B1655" s="6">
         <f>((B1513*B1649)-Parameters!$B$15)*0.975</f>
@@ -39788,7 +39788,7 @@
         <v>20</v>
       </c>
       <c r="H1655" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1656" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -39809,7 +39809,7 @@
         <v>20</v>
       </c>
       <c r="G1656" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H1656" s="2"/>
     </row>
@@ -40867,7 +40867,7 @@
         <v>1</v>
       </c>
       <c r="B1728" s="58" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1729" spans="1:10" x14ac:dyDescent="0.2">
@@ -40965,7 +40965,7 @@
     </row>
     <row r="1738" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1738" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B1738" s="6">
         <v>1</v>
@@ -40988,7 +40988,7 @@
     </row>
     <row r="1739" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1739" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B1739" s="6">
         <v>1.00057</v>
@@ -41214,7 +41214,7 @@
         <v>1</v>
       </c>
       <c r="B1751" s="58" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1752" spans="1:10" x14ac:dyDescent="0.2">
@@ -41312,7 +41312,7 @@
     </row>
     <row r="1761" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1761" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B1761" s="6">
         <v>1</v>
@@ -41335,7 +41335,7 @@
     </row>
     <row r="1762" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1762" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B1762" s="6">
         <v>1.00057</v>
@@ -41561,7 +41561,7 @@
         <v>1</v>
       </c>
       <c r="B1774" s="58" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1775" spans="1:10" x14ac:dyDescent="0.2">
@@ -41659,7 +41659,7 @@
     </row>
     <row r="1784" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1784" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B1784" s="6">
         <v>1</v>
@@ -41682,7 +41682,7 @@
     </row>
     <row r="1785" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1785" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B1785" s="6">
         <v>1.00057</v>
@@ -41978,7 +41978,7 @@
     </row>
     <row r="1806" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1806" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B1806" s="5">
         <f>B1805*(1-B1807)</f>
@@ -42427,7 +42427,7 @@
         <v>36</v>
       </c>
       <c r="G1827" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1828" spans="1:7" x14ac:dyDescent="0.2">
@@ -42994,7 +42994,7 @@
     </row>
     <row r="1856" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1856" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B1856" s="6">
         <f>180*(B1805/1000)</f>
@@ -43004,13 +43004,13 @@
         <v>121</v>
       </c>
       <c r="E1856" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F1856" t="s">
         <v>36</v>
       </c>
       <c r="G1856" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1858" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -45254,7 +45254,7 @@
     </row>
     <row r="2007" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2007" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B2007" s="5">
         <f>B2006*(1-B2008)</f>
@@ -45682,7 +45682,7 @@
         <v>36</v>
       </c>
       <c r="G2027" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="2028" spans="1:8" x14ac:dyDescent="0.2">
@@ -46249,7 +46249,7 @@
     </row>
     <row r="2056" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2056" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B2056" s="6">
         <f>180*(B2006/1000)</f>
@@ -46259,13 +46259,13 @@
         <v>121</v>
       </c>
       <c r="E2056" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F2056" t="s">
         <v>36</v>
       </c>
       <c r="G2056" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="2058" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -47805,7 +47805,7 @@
     </row>
     <row r="2168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2168" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B2168" s="5">
         <f>B2167*(1-B2169)</f>
@@ -48275,7 +48275,7 @@
         <v>36</v>
       </c>
       <c r="G2190" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="2191" spans="1:8" x14ac:dyDescent="0.2">
@@ -48842,7 +48842,7 @@
     </row>
     <row r="2219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2219" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B2219" s="6">
         <f>180*(B2169/1000)</f>
@@ -48852,13 +48852,13 @@
         <v>121</v>
       </c>
       <c r="E2219" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F2219" t="s">
         <v>36</v>
       </c>
       <c r="G2219" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="2221" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -50868,7 +50868,7 @@
     </row>
     <row r="2360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2360" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B2360" s="5">
         <f>B2359*(1-B2361)</f>
@@ -51408,7 +51408,7 @@
         <v>36</v>
       </c>
       <c r="G2385" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="2386" spans="1:7" x14ac:dyDescent="0.2">
@@ -52455,7 +52455,7 @@
     </row>
     <row r="2438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2438" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B2438" s="6">
         <f>(0.7444+0.0637+0.1525)</f>
@@ -52465,13 +52465,13 @@
         <v>121</v>
       </c>
       <c r="E2438" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F2438" t="s">
         <v>36</v>
       </c>
       <c r="G2438" s="8" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="2440" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -52847,7 +52847,7 @@
         <v>20</v>
       </c>
       <c r="G2462" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H2462" s="2"/>
     </row>
@@ -53228,7 +53228,7 @@
         <v>20</v>
       </c>
       <c r="G2486" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H2486" s="2"/>
     </row>
@@ -53657,7 +53657,7 @@
         <v>20</v>
       </c>
       <c r="G2512" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H2512" s="2"/>
     </row>
@@ -54041,7 +54041,7 @@
         <v>20</v>
       </c>
       <c r="G2536" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H2536" s="2"/>
     </row>
@@ -54422,7 +54422,7 @@
         <v>20</v>
       </c>
       <c r="G2560" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H2560" s="2"/>
     </row>
@@ -54875,7 +54875,7 @@
         <v>20</v>
       </c>
       <c r="G2587" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H2587" s="2"/>
     </row>
@@ -55243,7 +55243,7 @@
     </row>
     <row r="2611" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2611" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
       <c r="B2611" s="6">
         <f>((B2381*B2601)-Parameters!$B$15)*0.975</f>
@@ -55259,10 +55259,10 @@
         <v>20</v>
       </c>
       <c r="G2611" t="s">
-        <v>1042</v>
+        <v>1150</v>
       </c>
       <c r="H2611" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="2612" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -55283,7 +55283,7 @@
         <v>20</v>
       </c>
       <c r="G2612" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H2612" s="2"/>
     </row>
@@ -55648,7 +55648,7 @@
     </row>
     <row r="2636" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2636" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
       <c r="B2636" s="6">
         <f>((B2381*B2626)-Parameters!$B$15)*0.975</f>
@@ -55664,10 +55664,10 @@
         <v>20</v>
       </c>
       <c r="G2636" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H2636" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="2637" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -55688,7 +55688,7 @@
         <v>20</v>
       </c>
       <c r="G2637" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H2637" s="2"/>
     </row>
@@ -56125,7 +56125,7 @@
     </row>
     <row r="2664" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2664" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
       <c r="B2664" s="6">
         <f>((B2381*B2651)-Parameters!$B$15)*0.975</f>
@@ -56141,10 +56141,10 @@
         <v>20</v>
       </c>
       <c r="G2664" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H2664" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="2665" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -56165,7 +56165,7 @@
         <v>20</v>
       </c>
       <c r="G2665" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H2665" s="2"/>
     </row>
@@ -58260,7 +58260,7 @@
         <v>1</v>
       </c>
       <c r="B2805" s="58" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="2806" spans="1:10" x14ac:dyDescent="0.2">
@@ -58358,7 +58358,7 @@
     </row>
     <row r="2815" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2815" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B2815" s="6">
         <v>1</v>
@@ -58607,7 +58607,7 @@
         <v>1</v>
       </c>
       <c r="B2828" s="58" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="2829" spans="1:10" x14ac:dyDescent="0.2">
@@ -58705,7 +58705,7 @@
     </row>
     <row r="2838" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2838" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B2838" s="6">
         <v>1</v>
@@ -58954,7 +58954,7 @@
         <v>1</v>
       </c>
       <c r="B2851" s="58" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="2852" spans="1:10" x14ac:dyDescent="0.2">
@@ -59052,7 +59052,7 @@
     </row>
     <row r="2861" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2861" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B2861" s="6">
         <v>1</v>
@@ -59327,7 +59327,7 @@
   <dimension ref="A1:J220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -59412,7 +59412,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B10" s="5">
         <f>B9*(1-B11)</f>
@@ -60451,7 +60451,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B61" s="6">
         <f>(0.1173+0.0481+0.011)</f>
@@ -60461,13 +60461,13 @@
         <v>121</v>
       </c>
       <c r="E61" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F61" t="s">
         <v>36</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -60781,7 +60781,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B84" s="6">
         <f>(0.0867+0.0356+0.0081)</f>
@@ -60791,13 +60791,13 @@
         <v>121</v>
       </c>
       <c r="E84" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F84" t="s">
         <v>36</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -61134,7 +61134,7 @@
         <v>20</v>
       </c>
       <c r="G106" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H106" s="2"/>
     </row>
@@ -61472,7 +61472,7 @@
         <v>20</v>
       </c>
       <c r="G128" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H128" s="2"/>
     </row>
@@ -61834,7 +61834,7 @@
         <v>20</v>
       </c>
       <c r="G151" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H151" s="2"/>
     </row>
@@ -62896,8 +62896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -62982,7 +62982,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B10" s="6">
         <f>B9*(1-B11)</f>
@@ -64101,7 +64101,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B65" s="6">
         <f>1.305</f>
@@ -64111,13 +64111,13 @@
         <v>121</v>
       </c>
       <c r="E65" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F65" t="s">
         <v>36</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -64519,7 +64519,7 @@
         <v>20</v>
       </c>
       <c r="G92" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H92" s="2"/>
     </row>
@@ -64528,7 +64528,7 @@
         <v>1</v>
       </c>
       <c r="B95" s="58" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -64629,7 +64629,7 @@
     </row>
     <row r="106" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B106" s="6">
         <v>1</v>
@@ -64928,7 +64928,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
       <c r="B121" s="6">
         <f>4.2*0.975</f>
@@ -64944,7 +64944,7 @@
         <v>20</v>
       </c>
       <c r="H121" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -64965,7 +64965,7 @@
         <v>20</v>
       </c>
       <c r="G122" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H122" s="2"/>
     </row>
@@ -65335,8 +65335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N1112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="B421" sqref="B421"/>
+    <sheetView topLeftCell="A655" workbookViewId="0">
+      <selection activeCell="H697" sqref="H697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -67684,7 +67684,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B120" s="6">
         <f>(1.1418+0.3058+0.1851)</f>
@@ -67694,13 +67694,13 @@
         <v>121</v>
       </c>
       <c r="E120" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F120" t="s">
         <v>36</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -68826,7 +68826,7 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B190" s="6">
         <f>(0.0979+0.0262+0.0159)</f>
@@ -68836,13 +68836,13 @@
         <v>121</v>
       </c>
       <c r="E190" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F190" t="s">
         <v>36</v>
       </c>
       <c r="G190" s="8" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -69607,7 +69607,7 @@
         <v>20</v>
       </c>
       <c r="G222" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H222" s="2"/>
     </row>
@@ -71612,7 +71612,7 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B330" s="6">
         <f>(0.7444+0.0637+0.1525)</f>
@@ -71622,13 +71622,13 @@
         <v>121</v>
       </c>
       <c r="E330" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F330" t="s">
         <v>36</v>
       </c>
       <c r="G330" s="8" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -72243,7 +72243,7 @@
         <v>20</v>
       </c>
       <c r="G362" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H362" s="2"/>
     </row>
@@ -72668,7 +72668,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B395" s="6">
         <f>B394*(1-B396)</f>
@@ -73073,7 +73073,7 @@
         <v>36</v>
       </c>
       <c r="G413" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.2">
@@ -73094,7 +73094,7 @@
         <v>36</v>
       </c>
       <c r="G414" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.2">
@@ -73115,7 +73115,7 @@
         <v>36</v>
       </c>
       <c r="G415" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.2">
@@ -73971,7 +73971,7 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B458" s="6">
         <f>(0.0634+0.0201+0.0193)</f>
@@ -73981,13 +73981,13 @@
         <v>121</v>
       </c>
       <c r="E458" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F458" t="s">
         <v>36</v>
       </c>
       <c r="G458" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="460" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -74133,7 +74133,7 @@
         <v>20</v>
       </c>
       <c r="G471" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H471" t="s">
         <v>647</v>
@@ -74372,7 +74372,7 @@
         <v>1</v>
       </c>
       <c r="B483" s="58" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.2">
@@ -74420,7 +74420,7 @@
         <v>11</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.2">
@@ -74473,7 +74473,7 @@
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B494" s="6">
         <v>1</v>
@@ -74781,7 +74781,7 @@
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
       <c r="B506" s="6">
         <f>(('Cozzolini 2018'!$B$471*'Cozzolini 2018'!$B$412)-Parameters!$B$15)*(0.975)</f>
@@ -74797,7 +74797,7 @@
         <v>20</v>
       </c>
       <c r="H506" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="508" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -75147,7 +75147,7 @@
         <v>1</v>
       </c>
       <c r="B530" s="58" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.2">
@@ -75240,7 +75240,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B539" s="6">
         <v>1</v>
@@ -75266,7 +75266,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B540" s="6">
         <v>1.00057</v>
@@ -75739,7 +75739,7 @@
         <v>36</v>
       </c>
       <c r="G569" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.2">
@@ -75785,7 +75785,7 @@
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B572" s="6">
         <f>1.299</f>
@@ -75795,13 +75795,13 @@
         <v>121</v>
       </c>
       <c r="E572" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F572" t="s">
         <v>36</v>
       </c>
       <c r="G572" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.2">
@@ -76221,7 +76221,7 @@
         <v>20</v>
       </c>
       <c r="G596" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H596" s="2"/>
     </row>
@@ -77422,7 +77422,7 @@
         <v>1</v>
       </c>
       <c r="B669" s="58" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="670" spans="1:8" x14ac:dyDescent="0.2">
@@ -77478,7 +77478,7 @@
         <v>11</v>
       </c>
       <c r="B676" s="6" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.2">
@@ -77523,7 +77523,7 @@
     </row>
     <row r="680" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A680" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B680" s="6">
         <v>1</v>
@@ -77959,7 +77959,7 @@
     </row>
     <row r="697" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
       <c r="B697" s="6">
         <f>(Parameters!$B$16-(B652*B639))*(0.975)</f>
@@ -77975,7 +77975,7 @@
         <v>20</v>
       </c>
       <c r="H697" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="699" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -79922,7 +79922,7 @@
     </row>
     <row r="803" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B803" s="6">
         <f>(1.1878+0.1611+0.2344)</f>
@@ -79932,13 +79932,13 @@
         <v>121</v>
       </c>
       <c r="E803" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F803" t="s">
         <v>36</v>
       </c>
       <c r="G803" s="8" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="805" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -85561,7 +85561,7 @@
   <dimension ref="A2:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D221" sqref="D221"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -85574,7 +85574,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -85622,7 +85622,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -85630,18 +85630,18 @@
         <v>11</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B11" s="5"/>
     </row>
@@ -85655,7 +85655,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B13" s="28">
         <f>7059/(7059+554)</f>
@@ -85696,7 +85696,7 @@
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -85866,7 +85866,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B24" s="3">
         <f>(0.5+13.9)*$B$13*(Parameters!$B$5/7059)</f>
@@ -85882,7 +85882,7 @@
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -85929,7 +85929,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B27" s="3">
         <f>0.0000037*$B$13*(Parameters!$B$5/7059)</f>
@@ -85945,7 +85945,7 @@
         <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -86115,7 +86115,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="58" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -86163,7 +86163,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -86171,18 +86171,18 @@
         <v>11</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B47" s="5"/>
     </row>
@@ -86196,7 +86196,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B49" s="28">
         <f>7059/(7059+554)</f>
@@ -86237,7 +86237,7 @@
     </row>
     <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
@@ -86260,7 +86260,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B53" s="3">
         <f>1000*$B$49*(Parameters!$B$5/7059)</f>
@@ -86276,7 +86276,7 @@
         <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -86407,7 +86407,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B60" s="3">
         <f>(0.5+13.9)*$B$49*(Parameters!$B$5/7059)</f>
@@ -86423,7 +86423,7 @@
         <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -86470,7 +86470,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B63" s="3">
         <f>0.0000037*$B$49*(Parameters!$B$5/7059)</f>
@@ -86486,7 +86486,7 @@
         <v>20</v>
       </c>
       <c r="H63" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -86656,7 +86656,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="58" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -86680,7 +86680,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="67" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -86704,7 +86704,7 @@
         <v>9</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -86715,13 +86715,13 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B82" s="5"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B83" s="5"/>
     </row>
@@ -86733,7 +86733,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B85" s="28">
         <f>5728/(5728+1514+2524)</f>
@@ -86774,7 +86774,7 @@
     </row>
     <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B88" s="3">
         <v>1</v>
@@ -86792,7 +86792,7 @@
         <v>18</v>
       </c>
       <c r="H88" s="67" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -86902,7 +86902,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B94" s="3">
         <f>1.1*$B$85*(Parameters!B6/5728)</f>
@@ -86918,12 +86918,12 @@
         <v>20</v>
       </c>
       <c r="H94" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B95" s="3">
         <f>6.8*$B$85*(Parameters!B6/5728)</f>
@@ -86939,12 +86939,12 @@
         <v>20</v>
       </c>
       <c r="H95" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B96" s="3">
         <f>0.00000102*$B$85*(Parameters!B6/5728)</f>
@@ -86960,12 +86960,12 @@
         <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B97" s="3">
         <f>0.000000503*$B$85*(Parameters!B6/5728)</f>
@@ -86981,7 +86981,7 @@
         <v>20</v>
       </c>
       <c r="H97" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -87115,7 +87115,7 @@
         <v>1</v>
       </c>
       <c r="B106" s="58" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -87139,7 +87139,7 @@
         <v>4</v>
       </c>
       <c r="B109" s="67" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -87163,7 +87163,7 @@
         <v>9</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -87174,13 +87174,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B114" s="5"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B115" s="5"/>
     </row>
@@ -87192,7 +87192,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B117" s="28">
         <f>5728/(5728+1514+2524)</f>
@@ -87233,7 +87233,7 @@
     </row>
     <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B120" s="3">
         <v>1</v>
@@ -87251,12 +87251,12 @@
         <v>18</v>
       </c>
       <c r="H120" s="67" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B121" s="3">
         <f>1000*$B$117*(Parameters!B6/5728)</f>
@@ -87272,7 +87272,7 @@
         <v>20</v>
       </c>
       <c r="H121" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -87361,7 +87361,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B126" s="3">
         <f>1.1*$B$117*(Parameters!B6/5728)</f>
@@ -87377,12 +87377,12 @@
         <v>20</v>
       </c>
       <c r="H126" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B127" s="3">
         <f>6.8*$B$117*(Parameters!B6/5728)</f>
@@ -87398,12 +87398,12 @@
         <v>20</v>
       </c>
       <c r="H127" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B128" s="3">
         <f>0.00000102*$B$117*(Parameters!B6/5728)</f>
@@ -87419,12 +87419,12 @@
         <v>20</v>
       </c>
       <c r="H128" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B129" s="3">
         <f>0.000000503*$B$117*(Parameters!B6/5728)</f>
@@ -87440,7 +87440,7 @@
         <v>20</v>
       </c>
       <c r="H129" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -87574,7 +87574,7 @@
         <v>1</v>
       </c>
       <c r="B139" s="58" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -87598,7 +87598,7 @@
         <v>4</v>
       </c>
       <c r="B142" s="67" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -87622,7 +87622,7 @@
         <v>9</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -87630,18 +87630,18 @@
         <v>11</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B147" s="5"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B148" s="5"/>
     </row>
@@ -87653,7 +87653,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B150" s="28">
         <f>2524/(5728+1514+2524)</f>
@@ -87694,7 +87694,7 @@
     </row>
     <row r="153" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B153" s="3">
         <v>1</v>
@@ -87712,7 +87712,7 @@
         <v>18</v>
       </c>
       <c r="H153" s="67" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -87822,7 +87822,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B159" s="3">
         <f>1.1*$B$150*(Parameters!B7/5728)</f>
@@ -87838,12 +87838,12 @@
         <v>20</v>
       </c>
       <c r="H159" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B160" s="3">
         <f>6.8*$B$150*(Parameters!B7/5728)</f>
@@ -87859,12 +87859,12 @@
         <v>20</v>
       </c>
       <c r="H160" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B161" s="3">
         <f>0.00000102*$B$150*(Parameters!B7/5728)</f>
@@ -87880,12 +87880,12 @@
         <v>20</v>
       </c>
       <c r="H161" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B162" s="3">
         <f>0.000000503*$B$150*(Parameters!B7/5728)</f>
@@ -87901,7 +87901,7 @@
         <v>20</v>
       </c>
       <c r="H162" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -88035,7 +88035,7 @@
         <v>1</v>
       </c>
       <c r="B171" s="58" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -88059,7 +88059,7 @@
         <v>4</v>
       </c>
       <c r="B174" s="67" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
@@ -88083,7 +88083,7 @@
         <v>9</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -88094,13 +88094,13 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B179" s="5"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B180" s="5"/>
     </row>
@@ -88112,7 +88112,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B182" s="28">
         <f>2524/(5728+1514+2524)</f>
@@ -88153,7 +88153,7 @@
     </row>
     <row r="185" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B185" s="3">
         <v>1</v>
@@ -88171,12 +88171,12 @@
         <v>18</v>
       </c>
       <c r="H185" s="67" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B186" s="3">
         <f>1000*$B$182*(Parameters!B7/5728)</f>
@@ -88192,7 +88192,7 @@
         <v>20</v>
       </c>
       <c r="H186" s="6" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -88281,7 +88281,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B191" s="3">
         <f>1.1*$B$182*(Parameters!B7/5728)</f>
@@ -88297,12 +88297,12 @@
         <v>20</v>
       </c>
       <c r="H191" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B192" s="3">
         <f>6.8*$B$182*(Parameters!B7/5728)</f>
@@ -88318,12 +88318,12 @@
         <v>20</v>
       </c>
       <c r="H192" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B193" s="3">
         <f>0.00000102*$B$182*(Parameters!B7/5728)</f>
@@ -88339,12 +88339,12 @@
         <v>20</v>
       </c>
       <c r="H193" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B194" s="3">
         <f>0.000000503*$B$182*(Parameters!B7/5728)</f>
@@ -88360,7 +88360,7 @@
         <v>20</v>
       </c>
       <c r="H194" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -88550,7 +88550,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B6">
         <v>37.200000000000003</v>
@@ -88558,7 +88558,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B7">
         <v>43</v>
@@ -88640,7 +88640,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B17">
         <v>3.15</v>
@@ -88648,7 +88648,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B18">
         <v>0.90700000000000003</v>

--- a/premise/data/additional_inventories/lci-biofuels.xlsx
+++ b/premise/data/additional_inventories/lci-biofuels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D0E443-966E-754B-B87A-558D22ECBC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DE8EE5-0845-EB4F-98B0-880A61010560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -580,7 +580,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19437" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19437" uniqueCount="1162">
   <si>
     <t>Database</t>
   </si>
@@ -4091,6 +4091,9 @@
   </si>
   <si>
     <t>irrigation, from "sweet sorghum production, CN" from ecoinvent</t>
+  </si>
+  <si>
+    <t>from ecoinvent 3.7 "rape seed production, DE"</t>
   </si>
 </sst>
 </file>
@@ -4765,8 +4768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W166"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="B16" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView showZeros="0" topLeftCell="B1" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13531,7 +13534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2872"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2008" zoomScale="131" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView topLeftCell="B2008" zoomScale="131" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="G2024" sqref="G2024"/>
     </sheetView>
   </sheetViews>
@@ -65353,8 +65356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N1111"/>
   <sheetViews>
-    <sheetView topLeftCell="A542" workbookViewId="0">
-      <selection activeCell="A571" sqref="A571"/>
+    <sheetView tabSelected="1" topLeftCell="A717" workbookViewId="0">
+      <selection activeCell="G755" sqref="G755"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -78957,7 +78960,7 @@
         <v>126</v>
       </c>
       <c r="B754" s="6">
-        <v>0.21836674491491001</v>
+        <v>7.6053367504319305E-2</v>
       </c>
       <c r="D754" t="s">
         <v>121</v>
@@ -78969,7 +78972,7 @@
         <v>36</v>
       </c>
       <c r="G754" t="s">
-        <v>940</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="755" spans="1:8" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-biofuels.xlsx
+++ b/premise/data/additional_inventories/lci-biofuels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942994E7-6F34-8448-AF47-7B1EAC61FEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5506ECCF-EE0D-6146-9E99-FA47F147A979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2320" windowWidth="36080" windowHeight="22720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -580,7 +580,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19441" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19446" uniqueCount="1163">
   <si>
     <t>Database</t>
   </si>
@@ -4051,9 +4051,6 @@
     <t>kerosene production, via Fischer-Tropsch, from forest product (non-residual), energy allocation</t>
   </si>
   <si>
-    <t>1.81kg CO2/kg wood chips. Kerosene: 3.15 kgCO2/kg</t>
-  </si>
-  <si>
     <t>kerosene production, via Fischer-Tropsch, from forest product (non-residual), with carbon capture and storage, energy allocation</t>
   </si>
   <si>
@@ -4091,6 +4088,15 @@
   </si>
   <si>
     <t>0 km by barge, 150 km by truck.</t>
+  </si>
+  <si>
+    <t>1.86kg CO2/kg wood chips. Kerosene: 3.1 kgCO2/kg</t>
+  </si>
+  <si>
+    <t>1.86kg CO2/kg wood chips. Biodiesel: 2.8 kgCO2/kg</t>
+  </si>
+  <si>
+    <t>1.86kg CO2/kg wood chips. Ethanol: 1.91 kgCO2/kg</t>
   </si>
 </sst>
 </file>
@@ -4485,7 +4491,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7298,7 +7304,7 @@
       </c>
       <c r="M53" s="5">
         <f>'Cavalett &amp; Cherubini 2022'!B27</f>
-        <v>5.1810216734533041</v>
+        <v>5.3462721660317882</v>
       </c>
       <c r="N53">
         <v>26.8</v>
@@ -7344,7 +7350,7 @@
       </c>
       <c r="M54" s="5">
         <f>'Cavalett &amp; Cherubini 2022'!B63</f>
-        <v>5.1810216734533041</v>
+        <v>5.3462721660317882</v>
       </c>
       <c r="N54">
         <v>26.8</v>
@@ -7595,7 +7601,7 @@
       </c>
       <c r="M59" s="5">
         <f>'Cavalett &amp; Cherubini 2022'!B97</f>
-        <v>4.0775445422895764</v>
+        <v>4.2849887364325214</v>
       </c>
       <c r="N59">
         <v>43</v>
@@ -7641,7 +7647,7 @@
       </c>
       <c r="M60" s="5">
         <f>'Cavalett &amp; Cherubini 2022'!B129</f>
-        <v>4.0775445422895764</v>
+        <v>4.2849887364325214</v>
       </c>
       <c r="N60">
         <v>43</v>
@@ -7687,7 +7693,7 @@
       </c>
       <c r="M61" s="5">
         <f>'Cavalett &amp; Cherubini 2022'!B162</f>
-        <v>4.8194859717386862</v>
+        <v>5.0896375179193125</v>
       </c>
       <c r="N61">
         <v>43</v>
@@ -7733,7 +7739,7 @@
       </c>
       <c r="M62" s="5">
         <f>'Cavalett &amp; Cherubini 2022'!B194</f>
-        <v>4.8194859717386862</v>
+        <v>5.0896375179193125</v>
       </c>
       <c r="N62">
         <v>43</v>
@@ -8986,7 +8992,7 @@
       </c>
       <c r="M86" s="4">
         <f t="shared" si="20"/>
-        <v>0.19332170423333223</v>
+        <v>0.19948776738924581</v>
       </c>
       <c r="N86" s="35">
         <f t="shared" si="21"/>
@@ -9044,7 +9050,7 @@
       </c>
       <c r="M87" s="4">
         <f t="shared" si="20"/>
-        <v>0.19332170423333223</v>
+        <v>0.19948776738924581</v>
       </c>
       <c r="N87" s="35">
         <f t="shared" si="21"/>
@@ -9334,7 +9340,7 @@
       </c>
       <c r="M92" s="4">
         <f t="shared" si="20"/>
-        <v>9.4826617262548291E-2</v>
+        <v>9.9650900847267937E-2</v>
       </c>
       <c r="N92" s="35">
         <f t="shared" si="21"/>
@@ -9392,7 +9398,7 @@
       </c>
       <c r="M93" s="4">
         <f t="shared" si="20"/>
-        <v>9.4826617262548291E-2</v>
+        <v>9.9650900847267937E-2</v>
       </c>
       <c r="N93" s="35">
         <f t="shared" si="21"/>
@@ -9450,7 +9456,7 @@
       </c>
       <c r="M94" s="4">
         <f t="shared" si="20"/>
-        <v>0.11208106911020201</v>
+        <v>0.11836366320742588</v>
       </c>
       <c r="N94" s="35">
         <f t="shared" si="21"/>
@@ -9508,7 +9514,7 @@
       </c>
       <c r="M95" s="4">
         <f t="shared" si="20"/>
-        <v>0.11208106911020201</v>
+        <v>0.11836366320742588</v>
       </c>
       <c r="N95" s="35">
         <f t="shared" si="21"/>
@@ -45617,7 +45623,7 @@
         <v>20</v>
       </c>
       <c r="G2023" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H2023" t="s">
         <v>122</v>
@@ -63332,7 +63338,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -63353,7 +63359,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -63374,7 +63380,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -65368,7 +65374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N1111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
+    <sheetView topLeftCell="A541" workbookViewId="0">
       <selection activeCell="G552" sqref="G552"/>
     </sheetView>
   </sheetViews>
@@ -75594,7 +75600,7 @@
         <v>11</v>
       </c>
       <c r="B561" s="6" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="562" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -78984,7 +78990,7 @@
         <v>36</v>
       </c>
       <c r="G754" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="755" spans="1:8" x14ac:dyDescent="0.2">
@@ -85567,8 +85573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F5820A-E001-4A42-8382-32FC181BB2BB}">
   <dimension ref="A1:H235"/>
   <sheetViews>
-    <sheetView topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="A227" sqref="A227"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -85960,8 +85966,8 @@
         <v>265</v>
       </c>
       <c r="B27" s="3">
-        <f>('Cavalett &amp; Cherubini 2022'!B16*'Cozzolini 2018'!$B$569)-Parameters!$B$15</f>
-        <v>5.1810216734533041</v>
+        <f>(B16*1.86)-1.91</f>
+        <v>5.3462721660317882</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -85971,6 +85977,9 @@
       </c>
       <c r="F27" t="s">
         <v>36</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -86501,8 +86510,8 @@
         <v>265</v>
       </c>
       <c r="B63" s="3">
-        <f>('Cavalett &amp; Cherubini 2022'!B52*'Cozzolini 2018'!$B$569)-Parameters!$B$15</f>
-        <v>5.1810216734533041</v>
+        <f>(B52*1.86)-1.91</f>
+        <v>5.3462721660317882</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
@@ -86512,6 +86521,9 @@
       </c>
       <c r="F63" t="s">
         <v>36</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -86993,13 +87005,13 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>265</v>
       </c>
       <c r="B97" s="3">
-        <f>('Cavalett &amp; Cherubini 2022'!B88*'Cozzolini 2018'!$B$569)-Parameters!$B$16</f>
-        <v>4.0775445422895764</v>
+        <f>(B88*1.86)-2.8</f>
+        <v>4.2849887364325214</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -87010,8 +87022,11 @@
       <c r="F97" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G97" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>191</v>
       </c>
@@ -87029,7 +87044,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>193</v>
       </c>
@@ -87047,7 +87062,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>38</v>
       </c>
@@ -87065,7 +87080,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>314</v>
       </c>
@@ -87083,7 +87098,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>315</v>
       </c>
@@ -87101,7 +87116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>40</v>
       </c>
@@ -87119,7 +87134,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -87127,7 +87142,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>2</v>
       </c>
@@ -87135,7 +87150,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -87143,7 +87158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -87151,7 +87166,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -87159,7 +87174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -87167,7 +87182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -87175,7 +87190,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -87454,13 +87469,13 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>265</v>
       </c>
       <c r="B129" s="3">
-        <f>('Cavalett &amp; Cherubini 2022'!B120*'Cozzolini 2018'!$B$569)-Parameters!$B$16</f>
-        <v>4.0775445422895764</v>
+        <f>(B120*1.86)-2.8</f>
+        <v>4.2849887364325214</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
@@ -87471,8 +87486,11 @@
       <c r="F129" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G129" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>191</v>
       </c>
@@ -87490,7 +87508,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>193</v>
       </c>
@@ -87508,7 +87526,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>38</v>
       </c>
@@ -87526,7 +87544,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>314</v>
       </c>
@@ -87544,7 +87562,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>315</v>
       </c>
@@ -87562,7 +87580,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>40</v>
       </c>
@@ -87580,7 +87598,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>1</v>
       </c>
@@ -87588,7 +87606,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -87596,7 +87614,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>3</v>
       </c>
@@ -87604,7 +87622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>4</v>
       </c>
@@ -87612,7 +87630,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -87620,7 +87638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -87628,7 +87646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -87920,8 +87938,8 @@
         <v>265</v>
       </c>
       <c r="B162" s="3">
-        <f>(B153*1.81)-3.15</f>
-        <v>4.8194859717386862</v>
+        <f>(B153*1.86)-3.1</f>
+        <v>5.0896375179193125</v>
       </c>
       <c r="D162" t="s">
         <v>8</v>
@@ -87933,7 +87951,7 @@
         <v>36</v>
       </c>
       <c r="G162" t="s">
-        <v>1147</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -88384,8 +88402,8 @@
         <v>265</v>
       </c>
       <c r="B194" s="3">
-        <f>(B185*1.81)-3.15</f>
-        <v>4.8194859717386862</v>
+        <f>(B185*1.86)-3.1</f>
+        <v>5.0896375179193125</v>
       </c>
       <c r="D194" t="s">
         <v>8</v>
@@ -88395,6 +88413,9 @@
       </c>
       <c r="F194" t="s">
         <v>36</v>
+      </c>
+      <c r="G194" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -88510,7 +88531,7 @@
         <v>1</v>
       </c>
       <c r="B202" s="58" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -88558,7 +88579,7 @@
         <v>9</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -88969,7 +88990,7 @@
         <v>20</v>
       </c>
       <c r="G233" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H233" t="s">
         <v>30</v>
@@ -88977,7 +88998,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B234" s="6">
         <v>4.0000000000000001E-3</v>
@@ -88992,15 +89013,15 @@
         <v>20</v>
       </c>
       <c r="G234" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H234" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B235" s="71">
         <f>4.81948597173869*0.9</f>
@@ -89016,10 +89037,10 @@
         <v>20</v>
       </c>
       <c r="G235" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H235" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
   </sheetData>
